--- a/CdS_Mastodon/lib/toots/xlsx/toots_CdS_3.xlsx
+++ b/CdS_Mastodon/lib/toots/xlsx/toots_CdS_3.xlsx
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-2-20</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19:07:19</t>
+          <t>13:25:48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Quoique je sois si souffrante depuis deux jours, que j’ai peine à écrire, je veux vous dire ..." à Villenave, 1833-02-20, https://constance-de-salm.de/archiv/#/document/11033 #onthisday</t>
+          <t>»Quoique je sois si souffrante depuis deux jours, que j’ai peine à écrire, je veux vous dire ...« à Villenave, 1833-02-20, https://constance-de-salm.de/archiv/#/document/11033 #onthisday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-2-21</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14:55:57</t>
+          <t>16:10:11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"J’ai bien tardé à répondre à votre dernière lettre, Monsieur, quoiqu’elle soit fort importante pour moi ..." à Pailliet, 1827-02-21, https://constance-de-salm.de/archiv/#/document/11364 #onthisday</t>
+          <t>»J’ai bien tardé à répondre à votre dernière lettre, Monsieur, quoiqu’elle soit fort importante pour moi ...« à Pailliet, 1827-02-21, https://constance-de-salm.de/archiv/#/document/11364 #onthisday</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,17 +517,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-2-21</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09:46:20</t>
+          <t>15:15:18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Je m'ennuie fort, Monsieur, de ne plus entendre parler de vous; ..." à Mirault, 1832-02-21, https://constance-de-salm.de/archiv/#/document/5400 #onthisday</t>
+          <t>»Je m'ennuie fort, Monsieur, de ne plus entendre parler de vous; ...« à Mirault, 1832-02-21, https://constance-de-salm.de/archiv/#/document/5400 #onthisday</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -544,17 +544,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-2-22</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10:21:39</t>
+          <t>18:37:23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Après avoir vu vos chers enfants, ma bien chère voisine et amie, j’éprouve le besoin de jaser avec vous, et d’autant plus ..." à Hompesch, 1835-02-22, https://constance-de-salm.de/archiv/#/document/9573 #onthisday</t>
+          <t>»Après avoir vu vos chers enfants, ma bien chère voisine et amie, j’éprouve le besoin de jaser avec vous, et d’autant plus ...« à Hompesch, 1835-02-22, https://constance-de-salm.de/archiv/#/document/9573 #onthisday</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-2-23</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16:43:40</t>
+          <t>12:21:56</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"C'est avec grand plaisir que j'ai reçu, mon cher Didot, votre traduction des Idylles de Théocrite ..." à Didot, 1834-02-23, https://constance-de-salm.de/archiv/#/document/5545 #onthisday</t>
+          <t>»C'est avec grand plaisir que j'ai reçu, mon cher Didot, votre traduction des Idylles de Théocrite ...« à Didot, 1834-02-23, https://constance-de-salm.de/archiv/#/document/5545 #onthisday</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,17 +598,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-2-23</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19:09:38</t>
+          <t>15:02:46</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur, que vous êtes si occupé que vous pouvez avoir oublié mon pauvre Lantier ..." à Villenave, 1834-02-23, https://constance-de-salm.de/archiv/#/document/5542 #onthisday</t>
+          <t>»Il me semble, Monsieur, que vous êtes si occupé que vous pouvez avoir oublié mon pauvre Lantier ...« à Villenave, 1834-02-23, https://constance-de-salm.de/archiv/#/document/5542 #onthisday</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-2-25</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12:58:44</t>
+          <t>14:31:44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Voilà déjà longtemps que j’ai reçu ta lettre, cher frère, et je t’aurais répondu beaucoup plutôt ..." à Théis, 1832-02-25, https://constance-de-salm.de/archiv/#/document/10812 #onthisday</t>
+          <t>»Voilà déjà longtemps que j’ai reçu ta lettre, cher frère, et je t’aurais répondu beaucoup plutôt ...« à Théis, 1832-02-25, https://constance-de-salm.de/archiv/#/document/10812 #onthisday</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -652,17 +652,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-2-26</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09:03:00</t>
+          <t>14:07:25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Cher frère, je reçois à l’instant ta lettre, et j’y réponds sans diférer (sic) en ayant le temps ..." à Théis, 1822-02-26, https://constance-de-salm.de/archiv/#/document/10537 #onthisday</t>
+          <t>»Cher frère, je reçois à l’instant ta lettre, et j’y réponds sans diférer (sic) en ayant le temps ...« à Théis, 1822-02-26, https://constance-de-salm.de/archiv/#/document/10537 #onthisday</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -679,17 +679,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-2-26</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09:03:49</t>
+          <t>19:41:55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Je reçois votre grande lettre, Monsieur, au moment où j'en fait partir ..." à Jullien de Paris, 1831-02-26, https://constance-de-salm.de/archiv/#/document/6381 #onthisday</t>
+          <t>»Je reçois votre grande lettre, Monsieur, au moment où j'en fait partir ...« à Jullien de Paris, 1831-02-26, https://constance-de-salm.de/archiv/#/document/6381 #onthisday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -706,17 +706,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-2-27</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14:43:11</t>
+          <t>09:51:56</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"La chère tante et le major seront les très bienvenus ..." à Prous, 1816-02-27, https://constance-de-salm.de/archiv/#/document/4292 #onthisday</t>
+          <t>»La chère tante et le major seront les très bienvenus ...« à Prous, 1816-02-27, https://constance-de-salm.de/archiv/#/document/4292 #onthisday</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,17 +733,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-2-27</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18:26:43</t>
+          <t>18:16:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"La chère tante et le major seront les très bienvenus ..." à Prous, 1816-02-27, https://constance-de-salm.de/archiv/#/document/2781 #onthisday</t>
+          <t>»La chère tante et le major seront les très bienvenus ...« à Prous, 1816-02-27, https://constance-de-salm.de/archiv/#/document/2781 #onthisday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -760,17 +760,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-2-28</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10:38:09</t>
+          <t>17:20:26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"J’ai reçu une lettre de mon neveu Charles qui quitte la Hollande où il était en mission ..." à Drais, 1835-02-28, https://constance-de-salm.de/archiv/#/document/9577 #onthisday</t>
+          <t>»J’ai reçu une lettre de mon neveu Charles qui quitte la Hollande où il était en mission ...« à Drais, 1835-02-28, https://constance-de-salm.de/archiv/#/document/9577 #onthisday</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-2-29</t>
+          <t>2026-02-29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17:20:22</t>
+          <t>11:28:10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"; Me voilà encore dans mon lit, Monsieur et Madame, toussant, étouffant ..." à Sanson de Pongerville, 1840-02-29, https://constance-de-salm.de/archiv/#/document/8160 #onthisday</t>
+          <t>»; Me voilà encore dans mon lit, Monsieur et Madame, toussant, étouffant ...« à Sanson de Pongerville, 1840-02-29, https://constance-de-salm.de/archiv/#/document/8160 #onthisday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -814,17 +814,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-3-2</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09:38:01</t>
+          <t>17:50:28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Vous serez sans doute surpris, Prince, de recevoir une lettre de moi dans ce moment ..." à Hatzfeldt, 1828-03-02, https://constance-de-salm.de/archiv/#/document/765 #onthisday</t>
+          <t>»Vous serez sans doute surpris, Prince, de recevoir une lettre de moi dans ce moment ...« à Hatzfeldt, 1828-03-02, https://constance-de-salm.de/archiv/#/document/765 #onthisday</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -841,17 +841,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-3-2</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09:43:47</t>
+          <t>11:17:25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Vous serez sans doute surpris, Prince, de recevoir une lettre de moi dans ce moment ..." à Hatzfeldt, 1828-03-02, https://constance-de-salm.de/archiv/#/document/764 #onthisday</t>
+          <t>»Vous serez sans doute surpris, Prince, de recevoir une lettre de moi dans ce moment ...« à Hatzfeldt, 1828-03-02, https://constance-de-salm.de/archiv/#/document/764 #onthisday</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -868,17 +868,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-3-3</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13:24:38</t>
+          <t>11:38:48</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Je n’ai jamais refusé des conseils à ceux qui m’ont crue capable ..." à Salis, 1798-03-03, https://constance-de-salm.de/archiv/#/document/8512 #onthisday</t>
+          <t>»Je n’ai jamais refusé des conseils à ceux qui m’ont crue capable ...« à Salis, 1798-03-03, https://constance-de-salm.de/archiv/#/document/8512 #onthisday</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -895,17 +895,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-3-5</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18:49:55</t>
+          <t>09:06:14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Je pense, Monsieur et ami, que vous aurez été étonné du silence que j’ai gardé sur la fin si malheureuse de notre cher Girodet ..." à Barbier, 1825-03-05, https://constance-de-salm.de/archiv/#/document/8937 #onthisday</t>
+          <t>»Je pense, Monsieur et ami, que vous aurez été étonné du silence que j’ai gardé sur la fin si malheureuse de notre cher Girodet ...« à Barbier, 1825-03-05, https://constance-de-salm.de/archiv/#/document/8937 #onthisday</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,17 +922,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-3-5</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18:41:47</t>
+          <t>17:50:12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Que pensez-vous de mon long silence, bien chère Princesse, après la toute aimable lettre que vous m'avez écrite ..." à Thurn und Taxis, 1825-03-05, https://constance-de-salm.de/archiv/#/document/5811 #onthisday</t>
+          <t>»Que pensez-vous de mon long silence, bien chère Princesse, après la toute aimable lettre que vous m'avez écrite ...« à Thurn und Taxis, 1825-03-05, https://constance-de-salm.de/archiv/#/document/5811 #onthisday</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -949,17 +949,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-3-6</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15:12:07</t>
+          <t>14:10:35</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre touchante lettre, ma bien véritable amie, au moment même, où remplie de douleur et de regrets causés par la perte cruelle ..." à Salis, 1825-03-06, https://constance-de-salm.de/archiv/#/document/10343 #onthisday</t>
+          <t>»J’ai reçu votre touchante lettre, ma bien véritable amie, au moment même, où remplie de douleur et de regrets causés par la perte cruelle ...« à Salis, 1825-03-06, https://constance-de-salm.de/archiv/#/document/10343 #onthisday</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -976,17 +976,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-3-7</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12:15:26</t>
+          <t>09:31:41</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Je vous remercie, Madame, de m'avoir envoyé votre „Opinion sur la gymnastique amorosienne” ..." à Dauriat, 1834-03-07, https://constance-de-salm.de/archiv/#/document/5535 #onthisday</t>
+          <t>»Je vous remercie, Madame, de m'avoir envoyé votre „Opinion sur la gymnastique amorosienne” ...« à Dauriat, 1834-03-07, https://constance-de-salm.de/archiv/#/document/5535 #onthisday</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1003,17 +1003,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-3-8</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12:16:11</t>
+          <t>12:05:36</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Quoique je t’aie écrit hier, ma chère Minette ..." à Francq, 1816-03-08, https://constance-de-salm.de/archiv/#/document/6280 #onthisday</t>
+          <t>»Quoique je t’aie écrit hier, ma chère Minette ...« à Francq, 1816-03-08, https://constance-de-salm.de/archiv/#/document/6280 #onthisday</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-3-9</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12:24:42</t>
+          <t>17:08:39</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir votre lettre, mon ancien ami; il fait un tems déplorable qui m’empêche de sortir ..." à Raboteau, 1824-03-09, https://constance-de-salm.de/archiv/#/document/11308 #onthisday</t>
+          <t>»Je viens de recevoir votre lettre, mon ancien ami; il fait un tems déplorable qui m’empêche de sortir ...« à Raboteau, 1824-03-09, https://constance-de-salm.de/archiv/#/document/11308 #onthisday</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1057,17 +1057,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-3-9</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08:08:35</t>
+          <t>14:52:29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir votre lettre, mon ancien ami; il fait un tems déplorable qui m’empêche de sortir ..." à Raboteau, 1824-03-09, https://constance-de-salm.de/archiv/#/document/4001 #onthisday</t>
+          <t>»Je viens de recevoir votre lettre, mon ancien ami; il fait un tems déplorable qui m’empêche de sortir ...« à Raboteau, 1824-03-09, https://constance-de-salm.de/archiv/#/document/4001 #onthisday</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-3-10</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10:17:57</t>
+          <t>10:13:25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Comme vous partez, je crois, demain, Monsieur le baron, je ne veux pas perdre un instant ..." à Ladoucette, 1829-03-10, https://constance-de-salm.de/archiv/#/document/9318 #onthisday</t>
+          <t>»Comme vous partez, je crois, demain, Monsieur le baron, je ne veux pas perdre un instant ...« à Ladoucette, 1829-03-10, https://constance-de-salm.de/archiv/#/document/9318 #onthisday</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1111,17 +1111,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-3-10</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19:06:08</t>
+          <t>08:01:33</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"J'ai vu ce matin en ouvrant le „Constitutionnel“, Monsieur et ancien ami ..." à Duval, 1831-03-10, https://constance-de-salm.de/archiv/#/document/6416 #onthisday</t>
+          <t>»J'ai vu ce matin en ouvrant le „Constitutionnel“, Monsieur et ancien ami ...« à Duval, 1831-03-10, https://constance-de-salm.de/archiv/#/document/6416 #onthisday</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1138,17 +1138,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-3-11</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14:47:20</t>
+          <t>12:04:25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"On me dit, Monsieur, que vous êtes affligé de la perte de votre procès ..." à Montémont, 1830-03-11, https://constance-de-salm.de/archiv/#/document/8241 #onthisday</t>
+          <t>»On me dit, Monsieur, que vous êtes affligé de la perte de votre procès ...« à Montémont, 1830-03-11, https://constance-de-salm.de/archiv/#/document/8241 #onthisday</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1165,17 +1165,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-3-12</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17:17:20</t>
+          <t>19:10:25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"On remettra chez vous, avec ce petit billet, Monsieur, trois exemplaires de quelques vers ..." à Tissot, 1825-03-12, https://constance-de-salm.de/archiv/#/document/8940 #onthisday</t>
+          <t>»On remettra chez vous, avec ce petit billet, Monsieur, trois exemplaires de quelques vers ...« à Tissot, 1825-03-12, https://constance-de-salm.de/archiv/#/document/8940 #onthisday</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1192,17 +1192,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-3-12</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17:37:15</t>
+          <t>12:49:20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Je suis arrivée ici, il y a cinq jours, cher frère; j’ai écrit à l’instant à ta fille ..." à Théis, 1829-03-12, https://constance-de-salm.de/archiv/#/document/9321 #onthisday</t>
+          <t>»Je suis arrivée ici, il y a cinq jours, cher frère; j’ai écrit à l’instant à ta fille ...« à Théis, 1829-03-12, https://constance-de-salm.de/archiv/#/document/9321 #onthisday</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,17 +1219,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-3-13</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13:55:35</t>
+          <t>09:31:58</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Vous m'avez promis de venir ce soir, Monsieur, mais je ne veux pas attendre jusque là pour vous dire ..." à Roux de Rochelle, 1841-03-13, https://constance-de-salm.de/archiv/#/document/7215 #onthisday</t>
+          <t>»Vous m'avez promis de venir ce soir, Monsieur, mais je ne veux pas attendre jusque là pour vous dire ...« à Roux de Rochelle, 1841-03-13, https://constance-de-salm.de/archiv/#/document/7215 #onthisday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1246,17 +1246,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-3-14</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14:52:00</t>
+          <t>08:08:31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Il me sera bien impossible d’aller chez vous, ce soir, ma très belle, et je veux vous le dire moi-même ..." à Laya, 1827-03-14, https://constance-de-salm.de/archiv/#/document/9061 #onthisday</t>
+          <t>»Il me sera bien impossible d’aller chez vous, ce soir, ma très belle, et je veux vous le dire moi-même ...« à Laya, 1827-03-14, https://constance-de-salm.de/archiv/#/document/9061 #onthisday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1273,17 +1273,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-3-14</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16:24:22</t>
+          <t>10:37:12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Je suis fort sensible, Madame, à tout ce que vous me dites d’obligeant ..." à Jaquotot, 1828-03-14, https://constance-de-salm.de/archiv/#/document/9136 #onthisday</t>
+          <t>»Je suis fort sensible, Madame, à tout ce que vous me dites d’obligeant ...« à Jaquotot, 1828-03-14, https://constance-de-salm.de/archiv/#/document/9136 #onthisday</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-3-15</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15:44:41</t>
+          <t>11:18:33</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Je vous sais bien bon gré, ma chère amie, de l'intérêt que vous prenez à mon aventure ..." à Salis, 1800-03-15, https://constance-de-salm.de/archiv/#/document/5143 #onthisday</t>
+          <t>»Je vous sais bien bon gré, ma chère amie, de l'intérêt que vous prenez à mon aventure ...« à Salis, 1800-03-15, https://constance-de-salm.de/archiv/#/document/5143 #onthisday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1327,17 +1327,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-3-15</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10:56:45</t>
+          <t>10:44:16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Madame, le froid chagrin d'une sombre douleur, Après... [Fortsetzung des Verses fehlt], Me voilà donc dans cette ville antique / Où je vous vis pour la permière fois ! ..." à Thurn und Taxis, 1822-03-15, https://constance-de-salm.de/archiv/#/document/5807 #onthisday</t>
+          <t>»Madame, le froid chagrin d'une sombre douleur, Après... [Fortsetzung des Verses fehlt], Me voilà donc dans cette ville antique / Où je vous vis pour la permière fois ! ...« à Thurn und Taxis, 1822-03-15, https://constance-de-salm.de/archiv/#/document/5807 #onthisday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1354,17 +1354,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-3-16</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15:33:33</t>
+          <t>12:16:33</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y a déjà assez longtemps, Monsieur ..." à Prous, 1817-03-16, https://constance-de-salm.de/archiv/#/document/2812 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y a déjà assez longtemps, Monsieur ...« à Prous, 1817-03-16, https://constance-de-salm.de/archiv/#/document/2812 #onthisday</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1381,17 +1381,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-3-17</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:09:01</t>
+          <t>17:27:48</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"C’est aujourd’hui dimanche, Monsieur, mes enfants, comme vous le savez, sont partis depuis jeudi ..." à Drais, 1844-03-17, https://constance-de-salm.de/archiv/#/document/786 #onthisday</t>
+          <t>»C’est aujourd’hui dimanche, Monsieur, mes enfants, comme vous le savez, sont partis depuis jeudi ...« à Drais, 1844-03-17, https://constance-de-salm.de/archiv/#/document/786 #onthisday</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1408,17 +1408,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-3-18</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11:04:25</t>
+          <t>13:31:49</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur le baron, un post-scriptum que je déchire d’une lettre que je viens de recevoir de mon frère ..." à Ladoucette, 1829-03-18, https://constance-de-salm.de/archiv/#/document/9322 #onthisday</t>
+          <t>»Voici, Monsieur le baron, un post-scriptum que je déchire d’une lettre que je viens de recevoir de mon frère ...« à Ladoucette, 1829-03-18, https://constance-de-salm.de/archiv/#/document/9322 #onthisday</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1435,17 +1435,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-3-19</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14:11:11</t>
+          <t>14:48:23</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Si Monsieur Berville est libre après-demain lundi, et s'il veut venir dîner avec nous ..." à Berville, 1837-03-19, https://constance-de-salm.de/archiv/#/document/7738 #onthisday</t>
+          <t>»Si Monsieur Berville est libre après-demain lundi, et s'il veut venir dîner avec nous ...« à Berville, 1837-03-19, https://constance-de-salm.de/archiv/#/document/7738 #onthisday</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1462,17 +1462,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-3-20</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14:30:27</t>
+          <t>19:38:52</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Excusez, Monsieur et ami, si j'ai été si longtemps sans vous répondre ..." à Raboteau, 1816-03-20, https://constance-de-salm.de/archiv/#/document/4295 #onthisday</t>
+          <t>»Excusez, Monsieur et ami, si j'ai été si longtemps sans vous répondre ...« à Raboteau, 1816-03-20, https://constance-de-salm.de/archiv/#/document/4295 #onthisday</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1489,17 +1489,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-3-20</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11:04:01</t>
+          <t>18:14:04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Je vous écris, Monsieur et ami, Monsieur Drais m'a fait part de tout ..." à Barbier, 1820-03-20, https://constance-de-salm.de/archiv/#/document/4507 #onthisday</t>
+          <t>»Je vous écris, Monsieur et ami, Monsieur Drais m'a fait part de tout ...« à Barbier, 1820-03-20, https://constance-de-salm.de/archiv/#/document/4507 #onthisday</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1516,17 +1516,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-3-21</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:51:48</t>
+          <t>10:51:14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps que j’ai reçu votre lettre, Monsieur, mais je n’ai pu encore y répondre: ..." à Pailliet, 1827-03-21, https://constance-de-salm.de/archiv/#/document/11365 #onthisday</t>
+          <t>»Il y a déjà quelque temps que j’ai reçu votre lettre, Monsieur, mais je n’ai pu encore y répondre: ...« à Pailliet, 1827-03-21, https://constance-de-salm.de/archiv/#/document/11365 #onthisday</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1543,17 +1543,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-3-22</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18:17:08</t>
+          <t>19:48:54</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"J'ai été si souffrante tous ces jours-ci, Monsieur et Madame, qu'il m'a été bien impossible ..." à Sanson de Pongerville, 1839-03-22, https://constance-de-salm.de/archiv/#/document/8011 #onthisday</t>
+          <t>»J'ai été si souffrante tous ces jours-ci, Monsieur et Madame, qu'il m'a été bien impossible ...« à Sanson de Pongerville, 1839-03-22, https://constance-de-salm.de/archiv/#/document/8011 #onthisday</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1570,17 +1570,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-3-23</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13:25:44</t>
+          <t>14:02:47</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"En arrivant ici, Monsieur, une foule d'occupations et de devoirs de société ont tellement pris mon temps ..." à Quetelet, 1837-03-23, https://constance-de-salm.de/archiv/#/document/7741 #onthisday</t>
+          <t>»En arrivant ici, Monsieur, une foule d'occupations et de devoirs de société ont tellement pris mon temps ...« à Quetelet, 1837-03-23, https://constance-de-salm.de/archiv/#/document/7741 #onthisday</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1597,17 +1597,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-3-24</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15:26:14</t>
+          <t>13:30:54</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, mon cher correspondant, combien j’ai été charmée de recevoir votre lettre, et combien de fois ..." à Amalric, 1832-03-24, https://constance-de-salm.de/archiv/#/document/9512 #onthisday</t>
+          <t>»Je ne puis vous dire, mon cher correspondant, combien j’ai été charmée de recevoir votre lettre, et combien de fois ...« à Amalric, 1832-03-24, https://constance-de-salm.de/archiv/#/document/9512 #onthisday</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-3-25</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>08:56:28</t>
+          <t>18:25:30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur, Monsieur Wimers n'est pas ici aujourd'hui ..." à Prous, 1816-03-25, https://constance-de-salm.de/archiv/#/document/4297 #onthisday</t>
+          <t>»Mille remerciements, Monsieur, Monsieur Wimers n'est pas ici aujourd'hui ...« à Prous, 1816-03-25, https://constance-de-salm.de/archiv/#/document/4297 #onthisday</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1651,17 +1651,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-3-25</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12:23:09</t>
+          <t>08:40:50</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur, Monsieur Wimers n'est pas ici aujourd'hui ..." à Prous, 1816-03-25, https://constance-de-salm.de/archiv/#/document/2782 #onthisday</t>
+          <t>»Mille remerciements, Monsieur, Monsieur Wimers n'est pas ici aujourd'hui ...« à Prous, 1816-03-25, https://constance-de-salm.de/archiv/#/document/2782 #onthisday</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-3-26</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10:08:37</t>
+          <t>14:39:27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"J’ai bien tardé, Monsieur, à vous remercier de l’attention que vous avez eu de m’envoyer à Paris les journaux de la Belgique ..." à Stassart, 1825-03-26, https://constance-de-salm.de/archiv/#/document/8944 #onthisday</t>
+          <t>»J’ai bien tardé, Monsieur, à vous remercier de l’attention que vous avez eu de m’envoyer à Paris les journaux de la Belgique ...« à Stassart, 1825-03-26, https://constance-de-salm.de/archiv/#/document/8944 #onthisday</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1705,17 +1705,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-3-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11:50:47</t>
+          <t>09:23:08</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Je trouve l’article parfaitement bien rédigé ..." à Audiffret, 1829-03-27, https://constance-de-salm.de/archiv/#/document/9326 #onthisday</t>
+          <t>»Je trouve l’article parfaitement bien rédigé ...« à Audiffret, 1829-03-27, https://constance-de-salm.de/archiv/#/document/9326 #onthisday</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1732,17 +1732,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-3-28</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11:31:51</t>
+          <t>12:13:29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Monsieur Villenave fils s’est chargé de dire à Monsieur son père que la Princesse de Salm ..." à Villenave, 1829-03-28, https://constance-de-salm.de/archiv/#/document/11014 #onthisday</t>
+          <t>»Monsieur Villenave fils s’est chargé de dire à Monsieur son père que la Princesse de Salm ...« à Villenave, 1829-03-28, https://constance-de-salm.de/archiv/#/document/11014 #onthisday</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-3-29</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13:04:50</t>
+          <t>11:06:39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis plus d'un mois, Monsieur et ami, et au moment de mon départ j'ai reçu votre réponse ..." à Raboteau, 1822-03-29, https://constance-de-salm.de/archiv/#/document/3993 #onthisday</t>
+          <t>»Je suis ici depuis plus d'un mois, Monsieur et ami, et au moment de mon départ j'ai reçu votre réponse ...« à Raboteau, 1822-03-29, https://constance-de-salm.de/archiv/#/document/3993 #onthisday</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1786,17 +1786,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-3-29</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11:44:20</t>
+          <t>13:30:52</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis plus d'un mois, Monsieur et ami, et au moment de mon départ j'ai reçu votre réponse ..." à Raboteau, 1822-03-29, https://constance-de-salm.de/archiv/#/document/27 #onthisday</t>
+          <t>»Je suis ici depuis plus d'un mois, Monsieur et ami, et au moment de mon départ j'ai reçu votre réponse ...« à Raboteau, 1822-03-29, https://constance-de-salm.de/archiv/#/document/27 #onthisday</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1813,17 +1813,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-3-30</t>
+          <t>2026-03-30</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15:02:21</t>
+          <t>13:00:42</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur, de ce que vous savez bien ..." à Prous, 1816-03-30, https://constance-de-salm.de/archiv/#/document/10599 #onthisday</t>
+          <t>»Mille remerciements, Monsieur, de ce que vous savez bien ...« à Prous, 1816-03-30, https://constance-de-salm.de/archiv/#/document/10599 #onthisday</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1840,17 +1840,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-3-30</t>
+          <t>2026-03-30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>13:20:31</t>
+          <t>14:07:13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"L'aimable fiction peut avoir ses abus ..." à Lantier, 1817-03-30, https://constance-de-salm.de/archiv/#/document/4348 #onthisday</t>
+          <t>»L'aimable fiction peut avoir ses abus ...« à Lantier, 1817-03-30, https://constance-de-salm.de/archiv/#/document/4348 #onthisday</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-3-31</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11:46:43</t>
+          <t>13:35:16</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Je ne suis à Paris que depuis peu de temps, Monsieur, différentes circonstances m’ayant retenue à Aix la Chapelle une partie de l’hiver ..." à Asfeld, 1829-03-31, https://constance-de-salm.de/archiv/#/document/9332 #onthisday</t>
+          <t>»Je ne suis à Paris que depuis peu de temps, Monsieur, différentes circonstances m’ayant retenue à Aix la Chapelle une partie de l’hiver ...« à Asfeld, 1829-03-31, https://constance-de-salm.de/archiv/#/document/9332 #onthisday</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1894,17 +1894,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-4-1</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13:03:51</t>
+          <t>09:13:48</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Mon mari (je devais le battre) / M’abandonne aujourd’hui pour le Duc d‘Orléans; / Par la douleur sans me laisser… ..." à Ladoucette, 1829-04-01, https://constance-de-salm.de/archiv/#/document/9333 #onthisday</t>
+          <t>»Mon mari (je devais le battre) / M’abandonne aujourd’hui pour le Duc d‘Orléans; / Par la douleur sans me laisser… ...« à Ladoucette, 1829-04-01, https://constance-de-salm.de/archiv/#/document/9333 #onthisday</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1921,17 +1921,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-4-2</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18:15:31</t>
+          <t>08:26:29</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que je n’ai jasé avec vous ..." à Barbier, 1825-04-02, https://constance-de-salm.de/archiv/#/document/8945 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que je n’ai jasé avec vous ...« à Barbier, 1825-04-02, https://constance-de-salm.de/archiv/#/document/8945 #onthisday</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1948,17 +1948,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-4-2</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13:16:15</t>
+          <t>19:04:53</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm enverra ce matin à Messieurs les rédacteurs de la „Psyché“ deux pièces de vers imprimés ..." à Marrast, 1829-04-02, https://constance-de-salm.de/archiv/#/document/9336 #onthisday</t>
+          <t>»La Princesse de Salm enverra ce matin à Messieurs les rédacteurs de la „Psyché“ deux pièces de vers imprimés ...« à Marrast, 1829-04-02, https://constance-de-salm.de/archiv/#/document/9336 #onthisday</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1975,17 +1975,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-4-3</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12:24:30</t>
+          <t>13:56:30</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"On vous regrette fort. On ira chercher Louise à midi et sa maman ..." à Prous, 1818-04-03, https://constance-de-salm.de/archiv/#/document/4435 #onthisday</t>
+          <t>»On vous regrette fort. On ira chercher Louise à midi et sa maman ...« à Prous, 1818-04-03, https://constance-de-salm.de/archiv/#/document/4435 #onthisday</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2002,17 +2002,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-4-3</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11:13:41</t>
+          <t>15:56:10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Voulez-vous bien, ma très aimable voisine, transmettre à votre cher et illustre époux une petite recommandation dont je me suis chargée ..." à Laplace, 1826-04-03, https://constance-de-salm.de/archiv/#/document/8990 #onthisday</t>
+          <t>»Voulez-vous bien, ma très aimable voisine, transmettre à votre cher et illustre époux une petite recommandation dont je me suis chargée ...« à Laplace, 1826-04-03, https://constance-de-salm.de/archiv/#/document/8990 #onthisday</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2029,17 +2029,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-4-4</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>19:33:00</t>
+          <t>13:56:19</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Vous avez reçu ma lettre, Monsieur et ami, le jour même où vous m'aviez écrit ..." à Raboteau, 1816-04-04, https://constance-de-salm.de/archiv/#/document/3928 #onthisday</t>
+          <t>»Vous avez reçu ma lettre, Monsieur et ami, le jour même où vous m'aviez écrit ...« à Raboteau, 1816-04-04, https://constance-de-salm.de/archiv/#/document/3928 #onthisday</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2056,17 +2056,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-4-4</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11:32:14</t>
+          <t>08:34:26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Vous avez reçu ma lettre, Monsieur et ami, le jour même où vous m'aviez écrit ..." à Raboteau, 1816-04-04, https://constance-de-salm.de/archiv/#/document/4301 #onthisday</t>
+          <t>»Vous avez reçu ma lettre, Monsieur et ami, le jour même où vous m'aviez écrit ...« à Raboteau, 1816-04-04, https://constance-de-salm.de/archiv/#/document/4301 #onthisday</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2083,17 +2083,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-4-5</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>08:51:04</t>
+          <t>15:35:32</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, la lettre que Madame votre fille m’envoie et me prie de vous passer ..." à Villenave, 1829-04-05, https://constance-de-salm.de/archiv/#/document/11016 #onthisday</t>
+          <t>»Voici, Monsieur, la lettre que Madame votre fille m’envoie et me prie de vous passer ...« à Villenave, 1829-04-05, https://constance-de-salm.de/archiv/#/document/11016 #onthisday</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2110,17 +2110,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-4-5</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>13:06:21</t>
+          <t>11:00:44</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a déjà quelque temps, Monsieur, l'ouvrage que vous avez bien voulu m'adresser ..." à Gence, 1830-04-05, https://constance-de-salm.de/archiv/#/document/5163 #onthisday</t>
+          <t>»J'ai reçu il y a déjà quelque temps, Monsieur, l'ouvrage que vous avez bien voulu m'adresser ...« à Gence, 1830-04-05, https://constance-de-salm.de/archiv/#/document/5163 #onthisday</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-4-6</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>17:55:10</t>
+          <t>08:42:24</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Je m’empresse d’envoyer à Monsieur et Madame Laya le colume de mes „Pensées“ dont l’édition ..." à Laya, 1829-04-06, https://constance-de-salm.de/archiv/#/document/9340 #onthisday</t>
+          <t>»Je m’empresse d’envoyer à Monsieur et Madame Laya le colume de mes „Pensées“ dont l’édition ...« à Laya, 1829-04-06, https://constance-de-salm.de/archiv/#/document/9340 #onthisday</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-4-6</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>09:51:30</t>
+          <t>11:10:42</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant d’Aix la Chapelle l‘édition de mes „Pensées“ et je m’empresse de donner à mes amis ..." à Viennet, 1829-04-06, https://constance-de-salm.de/archiv/#/document/9339 #onthisday</t>
+          <t>»Je reçois à l’instant d’Aix la Chapelle l‘édition de mes „Pensées“ et je m’empresse de donner à mes amis ...« à Viennet, 1829-04-06, https://constance-de-salm.de/archiv/#/document/9339 #onthisday</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2191,17 +2191,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-4-7</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12:13:09</t>
+          <t>15:25:34</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"J’ai vu hier, Mademoiselle, la personne que vous aviez chargée de m’apporter votre lettre ..." à Salis, 1798-04-07, https://constance-de-salm.de/archiv/#/document/10392 #onthisday</t>
+          <t>»J’ai vu hier, Mademoiselle, la personne que vous aviez chargée de m’apporter votre lettre ...« à Salis, 1798-04-07, https://constance-de-salm.de/archiv/#/document/10392 #onthisday</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-4-8</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>08:47:45</t>
+          <t>10:50:35</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Je n’ai point reçu de numéro du globe, Monsieur, je suppose que celui où vous devez parler de mon Épître n’a pas encore paru ..." à Dumas, 1828-04-08, https://constance-de-salm.de/archiv/#/document/9147 #onthisday</t>
+          <t>»Je n’ai point reçu de numéro du globe, Monsieur, je suppose que celui où vous devez parler de mon Épître n’a pas encore paru ...« à Dumas, 1828-04-08, https://constance-de-salm.de/archiv/#/document/9147 #onthisday</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2245,17 +2245,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-4-8</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13:19:56</t>
+          <t>08:35:47</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Il ya bien longtemps, Monsieur, que je n'ai plus eu le plaisir de vous voir ..." à Châtelain, 1837-04-08, https://constance-de-salm.de/archiv/#/document/7752 #onthisday</t>
+          <t>»Il ya bien longtemps, Monsieur, que je n'ai plus eu le plaisir de vous voir ...« à Châtelain, 1837-04-08, https://constance-de-salm.de/archiv/#/document/7752 #onthisday</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-4-9</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09:37:22</t>
+          <t>14:07:05</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Si Monsieur le baron pouvait passer chez moi ce matin avant 2 heures, il me ferait plaisir ..." à Ladoucette, 1829-04-09, https://constance-de-salm.de/archiv/#/document/9344 #onthisday</t>
+          <t>»Si Monsieur le baron pouvait passer chez moi ce matin avant 2 heures, il me ferait plaisir ...« à Ladoucette, 1829-04-09, https://constance-de-salm.de/archiv/#/document/9344 #onthisday</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2299,17 +2299,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-4-9</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>17:16:43</t>
+          <t>09:08:21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Cher frère, je projetais tous les jours de t‘écrire depuis que j’ai reçu ta lettre; ..." à Théis, 1829-04-09, https://constance-de-salm.de/archiv/#/document/9342 #onthisday</t>
+          <t>»Cher frère, je projetais tous les jours de t‘écrire depuis que j’ai reçu ta lettre; ...« à Théis, 1829-04-09, https://constance-de-salm.de/archiv/#/document/9342 #onthisday</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2326,17 +2326,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-4-10</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10:21:45</t>
+          <t>16:01:48</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Qu'il y a longtemps, Monsieur et ami, que je n'ai jasé avec vous! ..." à Barbier, 1821-04-10, https://constance-de-salm.de/archiv/#/document/8281 #onthisday</t>
+          <t>»Qu'il y a longtemps, Monsieur et ami, que je n'ai jasé avec vous! ...« à Barbier, 1821-04-10, https://constance-de-salm.de/archiv/#/document/8281 #onthisday</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2353,17 +2353,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-4-11</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18:02:03</t>
+          <t>14:16:47</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier soir, ma chère amie, une lettre de M[onsieu]r Drais, qui m’apprend qu’il a vu ton père ..." à Théis, 1831-04-11, https://constance-de-salm.de/archiv/#/document/10792 #onthisday</t>
+          <t>»J’ai reçu hier soir, ma chère amie, une lettre de M[onsieu]r Drais, qui m’apprend qu’il a vu ton père ...« à Théis, 1831-04-11, https://constance-de-salm.de/archiv/#/document/10792 #onthisday</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2380,17 +2380,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-4-12</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>19:24:45</t>
+          <t>16:29:49</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Voici, mon cher voisin, l'article auquel j'ai pris la liberté de changer quelques expressions ..." à Prous, 1820-04-12, https://constance-de-salm.de/archiv/#/document/4516 #onthisday</t>
+          <t>»Voici, mon cher voisin, l'article auquel j'ai pris la liberté de changer quelques expressions ...« à Prous, 1820-04-12, https://constance-de-salm.de/archiv/#/document/4516 #onthisday</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2407,17 +2407,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-4-12</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15:39:37</t>
+          <t>11:42:53</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Voici, mon cher voisin, l'article auquel j'ai pris la liberté de changer quelques expressions ..." à Prous, 1820-04-12, https://constance-de-salm.de/archiv/#/document/2831 #onthisday</t>
+          <t>»Voici, mon cher voisin, l'article auquel j'ai pris la liberté de changer quelques expressions ...« à Prous, 1820-04-12, https://constance-de-salm.de/archiv/#/document/2831 #onthisday</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-4-13</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>08:07:05</t>
+          <t>18:31:32</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"De deux écrits officiels / Je me plais à grossir une lettre / Et plus ils sont essentiels / Plus je jouis de les y mettre ..." à Ladoucette, 1813-04-13, https://constance-de-salm.de/archiv/#/document/2296 #onthisday</t>
+          <t>»De deux écrits officiels / Je me plais à grossir une lettre / Et plus ils sont essentiels / Plus je jouis de les y mettre ...« à Ladoucette, 1813-04-13, https://constance-de-salm.de/archiv/#/document/2296 #onthisday</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-4-13</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15:20:43</t>
+          <t>15:02:48</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm, qui doit partir incessamment, engage Monsieur le comte Orloff à venir la voir ..." à Orloff, 1824-04-13, https://constance-de-salm.de/archiv/#/document/8884 #onthisday</t>
+          <t>»La Princesse de Salm, qui doit partir incessamment, engage Monsieur le comte Orloff à venir la voir ...« à Orloff, 1824-04-13, https://constance-de-salm.de/archiv/#/document/8884 #onthisday</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2488,17 +2488,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-4-14</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16:56:12</t>
+          <t>18:06:05</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Le général Miollis éprouve le plus grand regret de n’avoir pu offrir ses hommages ..." à Miollis, 1826-04-14, https://constance-de-salm.de/archiv/#/document/8991 #onthisday</t>
+          <t>»Le général Miollis éprouve le plus grand regret de n’avoir pu offrir ses hommages ...« à Miollis, 1826-04-14, https://constance-de-salm.de/archiv/#/document/8991 #onthisday</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2515,17 +2515,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-4-15</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16:29:18</t>
+          <t>13:53:09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Je vous écrirai dans peu de jours, Monsieur; ..." à Villenave, 1827-04-15, https://constance-de-salm.de/archiv/#/document/10992 #onthisday</t>
+          <t>»Je vous écrirai dans peu de jours, Monsieur; ...« à Villenave, 1827-04-15, https://constance-de-salm.de/archiv/#/document/10992 #onthisday</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,17 +2542,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-4-15</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>13:37:01</t>
+          <t>08:32:24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur, si vous me croyez fâchée contre vous; vous auriez bien tort ..." à Sauvo, 1834-04-15, https://constance-de-salm.de/archiv/#/document/5562 #onthisday</t>
+          <t>»Je ne sais, Monsieur, si vous me croyez fâchée contre vous; vous auriez bien tort ...« à Sauvo, 1834-04-15, https://constance-de-salm.de/archiv/#/document/5562 #onthisday</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2569,17 +2569,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-4-16</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>11:15:33</t>
+          <t>09:32:21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Il est affreux d'avoir à refuser ce qu'on voudrait bien accorder ..." à Prous, 1816-04-16, https://constance-de-salm.de/archiv/#/document/2785 #onthisday</t>
+          <t>»Il est affreux d'avoir à refuser ce qu'on voudrait bien accorder ...« à Prous, 1816-04-16, https://constance-de-salm.de/archiv/#/document/2785 #onthisday</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2596,17 +2596,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2026-4-17</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>09:50:03</t>
+          <t>15:07:51</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Il faut que je jase avec vous, mon ancien ami; c'est un besoin pour mon cœur toujours agité ..." à Raboteau, 1821-04-17, https://constance-de-salm.de/archiv/#/document/3990 #onthisday</t>
+          <t>»Il faut que je jase avec vous, mon ancien ami; c'est un besoin pour mon cœur toujours agité ...« à Raboteau, 1821-04-17, https://constance-de-salm.de/archiv/#/document/3990 #onthisday</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2623,17 +2623,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2026-4-17</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10:28:03</t>
+          <t>18:27:03</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Il faut que je jase avec vous, mon ancien ami; c'est un besoin pour mon cœur toujours agité ..." à Raboteau, 1821-04-17, https://constance-de-salm.de/archiv/#/document/4657 #onthisday</t>
+          <t>»Il faut que je jase avec vous, mon ancien ami; c'est un besoin pour mon cœur toujours agité ...« à Raboteau, 1821-04-17, https://constance-de-salm.de/archiv/#/document/4657 #onthisday</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2650,17 +2650,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2026-4-18</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>14:16:12</t>
+          <t>12:36:14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Excusez, Monsieur et ami, si je ne vous écris pas de ma main; ..." à Barbier, 1820-04-18, https://constance-de-salm.de/archiv/#/document/4518 #onthisday</t>
+          <t>»Excusez, Monsieur et ami, si je ne vous écris pas de ma main; ...« à Barbier, 1820-04-18, https://constance-de-salm.de/archiv/#/document/4518 #onthisday</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2677,17 +2677,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2026-4-19</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>19:26:34</t>
+          <t>14:37:17</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Vos réclames sont parfaites, Monsieur, je vous en remercie mille fois ..." à Depping, 1842-04-19, https://constance-de-salm.de/archiv/#/document/11255 #onthisday</t>
+          <t>»Vos réclames sont parfaites, Monsieur, je vous en remercie mille fois ...« à Depping, 1842-04-19, https://constance-de-salm.de/archiv/#/document/11255 #onthisday</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2026-4-20</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>11:56:57</t>
+          <t>14:45:33</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"A lundi donc, Monsieur, c'est-à-dire à demain ..." à Villenave, 1827-04-20, https://constance-de-salm.de/archiv/#/document/10993 #onthisday</t>
+          <t>»A lundi donc, Monsieur, c'est-à-dire à demain ...« à Villenave, 1827-04-20, https://constance-de-salm.de/archiv/#/document/10993 #onthisday</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2026-4-20</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>14:00:28</t>
+          <t>11:13:29</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Étant sur le point de partir pour la campagne, Monsieur, je suis tellement accablée de visites et de petits devoirs de société ..." à Anglemont, 1828-04-20, https://constance-de-salm.de/archiv/#/document/9155 #onthisday</t>
+          <t>»Étant sur le point de partir pour la campagne, Monsieur, je suis tellement accablée de visites et de petits devoirs de société ...« à Anglemont, 1828-04-20, https://constance-de-salm.de/archiv/#/document/9155 #onthisday</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2026-4-21</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>18:17:43</t>
+          <t>19:28:40</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm remercie Monsieur Émile de Girardin du prospectus qu’il lui a envoyé ..." à Girardin, 1829-04-21, https://constance-de-salm.de/archiv/#/document/9355 #onthisday</t>
+          <t>»La Princesse de Salm remercie Monsieur Émile de Girardin du prospectus qu’il lui a envoyé ...« à Girardin, 1829-04-21, https://constance-de-salm.de/archiv/#/document/9355 #onthisday</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2026-4-22</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>14:40:26</t>
+          <t>16:03:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Quoique je sois encore bien souffrante, Monsieur le baron, je ne veux pas tarder davantage à répondre ..." à Ladoucette, 1842-04-22, https://constance-de-salm.de/archiv/#/document/11257 #onthisday</t>
+          <t>»Quoique je sois encore bien souffrante, Monsieur le baron, je ne veux pas tarder davantage à répondre ...« à Ladoucette, 1842-04-22, https://constance-de-salm.de/archiv/#/document/11257 #onthisday</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2026-4-23</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>18:33:33</t>
+          <t>16:02:57</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur et ancien ami, que vous m’en voulez un peu puisque vous ne m‘écrivez pas ..." à Raboteau, 1823-04-23, https://constance-de-salm.de/archiv/#/document/3998 #onthisday</t>
+          <t>»Il me semble, Monsieur et ancien ami, que vous m’en voulez un peu puisque vous ne m‘écrivez pas ...« à Raboteau, 1823-04-23, https://constance-de-salm.de/archiv/#/document/3998 #onthisday</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2839,17 +2839,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2026-4-23</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>09:49:32</t>
+          <t>11:54:10</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Vous ne m’écrivez plus, Monsieur, parce que je ne vous ai pas répondu: rien de plus juste ..." à Raboteau, 1825-04-23, https://constance-de-salm.de/archiv/#/document/4069 #onthisday</t>
+          <t>»Vous ne m’écrivez plus, Monsieur, parce que je ne vous ai pas répondu: rien de plus juste ...« à Raboteau, 1825-04-23, https://constance-de-salm.de/archiv/#/document/4069 #onthisday</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2026-4-24</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08:35:46</t>
+          <t>08:32:38</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, une lettre pour un ancien maire de Liedberg ..." à Prous, 1816-04-24, https://constance-de-salm.de/archiv/#/document/4304 #onthisday</t>
+          <t>»Voici, Monsieur, une lettre pour un ancien maire de Liedberg ...« à Prous, 1816-04-24, https://constance-de-salm.de/archiv/#/document/4304 #onthisday</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2893,17 +2893,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2026-4-25</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>13:52:16</t>
+          <t>15:27:09</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm prie Monsieur Villenave de lui faire l’honneur ..." à Villenave, 1826-04-25, https://constance-de-salm.de/archiv/#/document/10991 #onthisday</t>
+          <t>»La Princesse de Salm prie Monsieur Villenave de lui faire l’honneur ...« à Villenave, 1826-04-25, https://constance-de-salm.de/archiv/#/document/10991 #onthisday</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2920,17 +2920,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2026-4-25</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>19:50:18</t>
+          <t>15:14:28</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Je suis fort flattée, Monsieur, du désir que vous témoignez d’avoir le petit volume de pensées que je viens de publier ..." à Bailly, 1829-04-25, https://constance-de-salm.de/archiv/#/document/9358 #onthisday</t>
+          <t>»Je suis fort flattée, Monsieur, du désir que vous témoignez d’avoir le petit volume de pensées que je viens de publier ...« à Bailly, 1829-04-25, https://constance-de-salm.de/archiv/#/document/9358 #onthisday</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2947,17 +2947,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2026-4-26</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>17:03:18</t>
+          <t>13:21:45</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Benché da più anni io abbia l'onore di far parte della società italiana di scienze ..." à N.N., 1820-04-26, https://constance-de-salm.de/archiv/#/document/4521 #onthisday</t>
+          <t>»Benché da più anni io abbia l'onore di far parte della società italiana di scienze ...« à N.N., 1820-04-26, https://constance-de-salm.de/archiv/#/document/4521 #onthisday</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2974,17 +2974,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2026-4-27</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>08:55:31</t>
+          <t>15:25:33</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Monsieur de Ladoucette est venu me lire, hier, les amabilités que M[onsieu]rVillenave lui a écrites ..." à Villenave, 1827-04-27, https://constance-de-salm.de/archiv/#/document/10994 #onthisday</t>
+          <t>»Monsieur de Ladoucette est venu me lire, hier, les amabilités que M[onsieu]rVillenave lui a écrites ...« à Villenave, 1827-04-27, https://constance-de-salm.de/archiv/#/document/10994 #onthisday</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3001,17 +3001,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2026-4-27</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>18:55:19</t>
+          <t>19:08:27</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"J’ai déjà parlé de ce que vous m’avez communiqué, Monsieur, et à quelqu’un qui, j’espère, pourra nous faire réussir; ..." à Villenave, 1829-04-27, https://constance-de-salm.de/archiv/#/document/9360 #onthisday</t>
+          <t>»J’ai déjà parlé de ce que vous m’avez communiqué, Monsieur, et à quelqu’un qui, j’espère, pourra nous faire réussir; ...« à Villenave, 1829-04-27, https://constance-de-salm.de/archiv/#/document/9360 #onthisday</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3028,17 +3028,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2026-4-28</t>
+          <t>2026-04-28</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>12:04:13</t>
+          <t>19:19:30</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"La poste vient de partir, ma chère Minette ..." à Francq, 1816-04-28, https://constance-de-salm.de/archiv/#/document/6283 #onthisday</t>
+          <t>»La poste vient de partir, ma chère Minette ...« à Francq, 1816-04-28, https://constance-de-salm.de/archiv/#/document/6283 #onthisday</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2026-4-29</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>15:11:49</t>
+          <t>13:07:55</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"J’ai oublié, Monsieur, la dernière fois que j’ai eu le plaisir de vous voir de vous parler de mon album ..." à Dumas, 1829-04-29, https://constance-de-salm.de/archiv/#/document/9363 #onthisday</t>
+          <t>»J’ai oublié, Monsieur, la dernière fois que j’ai eu le plaisir de vous voir de vous parler de mon album ...« à Dumas, 1829-04-29, https://constance-de-salm.de/archiv/#/document/9363 #onthisday</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2026-4-30</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>14:20:52</t>
+          <t>12:17:23</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Je me proposais, Monsieur, d’aller voir Madame Auger avant de partir, mais ma santé m’a tellement dérangée depuis quelque temps ..." à Auger, 1828-04-30, https://constance-de-salm.de/archiv/#/document/9159 #onthisday</t>
+          <t>»Je me proposais, Monsieur, d’aller voir Madame Auger avant de partir, mais ma santé m’a tellement dérangée depuis quelque temps ...« à Auger, 1828-04-30, https://constance-de-salm.de/archiv/#/document/9159 #onthisday</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3109,17 +3109,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2026-5-1</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>12:05:12</t>
+          <t>11:18:24</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Je vous ai promis, Mademoiselle, une réponse détaillée à votre avant-dernière lettre ..." à Salis, 1798-05-01, https://constance-de-salm.de/archiv/#/document/8519 #onthisday</t>
+          <t>»Je vous ai promis, Mademoiselle, une réponse détaillée à votre avant-dernière lettre ...« à Salis, 1798-05-01, https://constance-de-salm.de/archiv/#/document/8519 #onthisday</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3136,17 +3136,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2026-5-2</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>19:17:03</t>
+          <t>11:46:47</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Je suis étonnée, ma chère amie, de ne pas recevoir de vos nouvelles depuis quelque temps ..." à Salis, 1800-05-02, https://constance-de-salm.de/archiv/#/document/10419 #onthisday</t>
+          <t>»Je suis étonnée, ma chère amie, de ne pas recevoir de vos nouvelles depuis quelque temps ...« à Salis, 1800-05-02, https://constance-de-salm.de/archiv/#/document/10419 #onthisday</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3163,17 +3163,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2026-5-3</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16:44:53</t>
+          <t>11:16:49</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Monsieur Sauvo ne trouvera, sans doute, pas étrange que je lui adresse directement deux exemplaires d’un petit ouvrage ..." à Sauvo, 1824-05-03, https://constance-de-salm.de/archiv/#/document/8895 #onthisday</t>
+          <t>»Monsieur Sauvo ne trouvera, sans doute, pas étrange que je lui adresse directement deux exemplaires d’un petit ouvrage ...« à Sauvo, 1824-05-03, https://constance-de-salm.de/archiv/#/document/8895 #onthisday</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3190,17 +3190,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2026-5-4</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16:24:01</t>
+          <t>14:50:08</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Je suis fâchée de ce que vous vous êtes roidi ..." à Prous, 1820-05-04, https://constance-de-salm.de/archiv/#/document/10652 #onthisday</t>
+          <t>»Je suis fâchée de ce que vous vous êtes roidi ...« à Prous, 1820-05-04, https://constance-de-salm.de/archiv/#/document/10652 #onthisday</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3217,17 +3217,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2026-5-5</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>17:42:42</t>
+          <t>15:42:22</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je n'ai entendu parler de vous, Monsieur et ami ..." à Raboteau, 1816-05-05, https://constance-de-salm.de/archiv/#/document/4306 #onthisday</t>
+          <t>»Il y a bien longtemps que je n'ai entendu parler de vous, Monsieur et ami ...« à Raboteau, 1816-05-05, https://constance-de-salm.de/archiv/#/document/4306 #onthisday</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3244,17 +3244,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2026-5-6</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>12:21:20</t>
+          <t>10:41:20</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"J’apprends au milieu de mes embarras de départ l’heureux accouchement de Madame Agoub ..." à Agoub, 1829-05-06, https://constance-de-salm.de/archiv/#/document/9375 #onthisday</t>
+          <t>»J’apprends au milieu de mes embarras de départ l’heureux accouchement de Madame Agoub ...« à Agoub, 1829-05-06, https://constance-de-salm.de/archiv/#/document/9375 #onthisday</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3271,17 +3271,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2026-5-7</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>09:40:13</t>
+          <t>19:41:04</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"N’ayant pas vu hier, Monsieur Viennet, et n’étant pas sûre d’être libre tous ces jours-ci, je lui propose ..." à Viennet, 1829-05-07, https://constance-de-salm.de/archiv/#/document/9379 #onthisday</t>
+          <t>»N’ayant pas vu hier, Monsieur Viennet, et n’étant pas sûre d’être libre tous ces jours-ci, je lui propose ...« à Viennet, 1829-05-07, https://constance-de-salm.de/archiv/#/document/9379 #onthisday</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3298,17 +3298,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2026-5-8</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>10:48:09</t>
+          <t>11:00:28</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Je n'ai pas en vérité osé attendre la chère Louise, Monsieur, hier ni avant-hier ..." à Prous, 1816-05-08, https://constance-de-salm.de/archiv/#/document/10600 #onthisday</t>
+          <t>»Je n'ai pas en vérité osé attendre la chère Louise, Monsieur, hier ni avant-hier ...« à Prous, 1816-05-08, https://constance-de-salm.de/archiv/#/document/10600 #onthisday</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3325,17 +3325,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2026-5-8</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16:28:44</t>
+          <t>09:33:01</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Je n'ai pas en vérité osé attendre la chère Louise, Monsieur, hier ni avant-hier ..." à Prous, 1816-05-08, https://constance-de-salm.de/archiv/#/document/2787 #onthisday</t>
+          <t>»Je n'ai pas en vérité osé attendre la chère Louise, Monsieur, hier ni avant-hier ...« à Prous, 1816-05-08, https://constance-de-salm.de/archiv/#/document/2787 #onthisday</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3352,17 +3352,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2026-5-9</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>18:32:03</t>
+          <t>18:17:17</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"De ces anneaux ne soyez point surpris ..." à Raboteau, 1817-05-09, https://constance-de-salm.de/archiv/#/document/4353 #onthisday</t>
+          <t>»De ces anneaux ne soyez point surpris ...« à Raboteau, 1817-05-09, https://constance-de-salm.de/archiv/#/document/4353 #onthisday</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3379,17 +3379,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2026-5-10</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>18:36:51</t>
+          <t>15:52:52</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis 8 jours, Monsieur, mais j'ai été si occupée ..." à David, 1831-05-10, https://constance-de-salm.de/archiv/#/document/6355 #onthisday</t>
+          <t>»Je suis ici depuis 8 jours, Monsieur, mais j'ai été si occupée ...« à David, 1831-05-10, https://constance-de-salm.de/archiv/#/document/6355 #onthisday</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2026-5-11</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>10:47:30</t>
+          <t>09:16:45</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"J’apprends par Monsieur Drais, Monsieur, que vous êtes inquiet de ma santé, et que vous avez été chez lui ..." à Boucharlat, 1835-05-11, https://constance-de-salm.de/archiv/#/document/9603 #onthisday</t>
+          <t>»J’apprends par Monsieur Drais, Monsieur, que vous êtes inquiet de ma santé, et que vous avez été chez lui ...« à Boucharlat, 1835-05-11, https://constance-de-salm.de/archiv/#/document/9603 #onthisday</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3433,17 +3433,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2026-5-12</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>15:18:09</t>
+          <t>15:52:41</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Sire, la petite brochure que je prends la liberté de joindre à cette lettre est une bien faible partie d’un très grand ouvrage ..." à Friedrich Wilhelm III., 1827-05-12, https://constance-de-salm.de/archiv/#/document/9078 #onthisday</t>
+          <t>»Sire, la petite brochure que je prends la liberté de joindre à cette lettre est une bien faible partie d’un très grand ouvrage ...« à Friedrich Wilhelm III., 1827-05-12, https://constance-de-salm.de/archiv/#/document/9078 #onthisday</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2026-5-12</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>11:08:47</t>
+          <t>17:00:39</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Voici, Madame, les copies de lettres que j’ai promises à Madame votre mère; il y en a sept ..." à Courier, 1829-05-12, https://constance-de-salm.de/archiv/#/document/9381 #onthisday</t>
+          <t>»Voici, Madame, les copies de lettres que j’ai promises à Madame votre mère; il y en a sept ...« à Courier, 1829-05-12, https://constance-de-salm.de/archiv/#/document/9381 #onthisday</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3487,17 +3487,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2026-5-13</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>12:05:21</t>
+          <t>12:19:03</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Ma première intention ayant été, comme je l’ai dit à Monsieur Buchon, de lui donner un exemplaire ..." à Buchon, 1824-05-13, https://constance-de-salm.de/archiv/#/document/8897 #onthisday</t>
+          <t>»Ma première intention ayant été, comme je l’ai dit à Monsieur Buchon, de lui donner un exemplaire ...« à Buchon, 1824-05-13, https://constance-de-salm.de/archiv/#/document/8897 #onthisday</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3514,17 +3514,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2026-5-14</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>18:21:45</t>
+          <t>19:10:43</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"J’ai une occasion, Monsieur et ami, et j’en profite pour vous dire que je suis arrivée à bon port ..." à Raboteau, 1811-05-14, https://constance-de-salm.de/archiv/#/document/3895 #onthisday</t>
+          <t>»J’ai une occasion, Monsieur et ami, et j’en profite pour vous dire que je suis arrivée à bon port ...« à Raboteau, 1811-05-14, https://constance-de-salm.de/archiv/#/document/3895 #onthisday</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3541,17 +3541,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2026-5-15</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>19:01:48</t>
+          <t>09:49:37</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Quoique le mercredi soit un mauvais jour, quoique la pluie soit un mauvais temps ..." à Prous, 1818-05-15, https://constance-de-salm.de/archiv/#/document/4438 #onthisday</t>
+          <t>»Quoique le mercredi soit un mauvais jour, quoique la pluie soit un mauvais temps ...« à Prous, 1818-05-15, https://constance-de-salm.de/archiv/#/document/4438 #onthisday</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3568,17 +3568,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2026-5-15</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>19:40:46</t>
+          <t>13:09:58</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Quoique le vendredi soit un mauvais jour, quoique la pluie soit un mauvais temps, quoique Hubelrath [sic] soit un mauvais village - ma bonne compagnie me paraît pouvoir faire oublier tout cela ..." à Prous, 1818-05-15, https://constance-de-salm.de/archiv/#/document/5063 #onthisday</t>
+          <t>»Quoique le vendredi soit un mauvais jour, quoique la pluie soit un mauvais temps, quoique Hubelrath [sic] soit un mauvais village - ma bonne compagnie me paraît pouvoir faire oublier tout cela ...« à Prous, 1818-05-15, https://constance-de-salm.de/archiv/#/document/5063 #onthisday</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3595,17 +3595,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2026-5-16</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10:05:02</t>
+          <t>15:25:13</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Citoyen Président, j’ai reçu la circulaire qui m’annonçait que par le nouveau règlement ..." à N.N., 1803-05-16, https://constance-de-salm.de/archiv/#/document/8649 #onthisday</t>
+          <t>»Citoyen Président, j’ai reçu la circulaire qui m’annonçait que par le nouveau règlement ...« à N.N., 1803-05-16, https://constance-de-salm.de/archiv/#/document/8649 #onthisday</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3622,17 +3622,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2026-5-16</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16:04:06</t>
+          <t>10:20:05</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Je ne reçois plus de tes lettres, ma chère Minette, et j’en serais bien inquiète si je ne savais ..." à Francq, 1815-05-16, https://constance-de-salm.de/archiv/#/document/8905 #onthisday</t>
+          <t>»Je ne reçois plus de tes lettres, ma chère Minette, et j’en serais bien inquiète si je ne savais ...« à Francq, 1815-05-16, https://constance-de-salm.de/archiv/#/document/8905 #onthisday</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2026-5-17</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16:16:25</t>
+          <t>18:25:25</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Comment se porte Monsieur Prous? ..." à Prous, 1816-05-17, https://constance-de-salm.de/archiv/#/document/2788 #onthisday</t>
+          <t>»Comment se porte Monsieur Prous? ...« à Prous, 1816-05-17, https://constance-de-salm.de/archiv/#/document/2788 #onthisday</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3676,17 +3676,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2026-5-18</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>11:06:42</t>
+          <t>09:22:23</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Je suis malade d'un terrible catarrhe qui me retient depuis ..." à Prous, 1820-05-18, https://constance-de-salm.de/archiv/#/document/2834 #onthisday</t>
+          <t>»Je suis malade d'un terrible catarrhe qui me retient depuis ...« à Prous, 1820-05-18, https://constance-de-salm.de/archiv/#/document/2834 #onthisday</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3703,17 +3703,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2026-5-18</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>12:48:18</t>
+          <t>18:16:23</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur et ami, combien j’ai été touchée de la perte que vous venez de faire ..." à Barbier, 1825-05-18, https://constance-de-salm.de/archiv/#/document/8950 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur et ami, combien j’ai été touchée de la perte que vous venez de faire ...« à Barbier, 1825-05-18, https://constance-de-salm.de/archiv/#/document/8950 #onthisday</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3730,17 +3730,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2026-5-19</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>11:16:35</t>
+          <t>17:22:44</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"J'apprends avec le plus vif plaisir, Monsieur et ami, la nouvelle justice ..." à Barbier, 1821-05-19, https://constance-de-salm.de/archiv/#/document/8284 #onthisday</t>
+          <t>»J'apprends avec le plus vif plaisir, Monsieur et ami, la nouvelle justice ...« à Barbier, 1821-05-19, https://constance-de-salm.de/archiv/#/document/8284 #onthisday</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2026-5-19</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08:55:56</t>
+          <t>16:50:30</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Je reçois, Madame, votre honorable invitation à la campagne et à cent lieues de Paris ..." à Jaquotot, 1825-05-19, https://constance-de-salm.de/archiv/#/document/8951 #onthisday</t>
+          <t>»Je reçois, Madame, votre honorable invitation à la campagne et à cent lieues de Paris ...« à Jaquotot, 1825-05-19, https://constance-de-salm.de/archiv/#/document/8951 #onthisday</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3784,17 +3784,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2026-5-20</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>17:01:38</t>
+          <t>15:11:05</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"J'ai été accablée de tracas, de petis maux et d'écritures depuis que j'ai ..." à Prous, 1820-05-20, https://constance-de-salm.de/archiv/#/document/2835 #onthisday</t>
+          <t>»J'ai été accablée de tracas, de petis maux et d'écritures depuis que j'ai ...« à Prous, 1820-05-20, https://constance-de-salm.de/archiv/#/document/2835 #onthisday</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3811,17 +3811,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2026-5-20</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>09:41:14</t>
+          <t>18:10:32</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"revenir sur une recommandation pour ce dernier ..." à Thurn und Taxis, 1820-05-20, https://constance-de-salm.de/archiv/#/document/5815 #onthisday</t>
+          <t>»revenir sur une recommandation pour ce dernier ...« à Thurn und Taxis, 1820-05-20, https://constance-de-salm.de/archiv/#/document/5815 #onthisday</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3838,17 +3838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2026-5-21</t>
+          <t>2026-05-21</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16:28:17</t>
+          <t>09:32:49</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Je profite de l’occasion d’un contreseing, Monsieur, pour vous dire que je suis arrivée en bonne santé ..." à Raboteau, 1809-05-21, https://constance-de-salm.de/archiv/#/document/3887 #onthisday</t>
+          <t>»Je profite de l’occasion d’un contreseing, Monsieur, pour vous dire que je suis arrivée en bonne santé ...« à Raboteau, 1809-05-21, https://constance-de-salm.de/archiv/#/document/3887 #onthisday</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3865,17 +3865,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2026-5-22</t>
+          <t>2026-05-22</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>12:18:21</t>
+          <t>15:37:47</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Monsieur Horner, que j'ai vu ce matin, Monsieur, et qui était aussi venu me voir ces jours-ci ..." à Villenave, 1833-05-22, https://constance-de-salm.de/archiv/#/document/5213 #onthisday</t>
+          <t>»Monsieur Horner, que j'ai vu ce matin, Monsieur, et qui était aussi venu me voir ces jours-ci ...« à Villenave, 1833-05-22, https://constance-de-salm.de/archiv/#/document/5213 #onthisday</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3892,17 +3892,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2026-5-23</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>11:55:42</t>
+          <t>08:55:51</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Je n’ai pas oublié, Madame, le cadeau que vous m’avez fait, il y a quelques années ..." à Fée, 1836-05-23, https://constance-de-salm.de/archiv/#/document/9747 #onthisday</t>
+          <t>»Je n’ai pas oublié, Madame, le cadeau que vous m’avez fait, il y a quelques années ...« à Fée, 1836-05-23, https://constance-de-salm.de/archiv/#/document/9747 #onthisday</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3919,17 +3919,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2026-5-24</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>11:41:45</t>
+          <t>19:52:06</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"Je suis accablée, Madame, de soins, d’embarras, d’occupations de tous genres; ..." à Waldor, 1836-05-24, https://constance-de-salm.de/archiv/#/document/9749 #onthisday</t>
+          <t>»Je suis accablée, Madame, de soins, d’embarras, d’occupations de tous genres; ...« à Waldor, 1836-05-24, https://constance-de-salm.de/archiv/#/document/9749 #onthisday</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2026-5-25</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>10:18:23</t>
+          <t>15:34:57</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"Me voilà bien loin de vous, ma chère amie, je ne vous attends plus le mardi ..." à Vanhove, 1830-05-25, https://constance-de-salm.de/archiv/#/document/5204 #onthisday</t>
+          <t>»Me voilà bien loin de vous, ma chère amie, je ne vous attends plus le mardi ...« à Vanhove, 1830-05-25, https://constance-de-salm.de/archiv/#/document/5204 #onthisday</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3973,17 +3973,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2026-5-25</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>17:56:52</t>
+          <t>10:56:56</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"J’aurai demain soir, (jeudi), une réunion qui sera peut-être la dernière; ..." à Villenave, 1831-05-25, https://constance-de-salm.de/archiv/#/document/11022 #onthisday</t>
+          <t>»J’aurai demain soir, (jeudi), une réunion qui sera peut-être la dernière; ...« à Villenave, 1831-05-25, https://constance-de-salm.de/archiv/#/document/11022 #onthisday</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2026-5-26</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>11:51:25</t>
+          <t>16:51:25</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Me voilà à Aix, Monsieur, après 4 jours de voyage le plus fatiguant que j’ai jamais fait ..." à Jullien de Paris, 1829-05-26, https://constance-de-salm.de/archiv/#/document/9388 #onthisday</t>
+          <t>»Me voilà à Aix, Monsieur, après 4 jours de voyage le plus fatiguant que j’ai jamais fait ...« à Jullien de Paris, 1829-05-26, https://constance-de-salm.de/archiv/#/document/9388 #onthisday</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4027,17 +4027,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2026-5-27</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>09:01:18</t>
+          <t>13:57:35</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"N'ayant lu votre lettre qu'en passant hier, Monsieur ..." à Prous, 1816-05-27, https://constance-de-salm.de/archiv/#/document/2791 #onthisday</t>
+          <t>»N'ayant lu votre lettre qu'en passant hier, Monsieur ...« à Prous, 1816-05-27, https://constance-de-salm.de/archiv/#/document/2791 #onthisday</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2026-5-27</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>18:33:21</t>
+          <t>08:10:07</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"N'ayant lu votre lettre qu'en passant hier, Monsieur ..." à Prous, 1816-05-27, https://constance-de-salm.de/archiv/#/document/4311 #onthisday</t>
+          <t>»N'ayant lu votre lettre qu'en passant hier, Monsieur ...« à Prous, 1816-05-27, https://constance-de-salm.de/archiv/#/document/4311 #onthisday</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4081,17 +4081,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2026-5-28</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>13:03:01</t>
+          <t>11:00:37</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas encore écrit, Monsieur ..." à Raboteau, 1807-05-28, https://constance-de-salm.de/archiv/#/document/8696 #onthisday</t>
+          <t>»Je ne vous ai pas encore écrit, Monsieur ...« à Raboteau, 1807-05-28, https://constance-de-salm.de/archiv/#/document/8696 #onthisday</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4108,17 +4108,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2026-5-28</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>13:27:13</t>
+          <t>12:17:21</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"O vous qu'au rang de mes plus chers amis ..." à Lantier, 1820-05-28, https://constance-de-salm.de/archiv/#/document/4535 #onthisday</t>
+          <t>»O vous qu'au rang de mes plus chers amis ...« à Lantier, 1820-05-28, https://constance-de-salm.de/archiv/#/document/4535 #onthisday</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4135,17 +4135,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2026-5-29</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>15:41:29</t>
+          <t>18:09:08</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre avec grand plaisir, Monsieur, elle s'est croisée avec la mienne ..." à Barbier, 1819-05-29, https://constance-de-salm.de/archiv/#/document/4474 #onthisday</t>
+          <t>»J'ai reçu votre lettre avec grand plaisir, Monsieur, elle s'est croisée avec la mienne ...« à Barbier, 1819-05-29, https://constance-de-salm.de/archiv/#/document/4474 #onthisday</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4162,17 +4162,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2026-5-29</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>18:49:25</t>
+          <t>09:29:19</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Je veux faire deux invitations à mon cher ami et à sa toute aimable famille ..." à Ladoucette, 1820-05-29, https://constance-de-salm.de/archiv/#/document/4536 #onthisday</t>
+          <t>»Je veux faire deux invitations à mon cher ami et à sa toute aimable famille ...« à Ladoucette, 1820-05-29, https://constance-de-salm.de/archiv/#/document/4536 #onthisday</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4189,17 +4189,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2026-5-30</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>15:27:42</t>
+          <t>16:52:40</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre excellente lettre à Aix-la-Chapelle, Monsieur, mais j'y étais si occupée ..." à Mirault, 1830-05-30, https://constance-de-salm.de/archiv/#/document/5168 #onthisday</t>
+          <t>»J'ai reçu votre excellente lettre à Aix-la-Chapelle, Monsieur, mais j'y étais si occupée ...« à Mirault, 1830-05-30, https://constance-de-salm.de/archiv/#/document/5168 #onthisday</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4216,17 +4216,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2026-5-30</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>09:50:27</t>
+          <t>08:23:30</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"Il y a longtemps que je n'ai vu Monsieur Berville ..." à Berville, 1831-05-30, https://constance-de-salm.de/archiv/#/document/6185 #onthisday</t>
+          <t>»Il y a longtemps que je n'ai vu Monsieur Berville ...« à Berville, 1831-05-30, https://constance-de-salm.de/archiv/#/document/6185 #onthisday</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2026-5-31</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>10:51:01</t>
+          <t>09:53:19</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Voilà enfin mes „Souvenirs“ que je me suis décidée à publier avant mon Épître politique ..." à Sanson de Pongerville, 1833-05-31, https://constance-de-salm.de/archiv/#/document/9523 #onthisday</t>
+          <t>»Voilà enfin mes „Souvenirs“ que je me suis décidée à publier avant mon Épître politique ...« à Sanson de Pongerville, 1833-05-31, https://constance-de-salm.de/archiv/#/document/9523 #onthisday</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4270,17 +4270,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2026-5-31</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16:29:34</t>
+          <t>18:17:12</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"J'éprouve le besoin de vous écrire ce que je vous ai dit hier, mon cher voisin ..." à Ladoucette, 1837-05-31, https://constance-de-salm.de/archiv/#/document/7774 #onthisday</t>
+          <t>»J'éprouve le besoin de vous écrire ce que je vous ai dit hier, mon cher voisin ...« à Ladoucette, 1837-05-31, https://constance-de-salm.de/archiv/#/document/7774 #onthisday</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4297,17 +4297,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2026-6-1</t>
+          <t>2026-06-01</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>09:07:17</t>
+          <t>19:35:25</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier une lettre de Monsieur Drais, ma chère Minette ..." à Francq, 1816-06-01, https://constance-de-salm.de/archiv/#/document/6286 #onthisday</t>
+          <t>»J’ai reçu hier une lettre de Monsieur Drais, ma chère Minette ...« à Francq, 1816-06-01, https://constance-de-salm.de/archiv/#/document/6286 #onthisday</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4324,17 +4324,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2026-6-1</t>
+          <t>2026-06-01</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>14:49:15</t>
+          <t>19:23:23</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Je me reprocherais vivement de ne pas vous avoir écrit depuis plus d'un mois ..." à Raboteau, 1818-06-01, https://constance-de-salm.de/archiv/#/document/4439 #onthisday</t>
+          <t>»Je me reprocherais vivement de ne pas vous avoir écrit depuis plus d'un mois ...« à Raboteau, 1818-06-01, https://constance-de-salm.de/archiv/#/document/4439 #onthisday</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4351,17 +4351,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2026-6-2</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>09:12:43</t>
+          <t>17:43:09</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"On m’a renvoyé à Bruxelles, Monsieur, la lettre que vous m’aviez écrite le jour même de mon départ ..." à Berville, 1829-06-02, https://constance-de-salm.de/archiv/#/document/9392 #onthisday</t>
+          <t>»On m’a renvoyé à Bruxelles, Monsieur, la lettre que vous m’aviez écrite le jour même de mon départ ...« à Berville, 1829-06-02, https://constance-de-salm.de/archiv/#/document/9392 #onthisday</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4378,17 +4378,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2026-6-2</t>
+          <t>2026-06-02</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>13:19:26</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Un mot à la hâte, Monsieur le baron, avec une mauvaise plume, un mal de tête, et tous les accompagnements d’une longue indisposition ..." à Ladoucette, 1830-06-02, https://constance-de-salm.de/archiv/#/document/9499 #onthisday</t>
+          <t>»Un mot à la hâte, Monsieur le baron, avec une mauvaise plume, un mal de tête, et tous les accompagnements d’une longue indisposition ...« à Ladoucette, 1830-06-02, https://constance-de-salm.de/archiv/#/document/9499 #onthisday</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4405,17 +4405,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2026-6-3</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>18:16:48</t>
+          <t>14:06:57</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"J'ai tant d'excuses à vous demander, Monsieur, que je ne sais comment entamer ce sujet ..." à Barbier, 1818-06-03, https://constance-de-salm.de/archiv/#/document/4440 #onthisday</t>
+          <t>»J'ai tant d'excuses à vous demander, Monsieur, que je ne sais comment entamer ce sujet ...« à Barbier, 1818-06-03, https://constance-de-salm.de/archiv/#/document/4440 #onthisday</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4432,17 +4432,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2026-6-3</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>09:12:27</t>
+          <t>19:16:38</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Je n’ai pu encore vous donner de mes nouvelles, Monsieur et ancien ami, premièrement parce que j’ai fait un séjour à Bruxelles ..." à Ponce, 1828-06-03, https://constance-de-salm.de/archiv/#/document/9179 #onthisday</t>
+          <t>»Je n’ai pu encore vous donner de mes nouvelles, Monsieur et ancien ami, premièrement parce que j’ai fait un séjour à Bruxelles ...« à Ponce, 1828-06-03, https://constance-de-salm.de/archiv/#/document/9179 #onthisday</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4459,17 +4459,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2026-6-5</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>12:31:09</t>
+          <t>18:07:39</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"de nos penchants ou de nos voeux les plus doux, / l'âge le sait, décident plus que nous (.....) Mais voilà ma 9ème page ..." à Thurn und Taxis, 1819-06-05, https://constance-de-salm.de/archiv/#/document/5816 #onthisday</t>
+          <t>»de nos penchants ou de nos voeux les plus doux, / l'âge le sait, décident plus que nous (.....) Mais voilà ma 9ème page ...« à Thurn und Taxis, 1819-06-05, https://constance-de-salm.de/archiv/#/document/5816 #onthisday</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4486,17 +4486,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2026-6-6</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>19:08:28</t>
+          <t>11:17:48</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Je suis charmée de toute façon, Monsieur, d’avoir reçu votre lettre; ..." à Ritz, 1825-06-06, https://constance-de-salm.de/archiv/#/document/8952 #onthisday</t>
+          <t>»Je suis charmée de toute façon, Monsieur, d’avoir reçu votre lettre; ...« à Ritz, 1825-06-06, https://constance-de-salm.de/archiv/#/document/8952 #onthisday</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4513,17 +4513,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2026-6-6</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>10:16:07</t>
+          <t>15:27:49</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, Monsieur, que j'ai reçu votre lettre, et j'y aurais répondu beaucoup plutôt ..." à Boucharlat, 1830-06-06, https://constance-de-salm.de/archiv/#/document/5170 #onthisday</t>
+          <t>»Il y a déjà quelque temps, Monsieur, que j'ai reçu votre lettre, et j'y aurais répondu beaucoup plutôt ...« à Boucharlat, 1830-06-06, https://constance-de-salm.de/archiv/#/document/5170 #onthisday</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4540,17 +4540,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2026-6-7</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>18:36:48</t>
+          <t>10:05:49</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"On me dit, Monsieur, que vous êtes toujours malade, dans votre lit, et j’en suis très peinée, je vous l’assure ..." à Prous, 1816-06-07, https://constance-de-salm.de/archiv/#/document/2792 #onthisday</t>
+          <t>»On me dit, Monsieur, que vous êtes toujours malade, dans votre lit, et j’en suis très peinée, je vous l’assure ...« à Prous, 1816-06-07, https://constance-de-salm.de/archiv/#/document/2792 #onthisday</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4567,17 +4567,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2026-6-7</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>15:22:56</t>
+          <t>15:13:02</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je ne vous ai écrit, Monsieur ..." à Barbier, 1820-06-07, https://constance-de-salm.de/archiv/#/document/4543 #onthisday</t>
+          <t>»Il y a bien longtemps que je ne vous ai écrit, Monsieur ...« à Barbier, 1820-06-07, https://constance-de-salm.de/archiv/#/document/4543 #onthisday</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4594,17 +4594,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2026-6-8</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>15:18:22</t>
+          <t>11:17:38</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"Il y a déjà longtemps, Monsieur, que j'ai reçu votre aimable lettre: elle m'a fait beaucoup de plaisir et par ce qu'elle dit, et par ce qu'elle prouve; ..." à Gudin de La Brenellerie, 1808-06-08, https://constance-de-salm.de/archiv/#/document/8712 #onthisday</t>
+          <t>»Il y a déjà longtemps, Monsieur, que j'ai reçu votre aimable lettre: elle m'a fait beaucoup de plaisir et par ce qu'elle dit, et par ce qu'elle prouve; ...« à Gudin de La Brenellerie, 1808-06-08, https://constance-de-salm.de/archiv/#/document/8712 #onthisday</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4621,17 +4621,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2026-6-8</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>19:18:48</t>
+          <t>16:27:22</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Je suis arrivée ici en assez bonne santé, Monsieur, et un de mes premiers soins ..." à Barbier, 1817-06-08, https://constance-de-salm.de/archiv/#/document/4365 #onthisday</t>
+          <t>»Je suis arrivée ici en assez bonne santé, Monsieur, et un de mes premiers soins ...« à Barbier, 1817-06-08, https://constance-de-salm.de/archiv/#/document/4365 #onthisday</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4648,17 +4648,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2026-6-9</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>13:22:37</t>
+          <t>13:47:45</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Me voilà donc dans ce paisible asile / Que dans mes vers j'accusais si souvent, / Déjà je sens mon âme plus tranquille ..." à Thurn und Taxis, 1819-06-09, https://constance-de-salm.de/archiv/#/document/191 #onthisday</t>
+          <t>»Me voilà donc dans ce paisible asile / Que dans mes vers j'accusais si souvent, / Déjà je sens mon âme plus tranquille ...« à Thurn und Taxis, 1819-06-09, https://constance-de-salm.de/archiv/#/document/191 #onthisday</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4675,17 +4675,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2026-6-10</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>08:41:44</t>
+          <t>15:15:03</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"Me voilà ici, cher frère, après avoir espéré inutilement pendant 2 mois de pouvoir faire le voyage de Paris ..." à Théis, 1832-06-10, https://constance-de-salm.de/archiv/#/document/10817 #onthisday</t>
+          <t>»Me voilà ici, cher frère, après avoir espéré inutilement pendant 2 mois de pouvoir faire le voyage de Paris ...« à Théis, 1832-06-10, https://constance-de-salm.de/archiv/#/document/10817 #onthisday</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4702,17 +4702,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2026-6-10</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>18:25:01</t>
+          <t>15:29:50</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Il y a eu hier trois mois que j’ai perdu le meilleur, le plus digne des enfants, celui en qui j’avais mis tout le bonheur de ma vie ..." à Théis, 1835-06-10, https://constance-de-salm.de/archiv/#/document/9610 #onthisday</t>
+          <t>»Il y a eu hier trois mois que j’ai perdu le meilleur, le plus digne des enfants, celui en qui j’avais mis tout le bonheur de ma vie ...« à Théis, 1835-06-10, https://constance-de-salm.de/archiv/#/document/9610 #onthisday</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4729,17 +4729,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2026-6-11</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>11:58:27</t>
+          <t>17:09:36</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"Lorsqu’entré dans son cabinet / On fait le plan de sa journée ..." à Raboteau, 1808-06-11, https://constance-de-salm.de/archiv/#/document/2103 #onthisday</t>
+          <t>»Lorsqu’entré dans son cabinet / On fait le plan de sa journée ...« à Raboteau, 1808-06-11, https://constance-de-salm.de/archiv/#/document/2103 #onthisday</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4756,17 +4756,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2026-6-11</t>
+          <t>2026-06-11</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>18:19:03</t>
+          <t>19:02:01</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Lorsqu’entré dans son cabinet / On fait le plan de sa journée ..." à Raboteau, 1808-06-11, https://constance-de-salm.de/archiv/#/document/3885 #onthisday</t>
+          <t>»Lorsqu’entré dans son cabinet / On fait le plan de sa journée ...« à Raboteau, 1808-06-11, https://constance-de-salm.de/archiv/#/document/3885 #onthisday</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4783,17 +4783,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2026-6-12</t>
+          <t>2026-06-12</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16:50:40</t>
+          <t>16:29:24</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>"La manière dont vous expliquez votre opinion, Monsieur ..." à Bernard de Rennes, 1831-06-12, https://constance-de-salm.de/archiv/#/document/6435 #onthisday</t>
+          <t>»La manière dont vous expliquez votre opinion, Monsieur ...« à Bernard de Rennes, 1831-06-12, https://constance-de-salm.de/archiv/#/document/6435 #onthisday</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4810,17 +4810,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2026-6-13</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>12:02:00</t>
+          <t>19:37:08</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"Je rappelle à Monsieur Villenave qu’il dîne aujourd’hui chez moi ..." à Villenave, 1831-06-13, https://constance-de-salm.de/archiv/#/document/11027 #onthisday</t>
+          <t>»Je rappelle à Monsieur Villenave qu’il dîne aujourd’hui chez moi ...« à Villenave, 1831-06-13, https://constance-de-salm.de/archiv/#/document/11027 #onthisday</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4837,17 +4837,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2026-6-14</t>
+          <t>2026-06-14</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11:01:09</t>
+          <t>12:07:49</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>"C’est à vous que je veux écrire cette fois, Monsieur et bien véritable ami ..." à Laya, 1824-06-14, https://constance-de-salm.de/archiv/#/document/8906 #onthisday</t>
+          <t>»C’est à vous que je veux écrire cette fois, Monsieur et bien véritable ami ...« à Laya, 1824-06-14, https://constance-de-salm.de/archiv/#/document/8906 #onthisday</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4864,17 +4864,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-6-15</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16:44:18</t>
+          <t>13:43:02</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>"M. Chambert m'apprends, Monsieur, que le jugement relatif ..." à Pailliet, 1825-06-15, https://constance-de-salm.de/archiv/#/document/11340 #onthisday</t>
+          <t>»M. Chambert m'apprends, Monsieur, que le jugement relatif ...« à Pailliet, 1825-06-15, https://constance-de-salm.de/archiv/#/document/11340 #onthisday</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4891,17 +4891,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-6-16</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>15:49:06</t>
+          <t>14:23:30</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>"Je suis arrivée depuis 3 jours, Monsieur et ami, j’ai été assez malade en route ..." à Barbier, 1824-06-16, https://constance-de-salm.de/archiv/#/document/8907 #onthisday</t>
+          <t>»Je suis arrivée depuis 3 jours, Monsieur et ami, j’ai été assez malade en route ...« à Barbier, 1824-06-16, https://constance-de-salm.de/archiv/#/document/8907 #onthisday</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4918,17 +4918,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-6-17</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>15:47:40</t>
+          <t>19:15:52</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>"Je vous écris un petit mot par une occasion, Monsieur et ami ..." à Raboteau, 1812-06-17, https://constance-de-salm.de/archiv/#/document/3904 #onthisday</t>
+          <t>»Je vous écris un petit mot par une occasion, Monsieur et ami ...« à Raboteau, 1812-06-17, https://constance-de-salm.de/archiv/#/document/3904 #onthisday</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4945,17 +4945,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2026-6-17</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>14:19:26</t>
+          <t>15:41:03</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>"Vous n'avez pas encore mon „Épître aux souverains absolus“, Monsieur ..." à Pougens, 1831-06-17, https://constance-de-salm.de/archiv/#/document/6450 #onthisday</t>
+          <t>»Vous n'avez pas encore mon „Épître aux souverains absolus“, Monsieur ...« à Pougens, 1831-06-17, https://constance-de-salm.de/archiv/#/document/6450 #onthisday</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4972,17 +4972,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-6-18</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>11:53:05</t>
+          <t>11:28:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>"J’ai bien tardé à t‘écrire et à répondre à ta lettre, cher frère; mais les premiers jours de mon séjour ici ..." à Théis, 1826-06-18, https://constance-de-salm.de/archiv/#/document/10668 #onthisday</t>
+          <t>»J’ai bien tardé à t‘écrire et à répondre à ta lettre, cher frère; mais les premiers jours de mon séjour ici ...« à Théis, 1826-06-18, https://constance-de-salm.de/archiv/#/document/10668 #onthisday</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4999,17 +4999,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-6-19</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>10:47:54</t>
+          <t>17:27:01</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas répondu encore, quoique votre lettre soit arrivée ici depuis 10 à 12 jours ..." à Lantier, 1807-06-19, https://constance-de-salm.de/archiv/#/document/8697 #onthisday</t>
+          <t>»Je ne vous ai pas répondu encore, quoique votre lettre soit arrivée ici depuis 10 à 12 jours ...« à Lantier, 1807-06-19, https://constance-de-salm.de/archiv/#/document/8697 #onthisday</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5026,17 +5026,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-6-20</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>14:57:23</t>
+          <t>09:21:48</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>"Je suis triste de votre départ, Monsieur, il me semble que j'en suis plus loin de mon pays ..." à Prous, 1819-06-20, https://constance-de-salm.de/archiv/#/document/4475 #onthisday</t>
+          <t>»Je suis triste de votre départ, Monsieur, il me semble que j'en suis plus loin de mon pays ...« à Prous, 1819-06-20, https://constance-de-salm.de/archiv/#/document/4475 #onthisday</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5053,17 +5053,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-6-20</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16:25:35</t>
+          <t>15:05:16</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>"Si jamais il m'a été pénible d'être retenue chez moi, c'est bien en ce moment ..." à Esterházy von Galantha, 1820-06-20, https://constance-de-salm.de/archiv/#/document/4546 #onthisday</t>
+          <t>»Si jamais il m'a été pénible d'être retenue chez moi, c'est bien en ce moment ...« à Esterházy von Galantha, 1820-06-20, https://constance-de-salm.de/archiv/#/document/4546 #onthisday</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5080,17 +5080,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-6-21</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>15:22:30</t>
+          <t>13:33:09</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>"; J'ai oublié hier de corriger sur l'épreuve de mon avant-propos les titres de ceux de mes ouvrages ..." à Lainé, 1841-06-21, https://constance-de-salm.de/archiv/#/document/7435 #onthisday</t>
+          <t>»; J'ai oublié hier de corriger sur l'épreuve de mon avant-propos les titres de ceux de mes ouvrages ...« à Lainé, 1841-06-21, https://constance-de-salm.de/archiv/#/document/7435 #onthisday</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5107,17 +5107,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-6-22</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>08:57:48</t>
+          <t>16:08:53</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur et ami, de toutes les peines ..." à Barbier, 1823-06-22, https://constance-de-salm.de/archiv/#/document/69 #onthisday</t>
+          <t>»Mille remerciements, Monsieur et ami, de toutes les peines ...« à Barbier, 1823-06-22, https://constance-de-salm.de/archiv/#/document/69 #onthisday</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5134,17 +5134,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-6-22</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>14:20:33</t>
+          <t>14:41:28</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre aimable et bonne lettre, Monsieur et ancien ami ..." à Faulcon de La Parisière, 1831-06-22, https://constance-de-salm.de/archiv/#/document/6460 #onthisday</t>
+          <t>»J'ai reçu hier votre aimable et bonne lettre, Monsieur et ancien ami ...« à Faulcon de La Parisière, 1831-06-22, https://constance-de-salm.de/archiv/#/document/6460 #onthisday</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5161,17 +5161,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-6-23</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>17:02:04</t>
+          <t>11:12:39</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>"Me voilà à la campagne, depuis près d’un mois, Madame et ancienne amie, après une suite de courses, d’indispositions et d’embarras ..." à Salis, 1830-06-23, https://constance-de-salm.de/archiv/#/document/9500 #onthisday</t>
+          <t>»Me voilà à la campagne, depuis près d’un mois, Madame et ancienne amie, après une suite de courses, d’indispositions et d’embarras ...« à Salis, 1830-06-23, https://constance-de-salm.de/archiv/#/document/9500 #onthisday</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5188,17 +5188,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-6-23</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>08:05:19</t>
+          <t>17:17:15</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>"La Gazette littéraire est une feuille hebdomadaire de huit pages d'impression ..." à Villenave, 1831-06-23, https://constance-de-salm.de/archiv/#/document/11029 #onthisday</t>
+          <t>»La Gazette littéraire est une feuille hebdomadaire de huit pages d'impression ...« à Villenave, 1831-06-23, https://constance-de-salm.de/archiv/#/document/11029 #onthisday</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5215,17 +5215,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-6-24</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>19:02:33</t>
+          <t>13:04:24</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>"Sire, le petit ouvrage que je joins à cette lettre et que j’ai l’honneur d’offrir à Votre Majesté ..." à Friedrich Wilhelm III., 1824-06-24, https://constance-de-salm.de/archiv/#/document/8909 #onthisday</t>
+          <t>»Sire, le petit ouvrage que je joins à cette lettre et que j’ai l’honneur d’offrir à Votre Majesté ...« à Friedrich Wilhelm III., 1824-06-24, https://constance-de-salm.de/archiv/#/document/8909 #onthisday</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5242,17 +5242,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-6-24</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>09:52:49</t>
+          <t>17:12:06</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>"Le voyage, le bon air et surtout le calme de la campagne m’ont enfin rendu la santé, Monsieur, et le premier usage ..." à Viennet, 1826-06-24, https://constance-de-salm.de/archiv/#/document/9007 #onthisday</t>
+          <t>»Le voyage, le bon air et surtout le calme de la campagne m’ont enfin rendu la santé, Monsieur, et le premier usage ...« à Viennet, 1826-06-24, https://constance-de-salm.de/archiv/#/document/9007 #onthisday</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5269,17 +5269,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-6-25</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>17:08:24</t>
+          <t>13:31:28</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>"J’ai bien tardé à vous répondre, Mademoiselle; ..." à Sobry, 1825-06-25, https://constance-de-salm.de/archiv/#/document/8956 #onthisday</t>
+          <t>»J’ai bien tardé à vous répondre, Mademoiselle; ...« à Sobry, 1825-06-25, https://constance-de-salm.de/archiv/#/document/8956 #onthisday</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5296,17 +5296,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-6-25</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>13:27:47</t>
+          <t>19:37:45</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, ma secrétaire intime est revenue ..." à Barbier, 1825-06-25, https://constance-de-salm.de/archiv/#/document/8954 #onthisday</t>
+          <t>»Enfin, Monsieur, ma secrétaire intime est revenue ...« à Barbier, 1825-06-25, https://constance-de-salm.de/archiv/#/document/8954 #onthisday</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5323,17 +5323,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-6-26</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>13:36:43</t>
+          <t>18:08:24</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>"Votre écriture est si jolie, / Et vos éloges sont si doux ..." à Amalric, 1830-06-26, https://constance-de-salm.de/archiv/#/document/5173 #onthisday</t>
+          <t>»Votre écriture est si jolie, / Et vos éloges sont si doux ...« à Amalric, 1830-06-26, https://constance-de-salm.de/archiv/#/document/5173 #onthisday</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5350,17 +5350,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-6-26</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>11:30:28</t>
+          <t>09:54:29</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>"Votre aimable lettre, mon cher confrère en Apollon ..." à Andrieux, 1831-06-26, https://constance-de-salm.de/archiv/#/document/6475 #onthisday</t>
+          <t>»Votre aimable lettre, mon cher confrère en Apollon ...« à Andrieux, 1831-06-26, https://constance-de-salm.de/archiv/#/document/6475 #onthisday</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5377,17 +5377,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-6-27</t>
+          <t>2026-06-27</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>09:17:32</t>
+          <t>16:11:49</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur, de quelles expressions me servir pour excuser mon long silence ..." à Jullien de Paris, 1830-06-27, https://constance-de-salm.de/archiv/#/document/5174 #onthisday</t>
+          <t>»Je ne sais, Monsieur, de quelles expressions me servir pour excuser mon long silence ...« à Jullien de Paris, 1830-06-27, https://constance-de-salm.de/archiv/#/document/5174 #onthisday</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5404,17 +5404,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-6-28</t>
+          <t>2026-06-28</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>19:10:24</t>
+          <t>19:42:53</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>"Je relis votre lettre, Monsieur et ami ..." à Raboteau, 1811-06-28, https://constance-de-salm.de/archiv/#/document/3898 #onthisday</t>
+          <t>»Je relis votre lettre, Monsieur et ami ...« à Raboteau, 1811-06-28, https://constance-de-salm.de/archiv/#/document/3898 #onthisday</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-6-28</t>
+          <t>2026-06-28</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>12:27:28</t>
+          <t>19:22:06</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>"Excusez, Monsieur, si je ne vous accorde pas ce que votre politesse vous fait me demander ..." à Labouïsse-Rochefort, 1812-06-28, https://constance-de-salm.de/archiv/#/document/2271 #onthisday</t>
+          <t>»Excusez, Monsieur, si je ne vous accorde pas ce que votre politesse vous fait me demander ...« à Labouïsse-Rochefort, 1812-06-28, https://constance-de-salm.de/archiv/#/document/2271 #onthisday</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5458,17 +5458,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-6-29</t>
+          <t>2026-06-29</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>09:02:03</t>
+          <t>17:46:49</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>"J’ai eu la messe ce matin, ma chère Minette, quoique ce soit samedi ..." à Francq, 1816-06-29, https://constance-de-salm.de/archiv/#/document/6291 #onthisday</t>
+          <t>»J’ai eu la messe ce matin, ma chère Minette, quoique ce soit samedi ...« à Francq, 1816-06-29, https://constance-de-salm.de/archiv/#/document/6291 #onthisday</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5485,17 +5485,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-6-29</t>
+          <t>2026-06-29</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>14:00:57</t>
+          <t>11:15:27</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>"J’ai eu tant d’embarras au moment de quitter Paris, Monsieur, et j’ai été tellement fatiguée ..." à Pillet, 1824-06-29, https://constance-de-salm.de/archiv/#/document/8913 #onthisday</t>
+          <t>»J’ai eu tant d’embarras au moment de quitter Paris, Monsieur, et j’ai été tellement fatiguée ...« à Pillet, 1824-06-29, https://constance-de-salm.de/archiv/#/document/8913 #onthisday</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5512,17 +5512,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-6-30</t>
+          <t>2026-06-30</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>11:00:04</t>
+          <t>11:00:08</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>"Je suis triste de votre départ, Monsieur, il me semble que j'en suis plus loin de mon pays ..." à Prous, 1819-06-30, https://constance-de-salm.de/archiv/#/document/7795 #onthisday</t>
+          <t>»Je suis triste de votre départ, Monsieur, il me semble que j'en suis plus loin de mon pays ...« à Prous, 1819-06-30, https://constance-de-salm.de/archiv/#/document/7795 #onthisday</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5539,17 +5539,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-7-1</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>17:23:03</t>
+          <t>10:16:26</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>"J’ai reçu enfin une lettre de mon frère, en réponse à mon billet ..." à Drais, 1835-07-01, https://constance-de-salm.de/archiv/#/document/9623 #onthisday</t>
+          <t>»J’ai reçu enfin une lettre de mon frère, en réponse à mon billet ...« à Drais, 1835-07-01, https://constance-de-salm.de/archiv/#/document/9623 #onthisday</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5566,17 +5566,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-7-1</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>08:11:20</t>
+          <t>13:32:46</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre bonne et aimable lettre, Monsieur, et je m'empresse de vous dire ..." à Villenave, 1837-07-01, https://constance-de-salm.de/archiv/#/document/7797 #onthisday</t>
+          <t>»Je reçois à l'instant votre bonne et aimable lettre, Monsieur, et je m'empresse de vous dire ...« à Villenave, 1837-07-01, https://constance-de-salm.de/archiv/#/document/7797 #onthisday</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5593,17 +5593,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-7-2</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>19:58:39</t>
+          <t>14:09:51</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>"J’ai dit à Monsieur Drais, Monsieur, de vous aller voir de ma part et de vous engager à m’écrire ..." à Mirault, 1829-07-02, https://constance-de-salm.de/archiv/#/document/9398 #onthisday</t>
+          <t>»J’ai dit à Monsieur Drais, Monsieur, de vous aller voir de ma part et de vous engager à m’écrire ...« à Mirault, 1829-07-02, https://constance-de-salm.de/archiv/#/document/9398 #onthisday</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5620,17 +5620,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-7-2</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>12:02:53</t>
+          <t>17:51:56</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>"Étant un peu incommodée, Général, je dicte cette lettre à mon petit-fils Constant, pour vous prier de nous rendre un service ..." à Saint-Mars, 1829-07-02, https://constance-de-salm.de/archiv/#/document/9397 #onthisday</t>
+          <t>»Étant un peu incommodée, Général, je dicte cette lettre à mon petit-fils Constant, pour vous prier de nous rendre un service ...« à Saint-Mars, 1829-07-02, https://constance-de-salm.de/archiv/#/document/9397 #onthisday</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5647,17 +5647,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-7-3</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>17:24:28</t>
+          <t>11:29:49</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, Monsieur, et je m'empresse de vous dire que, d'après ce que vous m'aviez écrit ..." à Audouin de Géronval, 1834-07-03, https://constance-de-salm.de/archiv/#/document/5577 #onthisday</t>
+          <t>»Je reçois votre lettre, Monsieur, et je m'empresse de vous dire que, d'après ce que vous m'aviez écrit ...« à Audouin de Géronval, 1834-07-03, https://constance-de-salm.de/archiv/#/document/5577 #onthisday</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5674,17 +5674,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-7-3</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>17:34:38</t>
+          <t>14:18:33</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>"Vos vers sont trop flatteurs pour moi, Monsieur, pour que j'ose vous en faire l'éloge ..." à Malepeyre, 1834-07-03, https://constance-de-salm.de/archiv/#/document/5578 #onthisday</t>
+          <t>»Vos vers sont trop flatteurs pour moi, Monsieur, pour que j'ose vous en faire l'éloge ...« à Malepeyre, 1834-07-03, https://constance-de-salm.de/archiv/#/document/5578 #onthisday</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5701,17 +5701,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-7-4</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>09:54:43</t>
+          <t>08:19:56</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>"Monsieur le maréchal, si mon mari, le Prince de Salm-Dyck, eut été ici dans ce moment, il vous aurait prié, de ma part, de me rendre un petit service ..." à Soult, 1834-07-04, https://constance-de-salm.de/archiv/#/document/5579 #onthisday</t>
+          <t>»Monsieur le maréchal, si mon mari, le Prince de Salm-Dyck, eut été ici dans ce moment, il vous aurait prié, de ma part, de me rendre un petit service ...« à Soult, 1834-07-04, https://constance-de-salm.de/archiv/#/document/5579 #onthisday</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5728,17 +5728,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-7-5</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>11:32:13</t>
+          <t>12:28:46</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que je n'ai eu le plaisir de vous voir ..." à Berville, 1840-07-05, https://constance-de-salm.de/archiv/#/document/8219 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que je n'ai eu le plaisir de vous voir ...« à Berville, 1840-07-05, https://constance-de-salm.de/archiv/#/document/8219 #onthisday</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5755,17 +5755,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-7-6</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16:31:31</t>
+          <t>11:02:34</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>"Un de nos amis communs m'a dit hier, Monsieur, qu'il vous avez [sic] rencontré, il y a quelques jours ..." à Sanson de Pongerville, 1839-07-06, https://constance-de-salm.de/archiv/#/document/8066 #onthisday</t>
+          <t>»Un de nos amis communs m'a dit hier, Monsieur, qu'il vous avez [sic] rencontré, il y a quelques jours ...« à Sanson de Pongerville, 1839-07-06, https://constance-de-salm.de/archiv/#/document/8066 #onthisday</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5782,17 +5782,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-7-8</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>13:17:31</t>
+          <t>08:39:55</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>"Je suis depuis deux mois ici, Monsieur, et presque toujours malade; ce qui m'a empêchée de vous écrire plutôt, comme je me le proposais ..." à Paillet, 1830-07-08, https://constance-de-salm.de/archiv/#/document/5175 #onthisday</t>
+          <t>»Je suis depuis deux mois ici, Monsieur, et presque toujours malade; ce qui m'a empêchée de vous écrire plutôt, comme je me le proposais ...« à Paillet, 1830-07-08, https://constance-de-salm.de/archiv/#/document/5175 #onthisday</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5809,17 +5809,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2026-7-8</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>14:40:53</t>
+          <t>12:48:51</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>"Je charge Monsieur Drais, qui va dans votre quartier, Monsieur, de vous remettre ce billet ..." à Villenave, 1831-07-08, https://constance-de-salm.de/archiv/#/document/11031 #onthisday</t>
+          <t>»Je charge Monsieur Drais, qui va dans votre quartier, Monsieur, de vous remettre ce billet ...« à Villenave, 1831-07-08, https://constance-de-salm.de/archiv/#/document/11031 #onthisday</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-7-9</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>12:57:20</t>
+          <t>14:39:26</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>"J’ai fait il y a quelques mois, Monsieur, une perte bien cruelle, et je n’aurais pas tant tardé ..." à Pailliet, 1835-07-09, https://constance-de-salm.de/archiv/#/document/9625 #onthisday</t>
+          <t>»J’ai fait il y a quelques mois, Monsieur, une perte bien cruelle, et je n’aurais pas tant tardé ...« à Pailliet, 1835-07-09, https://constance-de-salm.de/archiv/#/document/9625 #onthisday</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5863,17 +5863,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-7-10</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>17:20:16</t>
+          <t>14:26:27</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>"Depuis que je suis ici, mon ancienne amie, j'espérais sans cesse vous voir arriver ..." à Salis, 1834-07-10, https://constance-de-salm.de/archiv/#/document/5581 #onthisday</t>
+          <t>»Depuis que je suis ici, mon ancienne amie, j'espérais sans cesse vous voir arriver ...« à Salis, 1834-07-10, https://constance-de-salm.de/archiv/#/document/5581 #onthisday</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5890,17 +5890,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-7-11</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>19:58:49</t>
+          <t>09:42:13</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>"J’étais si occupée ce matin, Monsieur, quand vous êtes venu que je crains de ne vous avoir pas dit assez clairement ..." à Depping, 1833-07-11, https://constance-de-salm.de/archiv/#/document/9531 #onthisday</t>
+          <t>»J’étais si occupée ce matin, Monsieur, quand vous êtes venu que je crains de ne vous avoir pas dit assez clairement ...« à Depping, 1833-07-11, https://constance-de-salm.de/archiv/#/document/9531 #onthisday</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5917,17 +5917,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-7-11</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>18:50:20</t>
+          <t>15:00:33</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>"Quand vous avez été parti ce matin, Monsieur, j’ai repensé à l’air triste et abattu que vous aviez; ..." à Villenave, 1833-07-11, https://constance-de-salm.de/archiv/#/document/9532 #onthisday</t>
+          <t>»Quand vous avez été parti ce matin, Monsieur, j’ai repensé à l’air triste et abattu que vous aviez; ...« à Villenave, 1833-07-11, https://constance-de-salm.de/archiv/#/document/9532 #onthisday</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5944,17 +5944,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-7-12</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>11:32:07</t>
+          <t>10:13:12</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>"Recevez, Monsieur, mon compliment sur l’heureuse délivrance de Madame votre épouse ..." à Laya, 1808-07-12, https://constance-de-salm.de/archiv/#/document/8722 #onthisday</t>
+          <t>»Recevez, Monsieur, mon compliment sur l’heureuse délivrance de Madame votre épouse ...« à Laya, 1808-07-12, https://constance-de-salm.de/archiv/#/document/8722 #onthisday</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5971,17 +5971,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-7-12</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>09:30:16</t>
+          <t>11:31:36</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>"Je suis vraiment bien fâchée, Monsieur et ami, de l’indisposition très grave que vous venez d’avoir ..." à Raboteau, 1812-07-12, https://constance-de-salm.de/archiv/#/document/2273 #onthisday</t>
+          <t>»Je suis vraiment bien fâchée, Monsieur et ami, de l’indisposition très grave que vous venez d’avoir ...« à Raboteau, 1812-07-12, https://constance-de-salm.de/archiv/#/document/2273 #onthisday</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5998,17 +5998,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-7-13</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>13:18:35</t>
+          <t>13:34:38</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>"Il m'est impossible, ma chère amie, de vous dire toute la douleur que j'ai éprouvée en apprenant le cruel événement qui vient de porter la désolation dans votre famille ..." à Naigeon, 1832-07-13, https://constance-de-salm.de/archiv/#/document/5410 #onthisday</t>
+          <t>»Il m'est impossible, ma chère amie, de vous dire toute la douleur que j'ai éprouvée en apprenant le cruel événement qui vient de porter la désolation dans votre famille ...« à Naigeon, 1832-07-13, https://constance-de-salm.de/archiv/#/document/5410 #onthisday</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6025,17 +6025,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-7-14</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>12:18:14</t>
+          <t>18:04:53</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>"Si depuis quelques semaines il m’avait été possible de faire une visite, Madame et amie, j’aurais été vous voir ..." à Gay, 1833-07-14, https://constance-de-salm.de/archiv/#/document/9536 #onthisday</t>
+          <t>»Si depuis quelques semaines il m’avait été possible de faire une visite, Madame et amie, j’aurais été vous voir ...« à Gay, 1833-07-14, https://constance-de-salm.de/archiv/#/document/9536 #onthisday</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6052,17 +6052,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-7-15</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>09:34:31</t>
+          <t>10:27:23</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>"Je dicte en hâte un mot pour vous à Mademoiselle S., Monsieur, pour profiter d’un paquet que j’envoie à Monsieur Drais ..." à Barbier, 1825-07-15, https://constance-de-salm.de/archiv/#/document/8957 #onthisday</t>
+          <t>»Je dicte en hâte un mot pour vous à Mademoiselle S., Monsieur, pour profiter d’un paquet que j’envoie à Monsieur Drais ...« à Barbier, 1825-07-15, https://constance-de-salm.de/archiv/#/document/8957 #onthisday</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6079,17 +6079,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-7-15</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>17:15:55</t>
+          <t>11:09:51</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>"J’ai trouvé ici, Général, à mon retour d’un petit voyage, la lettre que Monsieur d’Asfeld m’a fait passer de votre part ..." à La Fayette, 1829-07-15, https://constance-de-salm.de/archiv/#/document/9401 #onthisday</t>
+          <t>»J’ai trouvé ici, Général, à mon retour d’un petit voyage, la lettre que Monsieur d’Asfeld m’a fait passer de votre part ...« à La Fayette, 1829-07-15, https://constance-de-salm.de/archiv/#/document/9401 #onthisday</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6106,17 +6106,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-7-16</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>14:05:35</t>
+          <t>08:38:48</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>"Tranquillisée par votre dernière lettre, Monsieur, je ne pensais plus à mon procès ..." à Paillet, 1834-07-16, https://constance-de-salm.de/archiv/#/document/5582 #onthisday</t>
+          <t>»Tranquillisée par votre dernière lettre, Monsieur, je ne pensais plus à mon procès ...« à Paillet, 1834-07-16, https://constance-de-salm.de/archiv/#/document/5582 #onthisday</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6133,17 +6133,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2026-7-17</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>09:08:33</t>
+          <t>11:18:52</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>"J'envoye chez Mme de Dorth, mon cher voisin, et je veux vous dire un mot en passant ..." à Prous, 1821-07-17, https://constance-de-salm.de/archiv/#/document/4559 #onthisday</t>
+          <t>»J'envoye chez Mme de Dorth, mon cher voisin, et je veux vous dire un mot en passant ...« à Prous, 1821-07-17, https://constance-de-salm.de/archiv/#/document/4559 #onthisday</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6160,17 +6160,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-7-18</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>09:07:40</t>
+          <t>09:06:08</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>"Il faut, Monsieur, que je jase un instant avec vous; que je vous donne de mes nouvelles ..." à Gohier, 1829-07-18, https://constance-de-salm.de/archiv/#/document/10481 #onthisday</t>
+          <t>»Il faut, Monsieur, que je jase un instant avec vous; que je vous donne de mes nouvelles ...« à Gohier, 1829-07-18, https://constance-de-salm.de/archiv/#/document/10481 #onthisday</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6187,17 +6187,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-7-19</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>15:22:25</t>
+          <t>19:10:46</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>"Je ne suis guère plus gaie que vous, mon cher voisin, et je suis encore attristée par le mal de Madame Kopp ..." à Prous, 1817-07-19, https://constance-de-salm.de/archiv/#/document/2814 #onthisday</t>
+          <t>»Je ne suis guère plus gaie que vous, mon cher voisin, et je suis encore attristée par le mal de Madame Kopp ...« à Prous, 1817-07-19, https://constance-de-salm.de/archiv/#/document/2814 #onthisday</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6214,17 +6214,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2026-7-20</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>10:01:44</t>
+          <t>18:13:40</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre bonne lettre, mon ancien ami, et je ne veux pas tarder davantage à vous écrire ..." à Raboteau, 1819-07-20, https://constance-de-salm.de/archiv/#/document/4477 #onthisday</t>
+          <t>»J'ai reçu hier votre bonne lettre, mon ancien ami, et je ne veux pas tarder davantage à vous écrire ...« à Raboteau, 1819-07-20, https://constance-de-salm.de/archiv/#/document/4477 #onthisday</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6241,17 +6241,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-7-20</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>19:04:13</t>
+          <t>13:24:33</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre bonne lettre, mon ancien ami, et je ne veux pas tarder davantage à vous écrire ..." à Raboteau, 1819-07-20, https://constance-de-salm.de/archiv/#/document/4857 #onthisday</t>
+          <t>»J'ai reçu hier votre bonne lettre, mon ancien ami, et je ne veux pas tarder davantage à vous écrire ...« à Raboteau, 1819-07-20, https://constance-de-salm.de/archiv/#/document/4857 #onthisday</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6268,17 +6268,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-7-22</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>13:54:00</t>
+          <t>15:23:15</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Madame, tout ce que j'ai ressenti de douleur en apprenant hier, par le „Constitutionnel“, que j'avais perdu le plus ancien, le plus digne de mes amis, votre cher et respectable mari ..." à Thurot, 1832-07-22, https://constance-de-salm.de/archiv/#/document/5413 #onthisday</t>
+          <t>»Je ne puis vous dire, Madame, tout ce que j'ai ressenti de douleur en apprenant hier, par le „Constitutionnel“, que j'avais perdu le plus ancien, le plus digne de mes amis, votre cher et respectable mari ...« à Thurot, 1832-07-22, https://constance-de-salm.de/archiv/#/document/5413 #onthisday</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6295,17 +6295,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-7-22</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>11:53:10</t>
+          <t>08:11:16</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps que j'ai reçu votre dernière lettre, Monsieur le baron, et je ne comprends pas comment je n'y ai pas encore répondu ..." à Ladoucette, 1832-07-22, https://constance-de-salm.de/archiv/#/document/5412 #onthisday</t>
+          <t>»Il y a déjà quelque temps que j'ai reçu votre dernière lettre, Monsieur le baron, et je ne comprends pas comment je n'y ai pas encore répondu ...« à Ladoucette, 1832-07-22, https://constance-de-salm.de/archiv/#/document/5412 #onthisday</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6322,17 +6322,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-7-23</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>17:29:33</t>
+          <t>16:39:55</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>"Le jour même de mon départ, Monsieur, on m’a apporté de l’imprimerie mon discours sur l’étude ..." à Malo, 1833-07-23, https://constance-de-salm.de/archiv/#/document/9539 #onthisday</t>
+          <t>»Le jour même de mon départ, Monsieur, on m’a apporté de l’imprimerie mon discours sur l’étude ...« à Malo, 1833-07-23, https://constance-de-salm.de/archiv/#/document/9539 #onthisday</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6349,17 +6349,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-7-23</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>11:09:28</t>
+          <t>13:37:24</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>"J'attendais, Monsieur, pour vous envoyer la lettre que je vous ai écrite, et dont je vous ai dit un mot ..." à Beltrami, 1834-07-23, https://constance-de-salm.de/archiv/#/document/5586 #onthisday</t>
+          <t>»J'attendais, Monsieur, pour vous envoyer la lettre que je vous ai écrite, et dont je vous ai dit un mot ...« à Beltrami, 1834-07-23, https://constance-de-salm.de/archiv/#/document/5586 #onthisday</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6376,17 +6376,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-7-24</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>11:28:43</t>
+          <t>15:17:52</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>"Si ce petit billet vous parvient, Monsieur et ami, vous saurés au moins que je me porte bien ..." à Raboteau, 1814-07-24, https://constance-de-salm.de/archiv/#/document/3916 #onthisday</t>
+          <t>»Si ce petit billet vous parvient, Monsieur et ami, vous saurés au moins que je me porte bien ...« à Raboteau, 1814-07-24, https://constance-de-salm.de/archiv/#/document/3916 #onthisday</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6403,17 +6403,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-7-25</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>08:14:12</t>
+          <t>15:18:52</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>"J’envoie ma lettre à Monsieur Drais, ma chère Minette ..." à Francq, 1814-07-25, https://constance-de-salm.de/archiv/#/document/6206 #onthisday</t>
+          <t>»J’envoie ma lettre à Monsieur Drais, ma chère Minette ...« à Francq, 1814-07-25, https://constance-de-salm.de/archiv/#/document/6206 #onthisday</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-7-26</t>
+          <t>2026-07-26</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16:28:06</t>
+          <t>13:44:45</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>"Je profite de l’occasion de Monsieur Canot qui retourne à Paris, mon ancien ami, pour écrire une foule de petits billets, et je veux ..." à Ponce, 1826-07-26, https://constance-de-salm.de/archiv/#/document/10759 #onthisday</t>
+          <t>»Je profite de l’occasion de Monsieur Canot qui retourne à Paris, mon ancien ami, pour écrire une foule de petits billets, et je veux ...« à Ponce, 1826-07-26, https://constance-de-salm.de/archiv/#/document/10759 #onthisday</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6457,17 +6457,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2026-7-26</t>
+          <t>2026-07-26</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>09:10:51</t>
+          <t>12:56:15</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>"Votre lettre du 21 m’est arrivée hier, Monsieur, et elle ne pouvait venir plus à propos ..." à Pailliet, 1827-07-26, https://constance-de-salm.de/archiv/#/document/11370 #onthisday</t>
+          <t>»Votre lettre du 21 m’est arrivée hier, Monsieur, et elle ne pouvait venir plus à propos ...« à Pailliet, 1827-07-26, https://constance-de-salm.de/archiv/#/document/11370 #onthisday</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-7-27</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>10:22:28</t>
+          <t>11:37:34</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>"Je suis arrivée ici, Monsieur, en assés bon état quoiqu’excédée de fatigue : ..." à Raboteau, 1810-07-27, https://constance-de-salm.de/archiv/#/document/3891 #onthisday</t>
+          <t>»Je suis arrivée ici, Monsieur, en assés bon état quoiqu’excédée de fatigue : ...« à Raboteau, 1810-07-27, https://constance-de-salm.de/archiv/#/document/3891 #onthisday</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6511,17 +6511,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-7-28</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>08:10:16</t>
+          <t>15:16:23</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>"Me voilà dans le vieux château, regrettant mes amis, et ces bonnes soirées ..." à Sanson de Pongerville, 1837-07-28, https://constance-de-salm.de/archiv/#/document/7815 #onthisday</t>
+          <t>»Me voilà dans le vieux château, regrettant mes amis, et ces bonnes soirées ...« à Sanson de Pongerville, 1837-07-28, https://constance-de-salm.de/archiv/#/document/7815 #onthisday</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6538,17 +6538,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-7-29</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>12:23:34</t>
+          <t>18:39:56</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>"Depuis que j’ai reçu votre dernière lettre, Monsieur, nous avons eu le chagrin de perdre Monsieur de Vrignel ..." à Pailliet, 1829-07-29, https://constance-de-salm.de/archiv/#/document/9441 #onthisday</t>
+          <t>»Depuis que j’ai reçu votre dernière lettre, Monsieur, nous avons eu le chagrin de perdre Monsieur de Vrignel ...« à Pailliet, 1829-07-29, https://constance-de-salm.de/archiv/#/document/9441 #onthisday</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6565,17 +6565,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-7-29</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>10:31:03</t>
+          <t>09:15:30</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>"Vous avez raison de croire, Madame, que je m‘intéresse à votre bonheur; ..." à Roguet, 1829-07-29, https://constance-de-salm.de/archiv/#/document/9440 #onthisday</t>
+          <t>»Vous avez raison de croire, Madame, que je m‘intéresse à votre bonheur; ...« à Roguet, 1829-07-29, https://constance-de-salm.de/archiv/#/document/9440 #onthisday</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6592,17 +6592,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-7-30</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>19:36:56</t>
+          <t>14:43:52</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>"Votre N° 3 que j'ai reçu hier, nous a appris, Monsieur, la fatale nouvelle que vous veniez d'apprendre par le „Moniteur“ ..." à Jullien de Paris, 1830-07-30, https://constance-de-salm.de/archiv/#/document/5179 #onthisday</t>
+          <t>»Votre N° 3 que j'ai reçu hier, nous a appris, Monsieur, la fatale nouvelle que vous veniez d'apprendre par le „Moniteur“ ...« à Jullien de Paris, 1830-07-30, https://constance-de-salm.de/archiv/#/document/5179 #onthisday</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2026-7-31</t>
+          <t>2026-07-31</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>11:30:33</t>
+          <t>15:12:25</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>"Je m’empresse d’ajouter un mot à la lettre de mon mari, mon cher voisin, on ne peut désirer ..." à Maison, 1829-07-31, https://constance-de-salm.de/archiv/#/document/9442 #onthisday</t>
+          <t>»Je m’empresse d’ajouter un mot à la lettre de mon mari, mon cher voisin, on ne peut désirer ...« à Maison, 1829-07-31, https://constance-de-salm.de/archiv/#/document/9442 #onthisday</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6646,17 +6646,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-8-1</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:13:51</t>
+          <t>16:26:04</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>"Quoiqu'à cent lieues de vous, ma chère amie ..." à Vanhove, 1816-08-01, https://constance-de-salm.de/archiv/#/document/4322 #onthisday</t>
+          <t>»Quoiqu'à cent lieues de vous, ma chère amie ...« à Vanhove, 1816-08-01, https://constance-de-salm.de/archiv/#/document/4322 #onthisday</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6673,17 +6673,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-8-2</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>11:41:38</t>
+          <t>08:44:41</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>"Je vois bien que j’ai soixante ans / Quand j’ignorais encor les outrages du temps / quand j‘étais jeune, agréable, brillante / On recueillait… ..." à Duval, 1827-08-02, https://constance-de-salm.de/archiv/#/document/9097 #onthisday</t>
+          <t>»Je vois bien que j’ai soixante ans / Quand j’ignorais encor les outrages du temps / quand j‘étais jeune, agréable, brillante / On recueillait… ...« à Duval, 1827-08-02, https://constance-de-salm.de/archiv/#/document/9097 #onthisday</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6700,17 +6700,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-8-2</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>09:20:38</t>
+          <t>11:45:03</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>"Je vois bien que j’ai soixante ans / Quand j’ignorais encor les outrages du temps / quand j‘étais jeune, agréable, brillante / On recueillait… ..." à Duval, 1827-08-02, https://constance-de-salm.de/archiv/#/document/11225 #onthisday</t>
+          <t>»Je vois bien que j’ai soixante ans / Quand j’ignorais encor les outrages du temps / quand j‘étais jeune, agréable, brillante / On recueillait… ...« à Duval, 1827-08-02, https://constance-de-salm.de/archiv/#/document/11225 #onthisday</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6727,17 +6727,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-8-3</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>11:38:56</t>
+          <t>13:03:33</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>"On vous regrette fort ..." à Prous, 1818-08-03, https://constance-de-salm.de/archiv/#/document/2819 #onthisday</t>
+          <t>»On vous regrette fort ...« à Prous, 1818-08-03, https://constance-de-salm.de/archiv/#/document/2819 #onthisday</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6754,17 +6754,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-8-4</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>17:10:19</t>
+          <t>13:10:43</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant la revue, Monsieur, et je veux vous dire ..." à Jullien de Paris, 1831-08-04, https://constance-de-salm.de/archiv/#/document/6540 #onthisday</t>
+          <t>»Je reçois à l'instant la revue, Monsieur, et je veux vous dire ...« à Jullien de Paris, 1831-08-04, https://constance-de-salm.de/archiv/#/document/6540 #onthisday</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6781,17 +6781,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-8-4</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>19:40:06</t>
+          <t>17:44:11</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>"Depuis que j’ai reçu votre lettre, Monsieur, j’ai été si occupée et aussi si accablée par l’excès de la chaleur ..." à Mirault, 1836-08-04, https://constance-de-salm.de/archiv/#/document/9829 #onthisday</t>
+          <t>»Depuis que j’ai reçu votre lettre, Monsieur, j’ai été si occupée et aussi si accablée par l’excès de la chaleur ...« à Mirault, 1836-08-04, https://constance-de-salm.de/archiv/#/document/9829 #onthisday</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6808,17 +6808,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-8-5</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>14:36:56</t>
+          <t>08:01:33</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de vous, mon ancien ami, et je veux que vous entendiez parler de moi ..." à Thurot, 1826-08-05, https://constance-de-salm.de/archiv/#/document/9041 #onthisday</t>
+          <t>»Je n’entends point parler de vous, mon ancien ami, et je veux que vous entendiez parler de moi ...« à Thurot, 1826-08-05, https://constance-de-salm.de/archiv/#/document/9041 #onthisday</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6835,17 +6835,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-8-5</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>09:09:11</t>
+          <t>18:09:40</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre votre lettre, Monsieur, et en envoyant justement ..." à Villenave, 1831-08-05, https://constance-de-salm.de/archiv/#/document/6544 #onthisday</t>
+          <t>»J'ai reçu hier votre votre lettre, Monsieur, et en envoyant justement ...« à Villenave, 1831-08-05, https://constance-de-salm.de/archiv/#/document/6544 #onthisday</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6862,17 +6862,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-8-6</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>19:29:22</t>
+          <t>12:33:32</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre, Madame, elle m’a fait le plus grand plaisir, et je ne veux pas tarder davantage ..." à Waldor, 1829-08-06, https://constance-de-salm.de/archiv/#/document/9446 #onthisday</t>
+          <t>»J’ai reçu votre lettre, Madame, elle m’a fait le plus grand plaisir, et je ne veux pas tarder davantage ...« à Waldor, 1829-08-06, https://constance-de-salm.de/archiv/#/document/9446 #onthisday</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6889,17 +6889,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-8-7</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>18:46:35</t>
+          <t>19:43:50</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>"Je ne puis vous remercier assez, Monsieur le colonel, de la lettre que vous nous avez écrite ..." à Schepeler, 1830-08-07, https://constance-de-salm.de/archiv/#/document/5181 #onthisday</t>
+          <t>»Je ne puis vous remercier assez, Monsieur le colonel, de la lettre que vous nous avez écrite ...« à Schepeler, 1830-08-07, https://constance-de-salm.de/archiv/#/document/5181 #onthisday</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6916,17 +6916,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-8-8</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>10:17:04</t>
+          <t>17:16:40</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>"Cette lettre vous sera remise ou envoyée, Monsieur, par mon homme d'affaires, gérant de la tutelle de mes enfants, cela va bien vous surprendre ..." à Paganel, 1832-08-08, https://constance-de-salm.de/archiv/#/document/5417 #onthisday</t>
+          <t>»Cette lettre vous sera remise ou envoyée, Monsieur, par mon homme d'affaires, gérant de la tutelle de mes enfants, cela va bien vous surprendre ...« à Paganel, 1832-08-08, https://constance-de-salm.de/archiv/#/document/5417 #onthisday</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6943,17 +6943,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-8-8</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>17:21:41</t>
+          <t>15:55:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>"Je me hâte, Monsieur le baron, de répondre à la lettre que j'ai reçue de vous hier et par laquelle ..." à Ladoucette, 1837-08-08, https://constance-de-salm.de/archiv/#/document/7820 #onthisday</t>
+          <t>»Je me hâte, Monsieur le baron, de répondre à la lettre que j'ai reçue de vous hier et par laquelle ...« à Ladoucette, 1837-08-08, https://constance-de-salm.de/archiv/#/document/7820 #onthisday</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6970,17 +6970,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-8-9</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>12:18:02</t>
+          <t>13:28:49</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>"Je veux vous dire moi-même, Monsieur, que je suis arrivée ici il y a quelques jours ..." à Jullien de Paris, 1834-08-09, https://constance-de-salm.de/archiv/#/document/5589 #onthisday</t>
+          <t>»Je veux vous dire moi-même, Monsieur, que je suis arrivée ici il y a quelques jours ...« à Jullien de Paris, 1834-08-09, https://constance-de-salm.de/archiv/#/document/5589 #onthisday</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6997,17 +6997,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-8-9</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>08:46:53</t>
+          <t>15:53:26</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>"J'envoie à Monsieur Drais une foule de petits billets et je veux, Monsieur et Madame, qu'il y en ait un pour vous ..." à Mirault, 1837-08-09, https://constance-de-salm.de/archiv/#/document/7823 #onthisday</t>
+          <t>»J'envoie à Monsieur Drais une foule de petits billets et je veux, Monsieur et Madame, qu'il y en ait un pour vous ...« à Mirault, 1837-08-09, https://constance-de-salm.de/archiv/#/document/7823 #onthisday</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7024,17 +7024,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-8-10</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>19:34:58</t>
+          <t>14:21:48</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>"Je vous renvoye les schalls, Monsieur, avec mille remerciments ..." à Prous, 1816-08-10, https://constance-de-salm.de/archiv/#/document/10602 #onthisday</t>
+          <t>»Je vous renvoye les schalls, Monsieur, avec mille remerciments ...« à Prous, 1816-08-10, https://constance-de-salm.de/archiv/#/document/10602 #onthisday</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7051,17 +7051,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-8-10</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>09:05:58</t>
+          <t>16:49:48</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>"J'ai écrit avant-hier à Monsieur Drais, Monsieur, et je l'ai chargé de vous dire ..." à Jullien de Paris, 1830-08-10, https://constance-de-salm.de/archiv/#/document/5183 #onthisday</t>
+          <t>»J'ai écrit avant-hier à Monsieur Drais, Monsieur, et je l'ai chargé de vous dire ...« à Jullien de Paris, 1830-08-10, https://constance-de-salm.de/archiv/#/document/5183 #onthisday</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7078,17 +7078,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-8-11</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>14:52:13</t>
+          <t>08:41:08</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>"J’ai prié vos deux fils, mon cher voisin, de vous dire à quel point nous avions partagé votre satisfaction et celle de votre famille ..." à Maison, 1828-08-11, https://constance-de-salm.de/archiv/#/document/9217 #onthisday</t>
+          <t>»J’ai prié vos deux fils, mon cher voisin, de vous dire à quel point nous avions partagé votre satisfaction et celle de votre famille ...« à Maison, 1828-08-11, https://constance-de-salm.de/archiv/#/document/9217 #onthisday</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7105,17 +7105,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-8-12</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>14:33:09</t>
+          <t>15:29:04</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>"Voilà bien longtemps que je ne t’ai écrit, cher frère; mais j’avais à Paris de tes nouvelles ..." à Théis, 1831-08-12, https://constance-de-salm.de/archiv/#/document/10801 #onthisday</t>
+          <t>»Voilà bien longtemps que je ne t’ai écrit, cher frère; mais j’avais à Paris de tes nouvelles ...« à Théis, 1831-08-12, https://constance-de-salm.de/archiv/#/document/10801 #onthisday</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7132,17 +7132,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-8-13</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>08:27:00</t>
+          <t>08:53:51</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>"Je profite de votre exprès pour vous dire, mon voisin, que nous avons ..." à Prous, 1816-08-13, https://constance-de-salm.de/archiv/#/document/4325 #onthisday</t>
+          <t>»Je profite de votre exprès pour vous dire, mon voisin, que nous avons ...« à Prous, 1816-08-13, https://constance-de-salm.de/archiv/#/document/4325 #onthisday</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7159,17 +7159,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-8-14</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>18:07:34</t>
+          <t>08:36:13</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>"Cher frère, j’ai un moment de liberté, et je veux jaser avec toi ..." à Théis, 1825-08-14, https://constance-de-salm.de/archiv/#/document/10623 #onthisday</t>
+          <t>»Cher frère, j’ai un moment de liberté, et je veux jaser avec toi ...« à Théis, 1825-08-14, https://constance-de-salm.de/archiv/#/document/10623 #onthisday</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7186,17 +7186,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-8-15</t>
+          <t>2026-08-15</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>15:45:54</t>
+          <t>17:53:32</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>"Que vous dire de mon long silence, mon ancien ami ? La vérité, et dans le moins de mots possibles ..." à Raboteau, 1823-08-15, https://constance-de-salm.de/archiv/#/document/74 #onthisday</t>
+          <t>»Que vous dire de mon long silence, mon ancien ami ? La vérité, et dans le moins de mots possibles ...« à Raboteau, 1823-08-15, https://constance-de-salm.de/archiv/#/document/74 #onthisday</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7213,17 +7213,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-8-15</t>
+          <t>2026-08-15</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>13:43:25</t>
+          <t>15:15:26</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, ma chère amie, et quoique je sois fort occupée dans ce moment, je veux pourtant ..." à Leroy de Bacre, 1836-08-15, https://constance-de-salm.de/archiv/#/document/9833 #onthisday</t>
+          <t>»Je reçois votre lettre, ma chère amie, et quoique je sois fort occupée dans ce moment, je veux pourtant ...« à Leroy de Bacre, 1836-08-15, https://constance-de-salm.de/archiv/#/document/9833 #onthisday</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7240,17 +7240,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-8-16</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>16:35:07</t>
+          <t>12:03:55</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, la lettre par laquelle vous m'apprenez que l'Académie de Lyon ..." à N.N., 1830-08-16, https://constance-de-salm.de/archiv/#/document/5184 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, la lettre par laquelle vous m'apprenez que l'Académie de Lyon ...« à N.N., 1830-08-16, https://constance-de-salm.de/archiv/#/document/5184 #onthisday</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7267,17 +7267,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-8-17</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>11:54:25</t>
+          <t>10:21:10</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>"Je reprends cette lettre commencée depuis bien longtems, Madame, un reste de nonchalance, les chaleurs accablantes, une foule de monde qui nous est tombé de partout ..." à Thurn und Taxis, 1826-08-17, https://constance-de-salm.de/archiv/#/document/5824 #onthisday</t>
+          <t>»Je reprends cette lettre commencée depuis bien longtems, Madame, un reste de nonchalance, les chaleurs accablantes, une foule de monde qui nous est tombé de partout ...« à Thurn und Taxis, 1826-08-17, https://constance-de-salm.de/archiv/#/document/5824 #onthisday</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7294,17 +7294,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-8-17</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>14:53:04</t>
+          <t>19:08:14</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre lettre, Monsieur le baron, et j’y réponds à l’instant pour mon plaisir et pour nos affaires ..." à Ladoucette, 1826-08-17, https://constance-de-salm.de/archiv/#/document/9043 #onthisday</t>
+          <t>»J’ai reçu hier votre lettre, Monsieur le baron, et j’y réponds à l’instant pour mon plaisir et pour nos affaires ...« à Ladoucette, 1826-08-17, https://constance-de-salm.de/archiv/#/document/9043 #onthisday</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7321,17 +7321,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-8-18</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>11:38:51</t>
+          <t>08:20:37</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>"J’apprends à l’instant, Madame la baronne [sic], par le jeune comte de Hompesch que vous partez demain ..." à Löwenhielm, 1825-08-18, https://constance-de-salm.de/archiv/#/document/8962 #onthisday</t>
+          <t>»J’apprends à l’instant, Madame la baronne [sic], par le jeune comte de Hompesch que vous partez demain ...« à Löwenhielm, 1825-08-18, https://constance-de-salm.de/archiv/#/document/8962 #onthisday</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7348,17 +7348,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-8-19</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>11:57:01</t>
+          <t>18:43:28</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre très intéressante lettre, Monsieur, et je dicte en hâte ..." à Marron, 1830-08-19, https://constance-de-salm.de/archiv/#/document/5185 #onthisday</t>
+          <t>»Je reçois à l'instant votre très intéressante lettre, Monsieur, et je dicte en hâte ...« à Marron, 1830-08-19, https://constance-de-salm.de/archiv/#/document/5185 #onthisday</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7375,17 +7375,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-8-20</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>09:30:54</t>
+          <t>12:43:16</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>"Je vous écris bien rarement, Monsieur, je ne sais moi-même comment cela se fait ..." à Jullien de Paris, 1835-08-20, https://constance-de-salm.de/archiv/#/document/9636 #onthisday</t>
+          <t>»Je vous écris bien rarement, Monsieur, je ne sais moi-même comment cela se fait ...« à Jullien de Paris, 1835-08-20, https://constance-de-salm.de/archiv/#/document/9636 #onthisday</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-8-20</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>09:13:58</t>
+          <t>18:56:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>"Depuis longtemps je me propose de vous écrire, Monsieur, mais jusqu’à présent, je n’en ai pas eu le courage ..." à Barbier, 1835-08-20, https://constance-de-salm.de/archiv/#/document/9637 #onthisday</t>
+          <t>»Depuis longtemps je me propose de vous écrire, Monsieur, mais jusqu’à présent, je n’en ai pas eu le courage ...« à Barbier, 1835-08-20, https://constance-de-salm.de/archiv/#/document/9637 #onthisday</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7429,17 +7429,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-8-21</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>08:16:04</t>
+          <t>17:35:11</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>"Je ne veux point tarder à vous répondre, Madame et bien chère amie ..." à Salis, 1832-08-21, https://constance-de-salm.de/archiv/#/document/10353 #onthisday</t>
+          <t>»Je ne veux point tarder à vous répondre, Madame et bien chère amie ...« à Salis, 1832-08-21, https://constance-de-salm.de/archiv/#/document/10353 #onthisday</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7456,17 +7456,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-8-21</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>18:53:15</t>
+          <t>10:42:28</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre, Madame, et je me hâte d'y répondre ..." à Morgan, 1833-08-21, https://constance-de-salm.de/archiv/#/document/5250 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre, Madame, et je me hâte d'y répondre ...« à Morgan, 1833-08-21, https://constance-de-salm.de/archiv/#/document/5250 #onthisday</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7483,17 +7483,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-8-22</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>16:24:49</t>
+          <t>11:25:11</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>"J'ai prié Mr. Vergifosse, qui est venu nous voir il y a près d'un mois, Madame ..." à Montigny, 1833-08-22, https://constance-de-salm.de/archiv/#/document/5251 #onthisday</t>
+          <t>»J'ai prié Mr. Vergifosse, qui est venu nous voir il y a près d'un mois, Madame ...« à Montigny, 1833-08-22, https://constance-de-salm.de/archiv/#/document/5251 #onthisday</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7510,17 +7510,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-8-23</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>13:20:18</t>
+          <t>18:51:42</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>"Combien je me reprocherais, Monsieur, de ne pas vous avoir encore écrit, si depuis la perte si douloureuse ..." à Sanson de Pongerville, 1835-08-23, https://constance-de-salm.de/archiv/#/document/9658 #onthisday</t>
+          <t>»Combien je me reprocherais, Monsieur, de ne pas vous avoir encore écrit, si depuis la perte si douloureuse ...« à Sanson de Pongerville, 1835-08-23, https://constance-de-salm.de/archiv/#/document/9658 #onthisday</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7537,17 +7537,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-8-24</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>10:06:21</t>
+          <t>13:15:21</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>"C'est avec beaucoup de plaisir, Madame, que j'ai reçu votre lettre, et que j'ai appris que vous vous portiez mieux ..." à Montigny, 1837-08-24, https://constance-de-salm.de/archiv/#/document/7828 #onthisday</t>
+          <t>»C'est avec beaucoup de plaisir, Madame, que j'ai reçu votre lettre, et que j'ai appris que vous vous portiez mieux ...« à Montigny, 1837-08-24, https://constance-de-salm.de/archiv/#/document/7828 #onthisday</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7564,17 +7564,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-8-25</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>14:04:00</t>
+          <t>19:07:39</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>"Je veux joindre un mot à cette lettre, mon cher voisin ..." à Prous, 1820-08-25, https://constance-de-salm.de/archiv/#/document/2837 #onthisday</t>
+          <t>»Je veux joindre un mot à cette lettre, mon cher voisin ...« à Prous, 1820-08-25, https://constance-de-salm.de/archiv/#/document/2837 #onthisday</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7591,17 +7591,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-8-26</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>14:26:29</t>
+          <t>09:10:21</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>"À mon arrivée ici, Monsieur, j'ai chargé Monsieur Drais d'aller chez vous de ma part ..." à Villenave, 1837-08-26, https://constance-de-salm.de/archiv/#/document/7829 #onthisday</t>
+          <t>»À mon arrivée ici, Monsieur, j'ai chargé Monsieur Drais d'aller chez vous de ma part ...« à Villenave, 1837-08-26, https://constance-de-salm.de/archiv/#/document/7829 #onthisday</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7618,17 +7618,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-8-27</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>13:21:45</t>
+          <t>08:10:20</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur, si ce billet vous trouvera encore à Paris, mais je vous l’écris à tout hasard ..." à Jullien de Paris, 1835-08-27, https://constance-de-salm.de/archiv/#/document/9639 #onthisday</t>
+          <t>»Je ne sais, Monsieur, si ce billet vous trouvera encore à Paris, mais je vous l’écris à tout hasard ...« à Jullien de Paris, 1835-08-27, https://constance-de-salm.de/archiv/#/document/9639 #onthisday</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7645,17 +7645,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-8-28</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>11:15:52</t>
+          <t>17:56:38</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>"Toutes mes affaires sont finies; je suis donc tranquille; ..." à Prous, 1821-08-28, https://constance-de-salm.de/archiv/#/document/2841 #onthisday</t>
+          <t>»Toutes mes affaires sont finies; je suis donc tranquille; ...« à Prous, 1821-08-28, https://constance-de-salm.de/archiv/#/document/2841 #onthisday</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7672,17 +7672,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-8-29</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>14:29:10</t>
+          <t>13:55:40</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>"Je vous trouve un heureux compère, Monsieur, d'être le chaperon de deux jeunes demoiselles ..." à Prous, 1816-08-29, https://constance-de-salm.de/archiv/#/document/2800 #onthisday</t>
+          <t>»Je vous trouve un heureux compère, Monsieur, d'être le chaperon de deux jeunes demoiselles ...« à Prous, 1816-08-29, https://constance-de-salm.de/archiv/#/document/2800 #onthisday</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7699,17 +7699,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-8-29</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>08:24:16</t>
+          <t>16:00:47</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de vous, Monsieur et ancien ami, tous mes amis m’ont écrit ..." à Duval, 1826-08-29, https://constance-de-salm.de/archiv/#/document/9044 #onthisday</t>
+          <t>»Je n’entends point parler de vous, Monsieur et ancien ami, tous mes amis m’ont écrit ...« à Duval, 1826-08-29, https://constance-de-salm.de/archiv/#/document/9044 #onthisday</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7726,17 +7726,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-8-30</t>
+          <t>2026-08-30</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>14:45:45</t>
+          <t>14:05:32</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>"Voici, mon voisin, quelques journaux ..." à Prous, 1821-08-30, https://constance-de-salm.de/archiv/#/document/2846 #onthisday</t>
+          <t>»Voici, mon voisin, quelques journaux ...« à Prous, 1821-08-30, https://constance-de-salm.de/archiv/#/document/2846 #onthisday</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7753,17 +7753,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-8-30</t>
+          <t>2026-08-30</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>18:10:38</t>
+          <t>10:46:49</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>"Il faut que je jase un instant avec vous, ma très aimable amie; je ne puis supporter ..." à Gouvion Saint-Cyr, 1825-08-30, https://constance-de-salm.de/archiv/#/document/8963 #onthisday</t>
+          <t>»Il faut que je jase un instant avec vous, ma très aimable amie; je ne puis supporter ...« à Gouvion Saint-Cyr, 1825-08-30, https://constance-de-salm.de/archiv/#/document/8963 #onthisday</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7780,17 +7780,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-8-31</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>10:32:28</t>
+          <t>15:56:33</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>"Je ne sais, en vérité, Monsieur, ce que je peux vous dire pour excuser mon long silence ..." à Pougens, 1832-08-31, https://constance-de-salm.de/archiv/#/document/5423 #onthisday</t>
+          <t>»Je ne sais, en vérité, Monsieur, ce que je peux vous dire pour excuser mon long silence ...« à Pougens, 1832-08-31, https://constance-de-salm.de/archiv/#/document/5423 #onthisday</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7807,17 +7807,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-9-1</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>13:56:36</t>
+          <t>15:05:22</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>"Votre lettre a renouvellé [sic] en moi le sentiment de bien des douleurs ..." à Salis, 1822-09-01, https://constance-de-salm.de/archiv/#/document/10438 #onthisday</t>
+          <t>»Votre lettre a renouvellé [sic] en moi le sentiment de bien des douleurs ...« à Salis, 1822-09-01, https://constance-de-salm.de/archiv/#/document/10438 #onthisday</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7834,17 +7834,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-9-2</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>10:29:43</t>
+          <t>17:55:48</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>"Je veux vous dire trois choses, Monsieur; la première, c’est que j’ai fait un très bon voyage ..." à Heinsberg, 1827-09-02, https://constance-de-salm.de/archiv/#/document/9086 #onthisday</t>
+          <t>»Je veux vous dire trois choses, Monsieur; la première, c’est que j’ai fait un très bon voyage ...« à Heinsberg, 1827-09-02, https://constance-de-salm.de/archiv/#/document/9086 #onthisday</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7861,17 +7861,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-9-2</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>18:58:05</t>
+          <t>11:22:27</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>"J'ai enfin reçu votre ouvrage, Monsieur et ami, et (je ne sais pourquoi) près d'un mois après votre lettre ..." à Duval, 1832-09-02, https://constance-de-salm.de/archiv/#/document/5424 #onthisday</t>
+          <t>»J'ai enfin reçu votre ouvrage, Monsieur et ami, et (je ne sais pourquoi) près d'un mois après votre lettre ...« à Duval, 1832-09-02, https://constance-de-salm.de/archiv/#/document/5424 #onthisday</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7888,17 +7888,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-9-3</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>12:58:55</t>
+          <t>19:03:32</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>"J'espère que vous accompagnerez aujourd'hui la bonne tante ..." à Prous, 1817-09-03, https://constance-de-salm.de/archiv/#/document/10288 #onthisday</t>
+          <t>»J'espère que vous accompagnerez aujourd'hui la bonne tante ...« à Prous, 1817-09-03, https://constance-de-salm.de/archiv/#/document/10288 #onthisday</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7915,17 +7915,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-9-5</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>14:25:09</t>
+          <t>12:43:19</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>"Voici le livre que j'avais oublié aussi bien que vous, Monsieur ..." à Prous, 1815-09-05, https://constance-de-salm.de/archiv/#/document/4276 #onthisday</t>
+          <t>»Voici le livre que j'avais oublié aussi bien que vous, Monsieur ...« à Prous, 1815-09-05, https://constance-de-salm.de/archiv/#/document/4276 #onthisday</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7942,17 +7942,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-9-6</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>08:39:25</t>
+          <t>14:03:14</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m'écrit, Monsieur, qu'il vous a remis mon manuscrit ..." à Barbier, 1817-09-06, https://constance-de-salm.de/archiv/#/document/4384 #onthisday</t>
+          <t>»Monsieur Drais m'écrit, Monsieur, qu'il vous a remis mon manuscrit ...« à Barbier, 1817-09-06, https://constance-de-salm.de/archiv/#/document/4384 #onthisday</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7969,17 +7969,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-9-7</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>16:21:39</t>
+          <t>19:57:19</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Monsieur, vos deux lettres et les ouvrages que vous y aviez joints ..." à Berr / Behr, 1827-09-07, https://constance-de-salm.de/archiv/#/document/9087 #onthisday</t>
+          <t>»J’ai reçu, Monsieur, vos deux lettres et les ouvrages que vous y aviez joints ...« à Berr / Behr, 1827-09-07, https://constance-de-salm.de/archiv/#/document/9087 #onthisday</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7996,17 +7996,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-9-8</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>17:02:19</t>
+          <t>10:31:35</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>"Méconnaître le mérite / d’une œuvre grande ou petite, / sottement la laisser là, / c’est un vrai tort que cela ; ..." à Raboteau, 1818-09-08, https://constance-de-salm.de/archiv/#/document/11051 #onthisday</t>
+          <t>»Méconnaître le mérite / d’une œuvre grande ou petite, / sottement la laisser là, / c’est un vrai tort que cela ; ...« à Raboteau, 1818-09-08, https://constance-de-salm.de/archiv/#/document/11051 #onthisday</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8023,17 +8023,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-9-9</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>15:37:10</t>
+          <t>18:14:58</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>"Voudriez-vous bien, Monsieur le baron, me rendre un petit service ..." à Stassart, 1838-09-09, https://constance-de-salm.de/archiv/#/document/7951 #onthisday</t>
+          <t>»Voudriez-vous bien, Monsieur le baron, me rendre un petit service ...« à Stassart, 1838-09-09, https://constance-de-salm.de/archiv/#/document/7951 #onthisday</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8050,17 +8050,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-9-10</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>13:49:41</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>"Je vous écris à Compiègne, où vous devez être, Monsieur, comme je le vois ..." à Barbier, 1817-09-10, https://constance-de-salm.de/archiv/#/document/4385 #onthisday</t>
+          <t>»Je vous écris à Compiègne, où vous devez être, Monsieur, comme je le vois ...« à Barbier, 1817-09-10, https://constance-de-salm.de/archiv/#/document/4385 #onthisday</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8077,17 +8077,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-9-10</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>09:38:18</t>
+          <t>18:40:22</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>"Tu seras peut-être étonné de ne pas entendre parler de moi, cher frère, j’attendais toujours ..." à Théis, 1825-09-10, https://constance-de-salm.de/archiv/#/document/10631 #onthisday</t>
+          <t>»Tu seras peut-être étonné de ne pas entendre parler de moi, cher frère, j’attendais toujours ...« à Théis, 1825-09-10, https://constance-de-salm.de/archiv/#/document/10631 #onthisday</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8104,17 +8104,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-9-12</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>19:57:58</t>
+          <t>13:03:39</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>"J'ai appris avec la plus vive douleur, Madame et chère amie, la perte cruelle que vous venez faire ..." à Laya, 1833-09-12, https://constance-de-salm.de/archiv/#/document/5263 #onthisday</t>
+          <t>»J'ai appris avec la plus vive douleur, Madame et chère amie, la perte cruelle que vous venez faire ...« à Laya, 1833-09-12, https://constance-de-salm.de/archiv/#/document/5263 #onthisday</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8131,17 +8131,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-9-13</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>13:51:07</t>
+          <t>15:26:40</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre lettre, Monsieur, et comme vous le voyez je m'empresse d'y répondre ..." à Depping, 1837-09-13, https://constance-de-salm.de/archiv/#/document/7835 #onthisday</t>
+          <t>»J'ai reçu hier votre lettre, Monsieur, et comme vous le voyez je m'empresse d'y répondre ...« à Depping, 1837-09-13, https://constance-de-salm.de/archiv/#/document/7835 #onthisday</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8158,17 +8158,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-9-14</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>11:26:58</t>
+          <t>19:07:26</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>"Connaissez-vous ce triste état / Où l’on n’est tout à fait bien portant ni malade ..." à Gudin de La Brenellerie, 1810-09-14, https://constance-de-salm.de/archiv/#/document/2167 #onthisday</t>
+          <t>»Connaissez-vous ce triste état / Où l’on n’est tout à fait bien portant ni malade ...« à Gudin de La Brenellerie, 1810-09-14, https://constance-de-salm.de/archiv/#/document/2167 #onthisday</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8185,17 +8185,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-9-14</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>19:47:55</t>
+          <t>13:03:14</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>"J'ai lu hier dans le journal de Paris, avec le plus grand chagrin possible ..." à Barbier, 1822-09-14, https://constance-de-salm.de/archiv/#/document/35 #onthisday</t>
+          <t>»J'ai lu hier dans le journal de Paris, avec le plus grand chagrin possible ...« à Barbier, 1822-09-14, https://constance-de-salm.de/archiv/#/document/35 #onthisday</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8212,17 +8212,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-9-15</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16:36:09</t>
+          <t>13:39:09</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>"Il fait si beau, Monsieur, que je pense que madame Kopp, votre Louise et le grand fils pouviés venir à pied ou en voiture pour la journée avec vous : ..." à Prous, 1816-09-15, https://constance-de-salm.de/archiv/#/document/8853 #onthisday</t>
+          <t>»Il fait si beau, Monsieur, que je pense que madame Kopp, votre Louise et le grand fils pouviés venir à pied ou en voiture pour la journée avec vous : ...« à Prous, 1816-09-15, https://constance-de-salm.de/archiv/#/document/8853 #onthisday</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8239,17 +8239,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-9-15</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>13:24:49</t>
+          <t>13:12:13</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>"Monsieur Maleszewski me dit, mon ancien et véritable ami, que vous êtes malade, et que vous restez chez vous pour soigner une jambe ..." à Breguet, 1822-09-15, https://constance-de-salm.de/archiv/#/document/4852 #onthisday</t>
+          <t>»Monsieur Maleszewski me dit, mon ancien et véritable ami, que vous êtes malade, et que vous restez chez vous pour soigner une jambe ...« à Breguet, 1822-09-15, https://constance-de-salm.de/archiv/#/document/4852 #onthisday</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8266,17 +8266,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-9-16</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>08:39:57</t>
+          <t>13:55:06</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre qui m’a fort touchée, Monsieur et ancien ami, et je vous aurais écrit ..." à Duval, 1829-09-16, https://constance-de-salm.de/archiv/#/document/9462 #onthisday</t>
+          <t>»J’ai reçu votre lettre qui m’a fort touchée, Monsieur et ancien ami, et je vous aurais écrit ...« à Duval, 1829-09-16, https://constance-de-salm.de/archiv/#/document/9462 #onthisday</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8293,17 +8293,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-9-17</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>16:23:54</t>
+          <t>11:51:20</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>"quelques années, il est divisé en la partie ...; ..." à Thurn und Taxis, 1821-09-17, https://constance-de-salm.de/archiv/#/document/5814 #onthisday</t>
+          <t>»quelques années, il est divisé en la partie ...; ...« à Thurn und Taxis, 1821-09-17, https://constance-de-salm.de/archiv/#/document/5814 #onthisday</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8320,17 +8320,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-9-17</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>10:20:01</t>
+          <t>16:00:18</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>"Je me hâte de vous annoncer, Monsieur, que j’ai reçu exactement vos deux lettres; ..." à Jullien de Paris, 1827-09-17, https://constance-de-salm.de/archiv/#/document/9088 #onthisday</t>
+          <t>»Je me hâte de vous annoncer, Monsieur, que j’ai reçu exactement vos deux lettres; ...« à Jullien de Paris, 1827-09-17, https://constance-de-salm.de/archiv/#/document/9088 #onthisday</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8347,17 +8347,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-9-18</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>13:30:35</t>
+          <t>14:19:27</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>"J'ai appris hier la mort de notre ami La Chabeaussière ..." à Sobry, 1820-09-18, https://constance-de-salm.de/archiv/#/document/6747 #onthisday</t>
+          <t>»J'ai appris hier la mort de notre ami La Chabeaussière ...« à Sobry, 1820-09-18, https://constance-de-salm.de/archiv/#/document/6747 #onthisday</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8374,17 +8374,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-9-18</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>18:20:22</t>
+          <t>11:37:16</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>"Voilà plus de trois mois écoulés, Monsieur et ami, depuis qu'un coup affreux nous a frappés, et il m'a été impossible de vous écrire ..." à Barbier, 1820-09-18, https://constance-de-salm.de/archiv/#/document/4644 #onthisday</t>
+          <t>»Voilà plus de trois mois écoulés, Monsieur et ami, depuis qu'un coup affreux nous a frappés, et il m'a été impossible de vous écrire ...« à Barbier, 1820-09-18, https://constance-de-salm.de/archiv/#/document/4644 #onthisday</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8401,17 +8401,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-9-19</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>08:09:15</t>
+          <t>17:57:56</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y a près de quinze jours, Monsieur le baron, et je vous aurais déjà répondu ..." à Ladoucette, 1834-09-19, https://constance-de-salm.de/archiv/#/document/5597 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y a près de quinze jours, Monsieur le baron, et je vous aurais déjà répondu ...« à Ladoucette, 1834-09-19, https://constance-de-salm.de/archiv/#/document/5597 #onthisday</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8428,17 +8428,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-9-20</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>15:15:26</t>
+          <t>15:08:25</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>"Mille remerciments [sic] des bulletins ..." à Prous, 1818-09-20, https://constance-de-salm.de/archiv/#/document/4450 #onthisday</t>
+          <t>»Mille remerciments [sic] des bulletins ...« à Prous, 1818-09-20, https://constance-de-salm.de/archiv/#/document/4450 #onthisday</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8455,17 +8455,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-9-21</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>09:12:27</t>
+          <t>13:39:58</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>"J’avais commencé une lettre pour vous il y a 8 à 10 jours, Monsieur, dans laquelle je vous recommandais un ouvrage ..." à Jullien de Paris, 1828-09-21, https://constance-de-salm.de/archiv/#/document/9229 #onthisday</t>
+          <t>»J’avais commencé une lettre pour vous il y a 8 à 10 jours, Monsieur, dans laquelle je vous recommandais un ouvrage ...« à Jullien de Paris, 1828-09-21, https://constance-de-salm.de/archiv/#/document/9229 #onthisday</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8482,17 +8482,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2026-9-22</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>19:25:18</t>
+          <t>18:45:56</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>"Depuis longtemps, Monsieur, je me propose de vous écrire; il me semble que j’ai beaucoup de choses à vous dire; ..." à Audiffret, 1833-09-22, https://constance-de-salm.de/archiv/#/document/9544 #onthisday</t>
+          <t>»Depuis longtemps, Monsieur, je me propose de vous écrire; il me semble que j’ai beaucoup de choses à vous dire; ...« à Audiffret, 1833-09-22, https://constance-de-salm.de/archiv/#/document/9544 #onthisday</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8509,17 +8509,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2026-9-23</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>10:33:23</t>
+          <t>19:15:34</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>"Je veux vous dire, Monsieur, que Blacquie [oder Blaequie] est ici ..." à Prous, 1819-09-23, https://constance-de-salm.de/archiv/#/document/10637 #onthisday</t>
+          <t>»Je veux vous dire, Monsieur, que Blacquie [oder Blaequie] est ici ...« à Prous, 1819-09-23, https://constance-de-salm.de/archiv/#/document/10637 #onthisday</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8536,17 +8536,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2026-9-23</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>19:58:17</t>
+          <t>17:43:54</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>"Mon frère m'a écrit, Monsieur et ancien ami ..." à Duval, 1821-09-23, https://constance-de-salm.de/archiv/#/document/8297 #onthisday</t>
+          <t>»Mon frère m'a écrit, Monsieur et ancien ami ...« à Duval, 1821-09-23, https://constance-de-salm.de/archiv/#/document/8297 #onthisday</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8563,17 +8563,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2026-9-24</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>16:01:57</t>
+          <t>13:04:11</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>"Depuis quelque temps, Monsieur, j'étais étonnée et presque inquiète de ne pas entendre parler de vous ..." à Jullien de Paris, 1838-09-24, https://constance-de-salm.de/archiv/#/document/7954 #onthisday</t>
+          <t>»Depuis quelque temps, Monsieur, j'étais étonnée et presque inquiète de ne pas entendre parler de vous ...« à Jullien de Paris, 1838-09-24, https://constance-de-salm.de/archiv/#/document/7954 #onthisday</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8590,17 +8590,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2026-9-25</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>16:38:09</t>
+          <t>09:25:51</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>"J'ai reçu, il y a 2 jours, mon cher Félix, ta lettre du 21 et le lendemain le gibier de ta chasse qui nous a fait grand plaisir ..." à Francq, 1844-09-25, https://constance-de-salm.de/archiv/#/document/5323 #onthisday</t>
+          <t>»J'ai reçu, il y a 2 jours, mon cher Félix, ta lettre du 21 et le lendemain le gibier de ta chasse qui nous a fait grand plaisir ...« à Francq, 1844-09-25, https://constance-de-salm.de/archiv/#/document/5323 #onthisday</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8617,17 +8617,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2026-9-26</t>
+          <t>2026-09-26</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>11:23:46</t>
+          <t>11:53:48</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit un mot d’Aix-la-Chapelle, Monsieur, pour vous dire que j’avais reçu votre seconde lettre ..." à Villenave, 1827-09-26, https://constance-de-salm.de/archiv/#/document/10995 #onthisday</t>
+          <t>»Je vous ai écrit un mot d’Aix-la-Chapelle, Monsieur, pour vous dire que j’avais reçu votre seconde lettre ...« à Villenave, 1827-09-26, https://constance-de-salm.de/archiv/#/document/10995 #onthisday</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8644,17 +8644,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2026-9-27</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>16:58:38</t>
+          <t>11:42:03</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, Monsieur, que j’ai reçu une bonne et grande lettre de vous; ..." à Jullien de Paris, 1836-09-27, https://constance-de-salm.de/archiv/#/document/9849 #onthisday</t>
+          <t>»Il y a déjà quelque temps, Monsieur, que j’ai reçu une bonne et grande lettre de vous; ...« à Jullien de Paris, 1836-09-27, https://constance-de-salm.de/archiv/#/document/9849 #onthisday</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8671,17 +8671,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2026-9-28</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>09:42:52</t>
+          <t>14:01:51</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre bonne et grande lettre, Monsieur, et je ne veux pas tarder à vous répondre ..." à Mirault, 1839-09-28, https://constance-de-salm.de/archiv/#/document/8112 #onthisday</t>
+          <t>»J'ai reçu votre bonne et grande lettre, Monsieur, et je ne veux pas tarder à vous répondre ...« à Mirault, 1839-09-28, https://constance-de-salm.de/archiv/#/document/8112 #onthisday</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8698,17 +8698,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2026-9-29</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>13:56:55</t>
+          <t>10:13:00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>"Nous avons appris avec une bien vive douleur, Monsieur, par votre lettre d’hier, la perte cruelle ..." à Wergifosse / Vergifosse, 1828-09-29, https://constance-de-salm.de/archiv/#/document/9233 #onthisday</t>
+          <t>»Nous avons appris avec une bien vive douleur, Monsieur, par votre lettre d’hier, la perte cruelle ...« à Wergifosse / Vergifosse, 1828-09-29, https://constance-de-salm.de/archiv/#/document/9233 #onthisday</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8725,17 +8725,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2026-9-30</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>19:06:42</t>
+          <t>10:03:22</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>"Je suis confuse de mon long silence, Monsieur et véritable ami ..." à Raboteau, 1817-09-30, https://constance-de-salm.de/archiv/#/document/4391 #onthisday</t>
+          <t>»Je suis confuse de mon long silence, Monsieur et véritable ami ...« à Raboteau, 1817-09-30, https://constance-de-salm.de/archiv/#/document/4391 #onthisday</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8752,17 +8752,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2026-9-30</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>18:24:21</t>
+          <t>14:25:44</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>"C'est à vous cette fois que je veux écrire, Monsieur, j'ai un compliment à vous faire ..." à Laya, 1817-09-30, https://constance-de-salm.de/archiv/#/document/4392 #onthisday</t>
+          <t>»C'est à vous cette fois que je veux écrire, Monsieur, j'ai un compliment à vous faire ...« à Laya, 1817-09-30, https://constance-de-salm.de/archiv/#/document/4392 #onthisday</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8779,17 +8779,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2026-10-1</t>
+          <t>2026-10-01</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>15:17:28</t>
+          <t>13:30:51</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>"Ta lettre m’est arrivée, cher frère, au milieu des visites que nous amenait la fête de mon mari ..." à Théis, 1834-10-01, https://constance-de-salm.de/archiv/#/document/10847 #onthisday</t>
+          <t>»Ta lettre m’est arrivée, cher frère, au milieu des visites que nous amenait la fête de mon mari ...« à Théis, 1834-10-01, https://constance-de-salm.de/archiv/#/document/10847 #onthisday</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8806,17 +8806,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2026-10-2</t>
+          <t>2026-10-02</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>12:22:31</t>
+          <t>09:10:02</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>"Après avoir tant tardé à vous écrire, mon ancienne amie, c’est moi maintenant qui me plais [sic] de ne pas ..." à Salis, 1836-10-02, https://constance-de-salm.de/archiv/#/document/9850 #onthisday</t>
+          <t>»Après avoir tant tardé à vous écrire, mon ancienne amie, c’est moi maintenant qui me plais [sic] de ne pas ...« à Salis, 1836-10-02, https://constance-de-salm.de/archiv/#/document/9850 #onthisday</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8833,17 +8833,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2026-10-3</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>14:51:28</t>
+          <t>19:54:08</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>"On nous dit, Monsieur, que vous êtes à Langwaden (et peut-être Madame votre mère) pour y terminer vos affaires ..." à Maison, 1828-10-03, https://constance-de-salm.de/archiv/#/document/9235 #onthisday</t>
+          <t>»On nous dit, Monsieur, que vous êtes à Langwaden (et peut-être Madame votre mère) pour y terminer vos affaires ...« à Maison, 1828-10-03, https://constance-de-salm.de/archiv/#/document/9235 #onthisday</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8860,17 +8860,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2026-10-4</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>19:47:26</t>
+          <t>18:58:44</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>"Savez-vous pourquoi je vous écris peu depuis longtemps, mon ancien ami ..." à Raboteau, 1819-10-04, https://constance-de-salm.de/archiv/#/document/6482 #onthisday</t>
+          <t>»Savez-vous pourquoi je vous écris peu depuis longtemps, mon ancien ami ...« à Raboteau, 1819-10-04, https://constance-de-salm.de/archiv/#/document/6482 #onthisday</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8887,17 +8887,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2026-10-5</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>09:52:51</t>
+          <t>15:50:30</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>"Vous aurez été surpris, Monsieur, de mon long silence; j’en suis surprise moi-même ..." à Leyen, 1826-10-05, https://constance-de-salm.de/archiv/#/document/9046 #onthisday</t>
+          <t>»Vous aurez été surpris, Monsieur, de mon long silence; j’en suis surprise moi-même ...« à Leyen, 1826-10-05, https://constance-de-salm.de/archiv/#/document/9046 #onthisday</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8914,17 +8914,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2026-10-6</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>09:34:15</t>
+          <t>16:47:23</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps que j'ai reçu votre bonne lettre, mon ancien ami ..." à Thurot, 1831-10-06, https://constance-de-salm.de/archiv/#/document/6579 #onthisday</t>
+          <t>»Il y a déjà quelque temps que j'ai reçu votre bonne lettre, mon ancien ami ...« à Thurot, 1831-10-06, https://constance-de-salm.de/archiv/#/document/6579 #onthisday</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8941,17 +8941,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2026-10-7</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>12:36:47</t>
+          <t>10:27:05</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>"J'ai eu tant de visites tous ces jours-ci, Monsieur le colonel, et j'ai aussi été si occupée, que je n'ai pu trouver ..." à Schepeler, 1841-10-07, https://constance-de-salm.de/archiv/#/document/7493 #onthisday</t>
+          <t>»J'ai eu tant de visites tous ces jours-ci, Monsieur le colonel, et j'ai aussi été si occupée, que je n'ai pu trouver ...« à Schepeler, 1841-10-07, https://constance-de-salm.de/archiv/#/document/7493 #onthisday</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8968,17 +8968,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2026-10-8</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>15:08:56</t>
+          <t>09:08:38</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>"Mon frère et sa famille sont partis, Monsieur et véritable ami, et je crois sentir de nouveau tous les coups qui m'ont frappée ..." à Barbier, 1820-10-08, https://constance-de-salm.de/archiv/#/document/4643 #onthisday</t>
+          <t>»Mon frère et sa famille sont partis, Monsieur et véritable ami, et je crois sentir de nouveau tous les coups qui m'ont frappée ...« à Barbier, 1820-10-08, https://constance-de-salm.de/archiv/#/document/4643 #onthisday</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8995,17 +8995,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2026-10-8</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>12:33:21</t>
+          <t>16:20:41</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>"C'est avec un grand plaisir que je vous écris ce mot de ma main, mon cher voisin ..." à Prous, 1821-10-08, https://constance-de-salm.de/archiv/#/document/2849 #onthisday</t>
+          <t>»C'est avec un grand plaisir que je vous écris ce mot de ma main, mon cher voisin ...« à Prous, 1821-10-08, https://constance-de-salm.de/archiv/#/document/2849 #onthisday</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9022,17 +9022,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2026-10-9</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>17:19:35</t>
+          <t>17:49:39</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur, que je respire depuis que vous êtes à Paris, jusque là du moins je n'avais pas le courage de vous écrire ..." à Drais, 1832-10-09, https://constance-de-salm.de/archiv/#/document/5432 #onthisday</t>
+          <t>»Il me semble, Monsieur, que je respire depuis que vous êtes à Paris, jusque là du moins je n'avais pas le courage de vous écrire ...« à Drais, 1832-10-09, https://constance-de-salm.de/archiv/#/document/5432 #onthisday</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9054,12 +9054,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>08:40:11</t>
+          <t>10:37:01</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>"J’aurais désiré pouvoir te répondre peu de jours après avoir reçu ta lettre, mon cher Adolphe; ..." à Théis, 1832-10-10, https://constance-de-salm.de/archiv/#/document/10825 #onthisday</t>
+          <t>»J’aurais désiré pouvoir te répondre peu de jours après avoir reçu ta lettre, mon cher Adolphe; ...« à Théis, 1832-10-10, https://constance-de-salm.de/archiv/#/document/10825 #onthisday</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9081,12 +9081,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>08:00:41</t>
+          <t>10:18:25</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>"Je retombe toujours, Monsieur et ami, dans mon péché, non de paresse ..." à Barbier, 1825-10-12, https://constance-de-salm.de/archiv/#/document/9998 #onthisday</t>
+          <t>»Je retombe toujours, Monsieur et ami, dans mon péché, non de paresse ...« à Barbier, 1825-10-12, https://constance-de-salm.de/archiv/#/document/9998 #onthisday</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>19:49:32</t>
+          <t>17:19:32</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre il y a quelques jours, Madame et amie, et je m’empresse de vous répondre pour vous dire ..." à Salis, 1829-10-12, https://constance-de-salm.de/archiv/#/document/9463 #onthisday</t>
+          <t>»J’ai reçu votre lettre il y a quelques jours, Madame et amie, et je m’empresse de vous répondre pour vous dire ...« à Salis, 1829-10-12, https://constance-de-salm.de/archiv/#/document/9463 #onthisday</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>12:06:17</t>
+          <t>19:45:38</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>"Depuis longtemps, je songe à vous écrire, / Et cependant, je ne vous écris pas. / Ce doux transport poétique délire, / Qui m’a toujours soumise à son empire; ..." à Sanson de Pongerville, 1834-10-13, https://constance-de-salm.de/archiv/#/document/9566 #onthisday</t>
+          <t>»Depuis longtemps, je songe à vous écrire, / Et cependant, je ne vous écris pas. / Ce doux transport poétique délire, / Qui m’a toujours soumise à son empire; ...« à Sanson de Pongerville, 1834-10-13, https://constance-de-salm.de/archiv/#/document/9566 #onthisday</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9162,12 +9162,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>12:35:03</t>
+          <t>09:38:20</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>"Depuis que je suis ici, Madame, je me suis fort souvent proposé de vous écrire ..." à Vien, 1836-10-13, https://constance-de-salm.de/archiv/#/document/9853 #onthisday</t>
+          <t>»Depuis que je suis ici, Madame, je me suis fort souvent proposé de vous écrire ...« à Vien, 1836-10-13, https://constance-de-salm.de/archiv/#/document/9853 #onthisday</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9189,12 +9189,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>11:27:20</t>
+          <t>12:41:04</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>"Vous allez être bien étonné, Monsieur le baron, de ma promptitude à vous répondre ..." à Ladoucette, 1832-10-14, https://constance-de-salm.de/archiv/#/document/5435 #onthisday</t>
+          <t>»Vous allez être bien étonné, Monsieur le baron, de ma promptitude à vous répondre ...« à Ladoucette, 1832-10-14, https://constance-de-salm.de/archiv/#/document/5435 #onthisday</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>12:45:36</t>
+          <t>12:49:33</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>"Vous allez être bien étonné, Monsieur, de recevoir une si prompte réponse à votre dernière lettre; ..." à Villenave, 1828-10-15, https://constance-de-salm.de/archiv/#/document/9254 #onthisday</t>
+          <t>»Vous allez être bien étonné, Monsieur, de recevoir une si prompte réponse à votre dernière lettre; ...« à Villenave, 1828-10-15, https://constance-de-salm.de/archiv/#/document/9254 #onthisday</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>14:26:28</t>
+          <t>12:47:04</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>"Je vous ai promis une nouvelle petite lettre, Monsieur et ami ..." à Raboteau, 1817-10-16, https://constance-de-salm.de/archiv/#/document/4395 #onthisday</t>
+          <t>»Je vous ai promis une nouvelle petite lettre, Monsieur et ami ...« à Raboteau, 1817-10-16, https://constance-de-salm.de/archiv/#/document/4395 #onthisday</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9270,12 +9270,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>19:55:34</t>
+          <t>16:23:07</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre, Madame, elle a bien touché mon cœur; que vous répondre? Que vous dire? ..." à Salis, 1820-10-16, https://constance-de-salm.de/archiv/#/document/4646 #onthisday</t>
+          <t>»J’ai reçu votre lettre, Madame, elle a bien touché mon cœur; que vous répondre? Que vous dire? ...« à Salis, 1820-10-16, https://constance-de-salm.de/archiv/#/document/4646 #onthisday</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9297,12 +9297,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>19:40:37</t>
+          <t>12:40:46</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>"Vous aurez été bien étonné de mon long silence, Monsieur ..." à Pougens, 1831-10-17, https://constance-de-salm.de/archiv/#/document/6583 #onthisday</t>
+          <t>»Vous aurez été bien étonné de mon long silence, Monsieur ...« à Pougens, 1831-10-17, https://constance-de-salm.de/archiv/#/document/6583 #onthisday</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9324,12 +9324,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>10:12:14</t>
+          <t>09:55:42</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>"Je vais retourner à Paris dans 15 jours, Monsieur ..." à Raboteau, 1805-10-18, https://constance-de-salm.de/archiv/#/document/8684 #onthisday</t>
+          <t>»Je vais retourner à Paris dans 15 jours, Monsieur ...« à Raboteau, 1805-10-18, https://constance-de-salm.de/archiv/#/document/8684 #onthisday</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9351,12 +9351,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>15:29:40</t>
+          <t>16:06:13</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre bonne lettre, ma chère amie, et je m’empresse de vous répondre et de vous prier de féliciter en mon nom et en celui du Prince ..." à Naigeon, 1835-10-19, https://constance-de-salm.de/archiv/#/document/9655 #onthisday</t>
+          <t>»J’ai reçu votre bonne lettre, ma chère amie, et je m’empresse de vous répondre et de vous prier de féliciter en mon nom et en celui du Prince ...« à Naigeon, 1835-10-19, https://constance-de-salm.de/archiv/#/document/9655 #onthisday</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -9378,12 +9378,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>17:17:29</t>
+          <t>18:47:54</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>"Je veux vous annoncer, ma chère amie, une chose, qui, j’en suis sûre, vous sera agréable; ..." à Vanhove, 1835-10-20, https://constance-de-salm.de/archiv/#/document/9656 #onthisday</t>
+          <t>»Je veux vous annoncer, ma chère amie, une chose, qui, j’en suis sûre, vous sera agréable; ...« à Vanhove, 1835-10-20, https://constance-de-salm.de/archiv/#/document/9656 #onthisday</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -9405,12 +9405,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>09:03:35</t>
+          <t>09:32:57</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>"J’ai quitté la campagne et je suis près de vous / Vous ne m’écrivez plus, et je m’en plains avec cause / ..." à Gudin de La Brenellerie, 1808-10-21, https://constance-de-salm.de/archiv/#/document/2109 #onthisday</t>
+          <t>»J’ai quitté la campagne et je suis près de vous / Vous ne m’écrivez plus, et je m’en plains avec cause / ...« à Gudin de La Brenellerie, 1808-10-21, https://constance-de-salm.de/archiv/#/document/2109 #onthisday</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>15:10:37</t>
+          <t>10:57:56</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre seconde lettre, Mademoiselle, et écrivant aujoud'hui à Monsieur Drais ..." à Sobry, 1830-10-22, https://constance-de-salm.de/archiv/#/document/5206 #onthisday</t>
+          <t>»J'ai reçu hier votre seconde lettre, Mademoiselle, et écrivant aujoud'hui à Monsieur Drais ...« à Sobry, 1830-10-22, https://constance-de-salm.de/archiv/#/document/5206 #onthisday</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>15:26:28</t>
+          <t>08:04:00</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>"J’ai écrit ces jours-ci à Adolphe, cher frère ..." à Théis, 1832-10-22, https://constance-de-salm.de/archiv/#/document/10826 #onthisday</t>
+          <t>»J’ai écrit ces jours-ci à Adolphe, cher frère ...« à Théis, 1832-10-22, https://constance-de-salm.de/archiv/#/document/10826 #onthisday</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9486,12 +9486,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>08:47:30</t>
+          <t>08:27:51</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>"Depuis que j’ai reçu votre dernière lettre, Monsieur, le désir d’y réponde avec quelque étendue ..." à Raboteau, 1814-10-23, https://constance-de-salm.de/archiv/#/document/3919 #onthisday</t>
+          <t>»Depuis que j’ai reçu votre dernière lettre, Monsieur, le désir d’y réponde avec quelque étendue ...« à Raboteau, 1814-10-23, https://constance-de-salm.de/archiv/#/document/3919 #onthisday</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>10:50:06</t>
+          <t>08:36:09</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>"J'ai bien de l'impatience, Monsieur, d'apprendre que vous avez enfin commencé l'attaque en calomnie ..." à Evelt, 1828-10-23, https://constance-de-salm.de/archiv/#/document/10142 #onthisday</t>
+          <t>»J'ai bien de l'impatience, Monsieur, d'apprendre que vous avez enfin commencé l'attaque en calomnie ...« à Evelt, 1828-10-23, https://constance-de-salm.de/archiv/#/document/10142 #onthisday</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>15:04:46</t>
+          <t>19:08:49</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>"Vous êtes si complaisant, Monsieur, que c'est encore à vous que je m'adresse ..." à Audiffret, 1837-10-24, https://constance-de-salm.de/archiv/#/document/7846 #onthisday</t>
+          <t>»Vous êtes si complaisant, Monsieur, que c'est encore à vous que je m'adresse ...« à Audiffret, 1837-10-24, https://constance-de-salm.de/archiv/#/document/7846 #onthisday</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>08:39:32</t>
+          <t>14:43:44</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>"Voilà dix mille ans, cher frère, que je n'ai jasé avec toi ..." à Théis, 1831-10-25, https://constance-de-salm.de/archiv/#/document/10805 #onthisday</t>
+          <t>»Voilà dix mille ans, cher frère, que je n'ai jasé avec toi ...« à Théis, 1831-10-25, https://constance-de-salm.de/archiv/#/document/10805 #onthisday</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9594,12 +9594,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>18:31:27</t>
+          <t>08:02:45</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre bonne lettre, ma bien chère voisine, et en même temps je vois avec plaisir ..." à Hompesch, 1833-10-26, https://constance-de-salm.de/archiv/#/document/5281 #onthisday</t>
+          <t>»J'ai reçu votre bonne lettre, ma bien chère voisine, et en même temps je vois avec plaisir ...« à Hompesch, 1833-10-26, https://constance-de-salm.de/archiv/#/document/5281 #onthisday</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9621,12 +9621,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>12:14:50</t>
+          <t>11:09:09</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre au milieu de tous mes embarras de départ, Monsieur le colonel, j’ai à peine le temps de vous répondre un mot ..." à Schepeler, 1835-10-26, https://constance-de-salm.de/archiv/#/document/9657 #onthisday</t>
+          <t>»Je reçois votre lettre au milieu de tous mes embarras de départ, Monsieur le colonel, j’ai à peine le temps de vous répondre un mot ...« à Schepeler, 1835-10-26, https://constance-de-salm.de/archiv/#/document/9657 #onthisday</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9648,12 +9648,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>13:58:53</t>
+          <t>12:19:11</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>"Dans une âme agitée chaque jour, chaque instant amène une nouvelle résolution, une nouvelle crainte ..." à Barbier, 1820-10-27, https://constance-de-salm.de/archiv/#/document/6934 #onthisday</t>
+          <t>»Dans une âme agitée chaque jour, chaque instant amène une nouvelle résolution, une nouvelle crainte ...« à Barbier, 1820-10-27, https://constance-de-salm.de/archiv/#/document/6934 #onthisday</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9675,12 +9675,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>19:17:50</t>
+          <t>11:35:45</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>"Je veux vous redire moi-même, Monsieur, ce que Constant vient de vous dire de ma part ..." à Jullien de Paris, 1830-10-28, https://constance-de-salm.de/archiv/#/document/5196 #onthisday</t>
+          <t>»Je veux vous redire moi-même, Monsieur, ce que Constant vient de vous dire de ma part ...« à Jullien de Paris, 1830-10-28, https://constance-de-salm.de/archiv/#/document/5196 #onthisday</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>12:09:24</t>
+          <t>10:13:09</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>"Il y a plus de deux ans, Madame, qu'en arrivant à Aix, j'y ai trouvé une lettre qui avait déjà six mois de date ..." à Sainte-Luce-Oudaille, 1833-10-29, https://constance-de-salm.de/archiv/#/document/5115 #onthisday</t>
+          <t>»Il y a plus de deux ans, Madame, qu'en arrivant à Aix, j'y ai trouvé une lettre qui avait déjà six mois de date ...« à Sainte-Luce-Oudaille, 1833-10-29, https://constance-de-salm.de/archiv/#/document/5115 #onthisday</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9729,12 +9729,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>13:21:01</t>
+          <t>11:27:13</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>"Il y a plus de deux ans, Madame, qu'en arrivant à Aix, j'y ai trouvé une lettre qui avait déjà six mois de date ..." à Sainte-Luce-Oudaille, 1833-10-29, https://constance-de-salm.de/archiv/#/document/731 #onthisday</t>
+          <t>»Il y a plus de deux ans, Madame, qu'en arrivant à Aix, j'y ai trouvé une lettre qui avait déjà six mois de date ...« à Sainte-Luce-Oudaille, 1833-10-29, https://constance-de-salm.de/archiv/#/document/731 #onthisday</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9756,12 +9756,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>08:22:45</t>
+          <t>15:54:14</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>"Je ne veux pas, Monsieur, que vous alliez penser que j'oublie dans le plaisir ..." à Prous, 1816-10-30, https://constance-de-salm.de/archiv/#/document/10625 #onthisday</t>
+          <t>»Je ne veux pas, Monsieur, que vous alliez penser que j'oublie dans le plaisir ...« à Prous, 1816-10-30, https://constance-de-salm.de/archiv/#/document/10625 #onthisday</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9783,12 +9783,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>09:48:42</t>
+          <t>11:50:06</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>"Je ne veux pas, Monsieur, que vous alliez penser que j'oublie dans le plaisir ..." à Prous, 1816-10-30, https://constance-de-salm.de/archiv/#/document/2805 #onthisday</t>
+          <t>»Je ne veux pas, Monsieur, que vous alliez penser que j'oublie dans le plaisir ...« à Prous, 1816-10-30, https://constance-de-salm.de/archiv/#/document/2805 #onthisday</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9810,12 +9810,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>11:47:45</t>
+          <t>08:16:09</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y déjà quelque temps, Monsieur, j'ai pris beaucoup de part ..." à Châtelain, 1838-10-31, https://constance-de-salm.de/archiv/#/document/7959 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y déjà quelque temps, Monsieur, j'ai pris beaucoup de part ...« à Châtelain, 1838-10-31, https://constance-de-salm.de/archiv/#/document/7959 #onthisday</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9832,17 +9832,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2026-11-1</t>
+          <t>2026-11-01</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>16:34:26</t>
+          <t>18:35:21</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>"Je prie Madame Leroy de Bacre qui vous remettra ce billet, Monsieur, de vous donner sur mon très prochain retour à Paris ..." à Châtelain, 1835-11-01, https://constance-de-salm.de/archiv/#/document/9661 #onthisday</t>
+          <t>»Je prie Madame Leroy de Bacre qui vous remettra ce billet, Monsieur, de vous donner sur mon très prochain retour à Paris ...« à Châtelain, 1835-11-01, https://constance-de-salm.de/archiv/#/document/9661 #onthisday</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9859,17 +9859,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2026-11-2</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>18:50:01</t>
+          <t>15:08:16</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>"Je vous dois aussi une réponse, et depuis près de deux mois ..." à Maleszewski, 1834-11-02, https://constance-de-salm.de/archiv/#/document/5605 #onthisday</t>
+          <t>»Je vous dois aussi une réponse, et depuis près de deux mois ...« à Maleszewski, 1834-11-02, https://constance-de-salm.de/archiv/#/document/5605 #onthisday</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9886,17 +9886,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2026-11-3</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>10:28:36</t>
+          <t>11:10:00</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>"Je me reprochais depuis longtemps, Monsieur, de n’avoir pu trouver le moment de vous écrire ..." à Boucharlat, 1832-11-03, https://constance-de-salm.de/archiv/#/document/9517 #onthisday</t>
+          <t>»Je me reprochais depuis longtemps, Monsieur, de n’avoir pu trouver le moment de vous écrire ...« à Boucharlat, 1832-11-03, https://constance-de-salm.de/archiv/#/document/9517 #onthisday</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9913,17 +9913,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2026-11-4</t>
+          <t>2026-11-04</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>09:30:13</t>
+          <t>09:48:03</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>"Mille remerciements de votre écritoire, mon cher voisin ..." à Prous, 1821-11-04, https://constance-de-salm.de/archiv/#/document/2850 #onthisday</t>
+          <t>»Mille remerciements de votre écritoire, mon cher voisin ...« à Prous, 1821-11-04, https://constance-de-salm.de/archiv/#/document/2850 #onthisday</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9940,17 +9940,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2026-11-5</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>16:38:02</t>
+          <t>16:50:06</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>"Il y a déjà bien longtemps que j’ai reçu votre lettre, mon ancienne amie, je ne puis vous dire ..." à Salis, 1840-11-05, https://constance-de-salm.de/archiv/#/document/10442 #onthisday</t>
+          <t>»Il y a déjà bien longtemps que j’ai reçu votre lettre, mon ancienne amie, je ne puis vous dire ...« à Salis, 1840-11-05, https://constance-de-salm.de/archiv/#/document/10442 #onthisday</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9967,17 +9967,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2026-11-6</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>14:21:28</t>
+          <t>10:43:06</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>"Il y a plusieurs mois, Monsieur, que j’ai reçu la lettre que vous m’avez adressée à Aix-la-Chapelle ..." à N.N., 1832-11-06, https://constance-de-salm.de/archiv/#/document/9518 #onthisday</t>
+          <t>»Il y a plusieurs mois, Monsieur, que j’ai reçu la lettre que vous m’avez adressée à Aix-la-Chapelle ...« à N.N., 1832-11-06, https://constance-de-salm.de/archiv/#/document/9518 #onthisday</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9994,17 +9994,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2026-11-7</t>
+          <t>2026-11-07</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>14:08:00</t>
+          <t>17:20:21</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>"C'est avec une bien grande satisfaction, ma chère cousine, que j'ai appris par votre lettre ..." à Méricourt, 1839-11-07, https://constance-de-salm.de/archiv/#/document/8128 #onthisday</t>
+          <t>»C'est avec une bien grande satisfaction, ma chère cousine, que j'ai appris par votre lettre ...« à Méricourt, 1839-11-07, https://constance-de-salm.de/archiv/#/document/8128 #onthisday</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10021,17 +10021,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2026-11-8</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>10:22:44</t>
+          <t>11:29:06</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>"Chère Princesse, je pars dans deux jours pour Paris, et avant de quitter ce pays, je veux vous envoyer le portrait lithographié ..." à Thurn und Taxis, 1826-11-08, https://constance-de-salm.de/archiv/#/document/242 #onthisday</t>
+          <t>»Chère Princesse, je pars dans deux jours pour Paris, et avant de quitter ce pays, je veux vous envoyer le portrait lithographié ...« à Thurn und Taxis, 1826-11-08, https://constance-de-salm.de/archiv/#/document/242 #onthisday</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10048,17 +10048,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2026-11-8</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>15:16:11</t>
+          <t>17:44:40</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>"En vérité, Monsieur, je ne sais ce que je dois vous dire pour excuser mon long silence, tant j’en suis confuse ..." à Gohier, 1827-11-08, https://constance-de-salm.de/archiv/#/document/10460 #onthisday</t>
+          <t>»En vérité, Monsieur, je ne sais ce que je dois vous dire pour excuser mon long silence, tant j’en suis confuse ...« à Gohier, 1827-11-08, https://constance-de-salm.de/archiv/#/document/10460 #onthisday</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>10:27:34</t>
+          <t>09:03:42</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant, Monsieur et ami, une lettre de Monsieur Drais qui m’apprend que vous êtes toujours souffrant ..." à Barbier, 1825-11-10, https://constance-de-salm.de/archiv/#/document/8972 #onthisday</t>
+          <t>»Je reçois à l’instant, Monsieur et ami, une lettre de Monsieur Drais qui m’apprend que vous êtes toujours souffrant ...« à Barbier, 1825-11-10, https://constance-de-salm.de/archiv/#/document/8972 #onthisday</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10107,12 +10107,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>16:10:52</t>
+          <t>11:03:31</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre tout aimable et originale lettre, Monsieur le baron, au moment où on disposait tout chez moi pour mon départ ..." à Ladoucette, 1828-11-10, https://constance-de-salm.de/archiv/#/document/9277 #onthisday</t>
+          <t>»J’ai reçu votre tout aimable et originale lettre, Monsieur le baron, au moment où on disposait tout chez moi pour mon départ ...« à Ladoucette, 1828-11-10, https://constance-de-salm.de/archiv/#/document/9277 #onthisday</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10134,12 +10134,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>13:01:56</t>
+          <t>15:16:04</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>"Je m'empresse de renvoyer à Monsieur Van Marum, Monsieur, une feuille de votre album ..." à Reinwardt, 1817-11-12, https://constance-de-salm.de/archiv/#/document/4398 #onthisday</t>
+          <t>»Je m'empresse de renvoyer à Monsieur Van Marum, Monsieur, une feuille de votre album ...« à Reinwardt, 1817-11-12, https://constance-de-salm.de/archiv/#/document/4398 #onthisday</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>15:43:08</t>
+          <t>13:15:12</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>"Lorsque j'ai quitté Paris, Monsieur, votre intention était de faire un voyage en Allemagne, et vous vous proposiez ..." à Depping, 1839-11-14, https://constance-de-salm.de/archiv/#/document/8131 #onthisday</t>
+          <t>»Lorsque j'ai quitté Paris, Monsieur, votre intention était de faire un voyage en Allemagne, et vous vous proposiez ...« à Depping, 1839-11-14, https://constance-de-salm.de/archiv/#/document/8131 #onthisday</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10188,12 +10188,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>10:04:20</t>
+          <t>11:51:15</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>"Le lendemain du jour où je vous ai écrit, Monsieur, pour vous prier de me dire ..." à Barbier, 1833-11-15, https://constance-de-salm.de/archiv/#/document/5296 #onthisday</t>
+          <t>»Le lendemain du jour où je vous ai écrit, Monsieur, pour vous prier de me dire ...« à Barbier, 1833-11-15, https://constance-de-salm.de/archiv/#/document/5296 #onthisday</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10215,12 +10215,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>08:47:00</t>
+          <t>12:43:36</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>"Je suis sûre, mon ancien ami, que vous ne comprenez rien à mon silence ..." à Raboteau, 1824-11-16, https://constance-de-salm.de/archiv/#/document/6730 #onthisday</t>
+          <t>»Je suis sûre, mon ancien ami, que vous ne comprenez rien à mon silence ...« à Raboteau, 1824-11-16, https://constance-de-salm.de/archiv/#/document/6730 #onthisday</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10242,12 +10242,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>15:30:32</t>
+          <t>10:50:39</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>"Je suis depuis deux mois à Paris, mon ancienne amie, et j’espérais toujours y avoir de vos nouvelles ..." à Salis, 1824-11-16, https://constance-de-salm.de/archiv/#/document/10342 #onthisday</t>
+          <t>»Je suis depuis deux mois à Paris, mon ancienne amie, et j’espérais toujours y avoir de vos nouvelles ...« à Salis, 1824-11-16, https://constance-de-salm.de/archiv/#/document/10342 #onthisday</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>15:15:38</t>
+          <t>11:43:17</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>"J’ai reçu ici votre lettre, Madame et véritable amie, et je me reprocherais beaucoup de n’y avoir pas répondu plutôt ..." à Salis, 1829-11-17, https://constance-de-salm.de/archiv/#/document/9467 #onthisday</t>
+          <t>»J’ai reçu ici votre lettre, Madame et véritable amie, et je me reprocherais beaucoup de n’y avoir pas répondu plutôt ...« à Salis, 1829-11-17, https://constance-de-salm.de/archiv/#/document/9467 #onthisday</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -10296,12 +10296,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>16:56:41</t>
+          <t>08:37:11</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>"Je suis enfin de retour, Monsieur et Madame, et je veux vous l’annoncer moi-même ..." à Sanson de Pongerville, 1835-11-18, https://constance-de-salm.de/archiv/#/document/9665 #onthisday</t>
+          <t>»Je suis enfin de retour, Monsieur et Madame, et je veux vous l’annoncer moi-même ...« à Sanson de Pongerville, 1835-11-18, https://constance-de-salm.de/archiv/#/document/9665 #onthisday</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -10323,12 +10323,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>13:50:44</t>
+          <t>09:37:20</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur, joindre un mot pour vous à une lettre que j'adresse à Monsieur Drais ..." à Montémont, 1833-11-19, https://constance-de-salm.de/archiv/#/document/5301 #onthisday</t>
+          <t>»Je veux, Monsieur, joindre un mot pour vous à une lettre que j'adresse à Monsieur Drais ...« à Montémont, 1833-11-19, https://constance-de-salm.de/archiv/#/document/5301 #onthisday</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -10350,12 +10350,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>13:17:12</t>
+          <t>14:53:38</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>"Ta lettre m’a fait le plus grand plaisir, ma chère Joséphine; ta bonne santé et celle de ton enfant ..." à Théis, 1828-11-20, https://constance-de-salm.de/archiv/#/document/9278 #onthisday</t>
+          <t>»Ta lettre m’a fait le plus grand plaisir, ma chère Joséphine; ta bonne santé et celle de ton enfant ...« à Théis, 1828-11-20, https://constance-de-salm.de/archiv/#/document/9278 #onthisday</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10377,12 +10377,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>13:20:02</t>
+          <t>09:09:10</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre, Madame; je ne puis qu'être fort flattée de toutes les choses aimables que vous a inspiré [sic] la lecture ..." à N.N., 1837-11-21, https://constance-de-salm.de/archiv/#/document/7871 #onthisday</t>
+          <t>»J'ai reçu votre lettre, Madame; je ne puis qu'être fort flattée de toutes les choses aimables que vous a inspiré [sic] la lecture ...« à N.N., 1837-11-21, https://constance-de-salm.de/archiv/#/document/7871 #onthisday</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10404,12 +10404,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>15:54:43</t>
+          <t>19:43:37</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Monsieur le baron, la lettre que vous m’avez écrite de Viels-Maisons ..." à Ladoucette, 1829-11-22, https://constance-de-salm.de/archiv/#/document/9469 #onthisday</t>
+          <t>»J’ai reçu, Monsieur le baron, la lettre que vous m’avez écrite de Viels-Maisons ...« à Ladoucette, 1829-11-22, https://constance-de-salm.de/archiv/#/document/9469 #onthisday</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10431,12 +10431,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>09:31:39</t>
+          <t>08:27:39</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>"Je m'empresse de faire savoir à Monsierz &amp; Madame de la Mardelle que je suis de retour ..." à Lamardelle, 1838-11-23, https://constance-de-salm.de/archiv/#/document/7967 #onthisday</t>
+          <t>»Je m'empresse de faire savoir à Monsierz &amp; Madame de la Mardelle que je suis de retour ...« à Lamardelle, 1838-11-23, https://constance-de-salm.de/archiv/#/document/7967 #onthisday</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>15:26:18</t>
+          <t>13:11:32</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>"Je suis si confuse, Monsieur le baron, de n’avoir pas signé ma dernière lettre que je me hâte de commencer ..." à Ladoucette, 1828-11-24, https://constance-de-salm.de/archiv/#/document/9281 #onthisday</t>
+          <t>»Je suis si confuse, Monsieur le baron, de n’avoir pas signé ma dernière lettre que je me hâte de commencer ...« à Ladoucette, 1828-11-24, https://constance-de-salm.de/archiv/#/document/9281 #onthisday</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10485,12 +10485,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>13:27:11</t>
+          <t>13:50:37</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant ta lettre, cher frère, et j’y réponds à l’instant aussi ..." à Théis, 1825-11-26, https://constance-de-salm.de/archiv/#/document/10642 #onthisday</t>
+          <t>»Je reçois à l’instant ta lettre, cher frère, et j’y réponds à l’instant aussi ...« à Théis, 1825-11-26, https://constance-de-salm.de/archiv/#/document/10642 #onthisday</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10512,12 +10512,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>17:36:05</t>
+          <t>11:30:03</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>"J'ai reçu ces jours-ci votre dernière lettre, Monsieur le baron; J'attendais toujours pour répondre à la première ..." à Ladoucette, 1834-11-27, https://constance-de-salm.de/archiv/#/document/5609 #onthisday</t>
+          <t>»J'ai reçu ces jours-ci votre dernière lettre, Monsieur le baron; J'attendais toujours pour répondre à la première ...« à Ladoucette, 1834-11-27, https://constance-de-salm.de/archiv/#/document/5609 #onthisday</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>11:14:21</t>
+          <t>19:11:44</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>"C’est avec beaucoup de satisfaction, Monsieur, que j’ai trouvé votre nom dans la quadruple lettre ..." à Depping, 1836-11-27, https://constance-de-salm.de/archiv/#/document/9863 #onthisday</t>
+          <t>»C’est avec beaucoup de satisfaction, Monsieur, que j’ai trouvé votre nom dans la quadruple lettre ...« à Depping, 1836-11-27, https://constance-de-salm.de/archiv/#/document/9863 #onthisday</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -10566,12 +10566,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>11:27:19</t>
+          <t>14:32:46</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>"J’ai reçu, Monsieur, votre lettre et j’y aurais déjà répondu, si, depuis quelques temps, je n’avais été presque toujours incommodée ..." à Montferrand, 1835-11-28, https://constance-de-salm.de/archiv/#/document/9670 #onthisday</t>
+          <t>»J’ai reçu, Monsieur, votre lettre et j’y aurais déjà répondu, si, depuis quelques temps, je n’avais été presque toujours incommodée ...« à Montferrand, 1835-11-28, https://constance-de-salm.de/archiv/#/document/9670 #onthisday</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10593,12 +10593,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>13:47:27</t>
+          <t>11:12:05</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>"Depuis que j'ai reçu votre „Traité d'harmonie“, Monsieur, j'ai été si souffrante ..." à Colbert, 1838-11-29, https://constance-de-salm.de/archiv/#/document/7971 #onthisday</t>
+          <t>»Depuis que j'ai reçu votre „Traité d'harmonie“, Monsieur, j'ai été si souffrante ...« à Colbert, 1838-11-29, https://constance-de-salm.de/archiv/#/document/7971 #onthisday</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10620,12 +10620,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>14:01:50</t>
+          <t>19:36:26</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>"Dites-moi donc ce que vous devenez, mon cher voisin, êtes-vous malade? ..." à Prous, 1821-11-30, https://constance-de-salm.de/archiv/#/document/4567 #onthisday</t>
+          <t>»Dites-moi donc ce que vous devenez, mon cher voisin, êtes-vous malade? ...« à Prous, 1821-11-30, https://constance-de-salm.de/archiv/#/document/4567 #onthisday</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10647,12 +10647,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>19:12:20</t>
+          <t>15:23:43</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>"Je pars dans quelques jours pour Aix-la-Chapelle, Monsieur, je suis entourée de papiers, de notes ..." à Sanson de Pongerville, 1839-11-30, https://constance-de-salm.de/archiv/#/document/8138 #onthisday</t>
+          <t>»Je pars dans quelques jours pour Aix-la-Chapelle, Monsieur, je suis entourée de papiers, de notes ...« à Sanson de Pongerville, 1839-11-30, https://constance-de-salm.de/archiv/#/document/8138 #onthisday</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10669,17 +10669,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2026-12-1</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>16:11:43</t>
+          <t>17:37:21</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>"Vous êtes bien aimable, très chère et excellente amie, d'avoir été vous-même dans ma rue Richer ..." à Gouvion Saint-Cyr, 1825-12-01, https://constance-de-salm.de/archiv/#/document/4280 #onthisday</t>
+          <t>»Vous êtes bien aimable, très chère et excellente amie, d'avoir été vous-même dans ma rue Richer ...« à Gouvion Saint-Cyr, 1825-12-01, https://constance-de-salm.de/archiv/#/document/4280 #onthisday</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -10696,17 +10696,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2026-12-1</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>15:54:47</t>
+          <t>18:39:50</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>"Que disez-vous, Monsieur, de mon long silence, après m’avoir écrit une lettre ..." à Berville, 1829-12-01, https://constance-de-salm.de/archiv/#/document/9470 #onthisday</t>
+          <t>»Que disez-vous, Monsieur, de mon long silence, après m’avoir écrit une lettre ...« à Berville, 1829-12-01, https://constance-de-salm.de/archiv/#/document/9470 #onthisday</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -10723,17 +10723,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2026-12-3</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>13:42:12</t>
+          <t>09:34:09</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>"Voici, mon cher Anténor, la lettre à votre président que je vous envoye ..." à Lantier, 1817-12-03, https://constance-de-salm.de/archiv/#/document/4407 #onthisday</t>
+          <t>»Voici, mon cher Anténor, la lettre à votre président que je vous envoye ...« à Lantier, 1817-12-03, https://constance-de-salm.de/archiv/#/document/4407 #onthisday</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -10750,17 +10750,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2026-12-4</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>12:53:04</t>
+          <t>15:12:24</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>"Je suppose, Monsieur, que vous et tous mes amis m’attendez depuis un mois ..." à Jullien de Paris, 1828-12-04, https://constance-de-salm.de/archiv/#/document/9282 #onthisday</t>
+          <t>»Je suppose, Monsieur, que vous et tous mes amis m’attendez depuis un mois ...« à Jullien de Paris, 1828-12-04, https://constance-de-salm.de/archiv/#/document/9282 #onthisday</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10777,17 +10777,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2026-12-5</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>09:25:45</t>
+          <t>14:58:35</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit, Monsieur, hier et avant-hier, et je vous avais aussi envoyé ..." à Drais, 1834-12-05, https://constance-de-salm.de/archiv/#/document/10849 #onthisday</t>
+          <t>»Je vous ai écrit, Monsieur, hier et avant-hier, et je vous avais aussi envoyé ...« à Drais, 1834-12-05, https://constance-de-salm.de/archiv/#/document/10849 #onthisday</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10804,17 +10804,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2026-12-6</t>
+          <t>2026-12-06</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>13:14:48</t>
+          <t>17:26:36</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>"Un mot seulement, Monsieur et véritable ami, je n'ai pas répondu ..." à Raboteau, 1818-12-06, https://constance-de-salm.de/archiv/#/document/3977 #onthisday</t>
+          <t>»Un mot seulement, Monsieur et véritable ami, je n'ai pas répondu ...« à Raboteau, 1818-12-06, https://constance-de-salm.de/archiv/#/document/3977 #onthisday</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10831,17 +10831,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2026-12-6</t>
+          <t>2026-12-06</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>12:44:10</t>
+          <t>12:16:39</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>"Un mot seulement, Monsieur et véritable ami, je n'ai pas répondu ..." à Raboteau, 1818-12-06, https://constance-de-salm.de/archiv/#/document/4459 #onthisday</t>
+          <t>»Un mot seulement, Monsieur et véritable ami, je n'ai pas répondu ...« à Raboteau, 1818-12-06, https://constance-de-salm.de/archiv/#/document/4459 #onthisday</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10858,17 +10858,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2026-12-7</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>16:30:11</t>
+          <t>18:53:33</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>"Un mot en hâte, ma chère Minette, Monsieur Drais t’expliquera ..." à Francq, 1815-12-07, https://constance-de-salm.de/archiv/#/document/6253 #onthisday</t>
+          <t>»Un mot en hâte, ma chère Minette, Monsieur Drais t’expliquera ...« à Francq, 1815-12-07, https://constance-de-salm.de/archiv/#/document/6253 #onthisday</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10885,17 +10885,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2026-12-8</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>12:48:55</t>
+          <t>16:47:00</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>"Je m’empresse, Monsieur le baron, de vous renvoyer le petit billet ci-joint qui, si je ne me trompe ..." à Ladoucette, 1826-12-08, https://constance-de-salm.de/archiv/#/document/9049 #onthisday</t>
+          <t>»Je m’empresse, Monsieur le baron, de vous renvoyer le petit billet ci-joint qui, si je ne me trompe ...« à Ladoucette, 1826-12-08, https://constance-de-salm.de/archiv/#/document/9049 #onthisday</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10912,17 +10912,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2026-12-9</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>13:07:12</t>
+          <t>19:17:18</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>"Vous devez bien vous moquer de moi à l'heure qu'il est, Monsieur et ami ..." à Raboteau, 1815-12-09, https://constance-de-salm.de/archiv/#/document/4282 #onthisday</t>
+          <t>»Vous devez bien vous moquer de moi à l'heure qu'il est, Monsieur et ami ...« à Raboteau, 1815-12-09, https://constance-de-salm.de/archiv/#/document/4282 #onthisday</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10944,12 +10944,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>18:40:09</t>
+          <t>08:32:54</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>"Je ne vous écris qu'un mot, ma bien chère élève ..." à Salis, 1822-12-10, https://constance-de-salm.de/archiv/#/document/10336 #onthisday</t>
+          <t>»Je ne vous écris qu'un mot, ma bien chère élève ...« à Salis, 1822-12-10, https://constance-de-salm.de/archiv/#/document/10336 #onthisday</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10971,12 +10971,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>09:30:58</t>
+          <t>12:02:03</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>"J’apprends à l’instant, Monsieur et ami, la mort du bon Barbier, et ce triste événement ajoute au désir ..." à Duval, 1825-12-10, https://constance-de-salm.de/archiv/#/document/8974 #onthisday</t>
+          <t>»J’apprends à l’instant, Monsieur et ami, la mort du bon Barbier, et ce triste événement ajoute au désir ...« à Duval, 1825-12-10, https://constance-de-salm.de/archiv/#/document/8974 #onthisday</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10998,12 +10998,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>15:55:13</t>
+          <t>15:21:32</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, j’aurai bientôt le plaisir de me retrouver avec mes amis de Paris ..." à Boucharlat, 1840-12-11, https://constance-de-salm.de/archiv/#/document/11179 #onthisday</t>
+          <t>»Enfin, Monsieur, j’aurai bientôt le plaisir de me retrouver avec mes amis de Paris ...« à Boucharlat, 1840-12-11, https://constance-de-salm.de/archiv/#/document/11179 #onthisday</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11025,12 +11025,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>08:58:22</t>
+          <t>09:23:13</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>"Nous avons appris, il y a deux jours, Monsieur, en ouvrant un journal la perte cruelle que vous avez faite ..." à Barbier, 1825-12-12, https://constance-de-salm.de/archiv/#/document/8975 #onthisday</t>
+          <t>»Nous avons appris, il y a deux jours, Monsieur, en ouvrant un journal la perte cruelle que vous avez faite ...« à Barbier, 1825-12-12, https://constance-de-salm.de/archiv/#/document/8975 #onthisday</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11052,12 +11052,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>15:44:29</t>
+          <t>17:38:33</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>"C'était hier ma fête, mon ancien ami, et je me la donne en écrivant à mes amis ..." à Duval, 1817-12-13, https://constance-de-salm.de/archiv/#/document/4412 #onthisday</t>
+          <t>»C'était hier ma fête, mon ancien ami, et je me la donne en écrivant à mes amis ...« à Duval, 1817-12-13, https://constance-de-salm.de/archiv/#/document/4412 #onthisday</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11079,12 +11079,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>10:01:50</t>
+          <t>12:54:14</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre nouvel ouvrage, Monsieur, je n'ai pu encore que le parcourir ..." à Bignan, 1838-12-14, https://constance-de-salm.de/archiv/#/document/7978 #onthisday</t>
+          <t>»J'ai reçu hier votre nouvel ouvrage, Monsieur, je n'ai pu encore que le parcourir ...« à Bignan, 1838-12-14, https://constance-de-salm.de/archiv/#/document/7978 #onthisday</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11106,12 +11106,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>13:55:24</t>
+          <t>12:39:55</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, je puis partir et aller consoler ma fille de la perte cruelle ..." à Barbier, 1818-12-15, https://constance-de-salm.de/archiv/#/document/4461 #onthisday</t>
+          <t>»Enfin, Monsieur, je puis partir et aller consoler ma fille de la perte cruelle ...« à Barbier, 1818-12-15, https://constance-de-salm.de/archiv/#/document/4461 #onthisday</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11133,12 +11133,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>18:12:05</t>
+          <t>15:53:04</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>"Je ne veux plus vous voir, vous lire, vous entendre; / Je vous trouve maussade, injuste, ingrat, jaloux. / Je parierais que votre cœur … ..." à Duval, 1827-12-15, https://constance-de-salm.de/archiv/#/document/10321 #onthisday</t>
+          <t>»Je ne veux plus vous voir, vous lire, vous entendre; / Je vous trouve maussade, injuste, ingrat, jaloux. / Je parierais que votre cœur … ...« à Duval, 1827-12-15, https://constance-de-salm.de/archiv/#/document/10321 #onthisday</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11160,12 +11160,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>12:30:31</t>
+          <t>19:52:16</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, mon ancienne amie, cela m'inquiète ..." à Salis, 1833-12-16, https://constance-de-salm.de/archiv/#/document/5274 #onthisday</t>
+          <t>»Je n'entends point parler de vous, mon ancienne amie, cela m'inquiète ...« à Salis, 1833-12-16, https://constance-de-salm.de/archiv/#/document/5274 #onthisday</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11187,12 +11187,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>12:28:25</t>
+          <t>12:46:05</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>"Madame Sobry m'a écrit qu'il y a déjà quelque temps, mon ancien ami, que vous vous plaigniez de mon silence ..." à Thurot, 1830-12-17, https://constance-de-salm.de/archiv/#/document/5199 #onthisday</t>
+          <t>»Madame Sobry m'a écrit qu'il y a déjà quelque temps, mon ancien ami, que vous vous plaigniez de mon silence ...« à Thurot, 1830-12-17, https://constance-de-salm.de/archiv/#/document/5199 #onthisday</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11214,12 +11214,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>08:28:07</t>
+          <t>11:40:57</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>"Vous m’avez promis, Monsieur, de venir me voir et de m’apporter votre Épître ..." à Berville, 1835-12-18, https://constance-de-salm.de/archiv/#/document/9673 #onthisday</t>
+          <t>»Vous m’avez promis, Monsieur, de venir me voir et de m’apporter votre Épître ...« à Berville, 1835-12-18, https://constance-de-salm.de/archiv/#/document/9673 #onthisday</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>16:36:13</t>
+          <t>11:44:32</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>"Je commence cette lettre, Monsieur, en vous disant que l’erreur pour laquelle je vous ai grondé ..." à Drais, 1834-12-19, https://constance-de-salm.de/archiv/#/document/9552 #onthisday</t>
+          <t>»Je commence cette lettre, Monsieur, en vous disant que l’erreur pour laquelle je vous ai grondé ...« à Drais, 1834-12-19, https://constance-de-salm.de/archiv/#/document/9552 #onthisday</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -11268,12 +11268,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>18:05:51</t>
+          <t>15:30:51</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>"J'avais cru devoir faire part à Madame de Montigny, Monsieur le baron, de ce que vous me dites de vos traductions allemandes dans votre dernière lettre ..." à Ladoucette, 1833-12-20, https://constance-de-salm.de/archiv/#/document/5307 #onthisday</t>
+          <t>»J'avais cru devoir faire part à Madame de Montigny, Monsieur le baron, de ce que vous me dites de vos traductions allemandes dans votre dernière lettre ...« à Ladoucette, 1833-12-20, https://constance-de-salm.de/archiv/#/document/5307 #onthisday</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -11295,12 +11295,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>15:10:51</t>
+          <t>10:49:05</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>"Je n'ai point entendu parler de vous depuis bien longtemps, Monsieur, et je n'en ai point été surprise ..." à Paillet, 1830-12-21, https://constance-de-salm.de/archiv/#/document/5200 #onthisday</t>
+          <t>»Je n'ai point entendu parler de vous depuis bien longtemps, Monsieur, et je n'en ai point été surprise ...« à Paillet, 1830-12-21, https://constance-de-salm.de/archiv/#/document/5200 #onthisday</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
